--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -25,12 +25,12 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$Y$1:$Y$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AD$1:$AD$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AE$1:$AE$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AJ$1:$AJ$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
     <definedName name="travelrelation">'cv_sample'!$G$1:$G$3</definedName>
   </definedNames>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="675">
   <si>
     <t>alias</t>
   </si>
@@ -458,6 +458,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -557,6 +569,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -674,6 +704,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -681,6 +714,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2569,10 +2605,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2613,10 +2649,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2643,7 +2679,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2663,7 +2699,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2680,7 +2716,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2697,7 +2733,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2714,7 +2750,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2731,7 +2767,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2748,7 +2784,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2765,7 +2801,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2782,7 +2818,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2799,7 +2835,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2813,7 +2849,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2827,7 +2863,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2841,7 +2877,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2855,7 +2891,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2865,8 +2901,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2876,8 +2915,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2887,8 +2929,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2898,8 +2943,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2910,7 +2958,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2921,7 +2969,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2932,7 +2980,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2943,7 +2991,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2954,7 +3002,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2965,7 +3013,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2976,7 +3024,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2987,7 +3035,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2998,7 +3046,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -3009,7 +3057,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -3020,7 +3068,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -3031,7 +3079,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -3042,7 +3090,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -3053,7 +3101,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -3061,7 +3109,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -3069,7 +3117,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -3077,7 +3125,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -3085,7 +3133,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -3093,7 +3141,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -3101,7 +3149,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -3109,7 +3157,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -3117,7 +3165,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3125,7 +3173,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3133,176 +3181,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3327,27 +3415,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3370,122 +3458,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3512,300 +3600,300 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>625</v>
+        <v>637</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>627</v>
+        <v>639</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>629</v>
+        <v>641</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>631</v>
+        <v>643</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>633</v>
+        <v>645</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>635</v>
+        <v>647</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>637</v>
+        <v>649</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>639</v>
+        <v>651</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>641</v>
+        <v>653</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>643</v>
+        <v>655</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>645</v>
+        <v>657</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>647</v>
+        <v>659</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>653</v>
+        <v>665</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>655</v>
+        <v>667</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>659</v>
+        <v>671</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>661</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>626</v>
+        <v>638</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>628</v>
+        <v>640</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>630</v>
+        <v>642</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>632</v>
+        <v>644</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>636</v>
+        <v>648</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>638</v>
+        <v>650</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>640</v>
+        <v>652</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>644</v>
+        <v>656</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>646</v>
+        <v>658</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>648</v>
+        <v>660</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>652</v>
+        <v>664</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>656</v>
+        <v>668</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>662</v>
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -3852,253 +3940,253 @@
   <sheetData>
     <row r="1" spans="7:36">
       <c r="G1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="M1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="T1" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="Y1" t="s">
+        <v>614</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>631</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>602</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>615</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>619</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="2" spans="7:36">
       <c r="G2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="M2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="T2" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="Y2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>632</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>603</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>616</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>620</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="3" spans="7:36">
       <c r="G3" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="M3" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Y3" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="AD3" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="AE3" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="7:36">
       <c r="I4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M4" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="AD4" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="AE4" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="7:36">
       <c r="I5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="M5" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="AD5" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AE5" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="6" spans="7:36">
       <c r="I6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="M6" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AD6" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="AE6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="7:36">
       <c r="I7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="AD7" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="AE7" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="7:36">
       <c r="I8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M8" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="AD8" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="AE8" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="7:36">
       <c r="I9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="M9" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AD9" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="AE9" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="7:36">
       <c r="I10" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="M10" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
       <c r="AD10" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="AE10" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11" spans="7:36">
       <c r="I11" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="M11" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="AD11" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="AE11" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="12" spans="7:36">
       <c r="I12" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="M12" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="AD12" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="AE12" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="7:36">
       <c r="I13" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="M13" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="AD13" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="AE13" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14" spans="7:36">
       <c r="I14" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M14" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="AD14" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="AE14" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="7:36">
       <c r="I15" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="M15" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
       <c r="AE15" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="16" spans="7:36">
       <c r="I16" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="M16" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AE16" t="s">
         <v>116</v>
@@ -4106,2131 +4194,2131 @@
     </row>
     <row r="17" spans="9:31">
       <c r="I17" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="M17" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AE17" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
     <row r="18" spans="9:31">
       <c r="I18" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="M18" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="9:31">
       <c r="I19" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="M19" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="20" spans="9:31">
       <c r="I20" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="M20" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="9:31">
       <c r="I21" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M21" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="9:31">
       <c r="I22" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="M22" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="9:31">
       <c r="I23" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M23" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="9:31">
       <c r="I24" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="M24" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="25" spans="9:31">
       <c r="I25" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="M25" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="9:31">
       <c r="I26" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M26" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="9:31">
       <c r="I27" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="M27" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="9:31">
       <c r="I28" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="9:31">
       <c r="I29" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="M29" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="30" spans="9:31">
       <c r="I30" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="9:31">
       <c r="I31" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="32" spans="9:31">
       <c r="I32" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="M32" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="33" spans="9:13">
       <c r="I33" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="M33" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="9:13">
       <c r="I34" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="M34" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="9:13">
       <c r="I35" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="M35" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="9:13">
       <c r="I36" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="9:13">
       <c r="I37" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="M37" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="9:13">
       <c r="I38" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="M38" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="9:13">
       <c r="I39" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="9:13">
       <c r="I40" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="M40" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="9:13">
       <c r="I41" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="9:13">
       <c r="I42" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="M42" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="9:13">
       <c r="I43" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="M43" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="9:13">
       <c r="I44" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="9:13">
       <c r="I45" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="M45" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="46" spans="9:13">
       <c r="I46" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="M46" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="9:13">
       <c r="I47" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="M47" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="48" spans="9:13">
       <c r="I48" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="M48" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="9:13">
       <c r="I49" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="M49" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="9:13">
       <c r="I50" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="9:13">
       <c r="I51" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="9:13">
       <c r="I52" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="9:13">
       <c r="I53" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="M53" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54" spans="9:13">
       <c r="I54" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="M54" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="55" spans="9:13">
       <c r="I55" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="M55" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="56" spans="9:13">
       <c r="I56" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="M56" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="57" spans="9:13">
       <c r="I57" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="M57" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="9:13">
       <c r="I58" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="M58" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="59" spans="9:13">
       <c r="I59" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="M59" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="9:13">
       <c r="I60" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="M60" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="9:13">
       <c r="I61" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="M61" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="9:13">
       <c r="I62" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M62" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="9:13">
       <c r="I63" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="M63" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64" spans="9:13">
       <c r="I64" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="M64" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="65" spans="9:13">
       <c r="I65" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="M65" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="66" spans="9:13">
       <c r="I66" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="M66" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="9:13">
       <c r="I67" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="M67" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="9:13">
       <c r="I68" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="M68" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="9:13">
       <c r="I69" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="M69" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="9:13">
       <c r="I70" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="M70" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="9:13">
       <c r="I71" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="M71" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="9:13">
       <c r="I72" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="M72" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="9:13">
       <c r="I73" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M73" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="9:13">
       <c r="I74" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="M74" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="9:13">
       <c r="I75" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="M75" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="9:13">
       <c r="I76" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="M76" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="9:13">
       <c r="I77" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="M77" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="9:13">
       <c r="I78" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="M78" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="9:13">
       <c r="I79" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="M79" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="9:13">
       <c r="I80" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="M80" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="81" spans="9:13">
       <c r="I81" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="M81" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="9:13">
       <c r="I82" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="M82" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="9:13">
       <c r="I83" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="M83" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="9:13">
       <c r="I84" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="M84" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="9:13">
       <c r="I85" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M85" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="9:13">
       <c r="I86" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="M86" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="9:13">
       <c r="I87" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="M87" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="9:13">
       <c r="I88" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="M88" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="9:13">
       <c r="I89" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="M89" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="9:13">
       <c r="I90" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M90" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="9:13">
       <c r="I91" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="M91" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="9:13">
       <c r="I92" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="M92" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="9:13">
       <c r="I93" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="M93" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="9:13">
       <c r="I94" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="M94" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="9:13">
       <c r="I95" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="M95" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="9:13">
       <c r="I96" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="M96" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="9:13">
       <c r="I97" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="M97" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="9:13">
       <c r="I98" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="M98" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="9:13">
       <c r="I99" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="M99" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="9:13">
       <c r="I100" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="9:13">
       <c r="I101" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="M101" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="9:13">
       <c r="I102" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="M102" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="9:13">
       <c r="I103" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="M103" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="9:13">
       <c r="I104" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M104" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="9:13">
       <c r="I105" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="M105" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="9:13">
       <c r="I106" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="M106" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="9:13">
       <c r="I107" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M107" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="9:13">
       <c r="I108" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M108" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="9:13">
       <c r="I109" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="M109" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="9:13">
       <c r="I110" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="M110" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="9:13">
       <c r="I111" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="M111" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="9:13">
       <c r="I112" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M112" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="9:13">
       <c r="I113" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="M113" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="9:13">
       <c r="I114" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="M114" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="115" spans="9:13">
       <c r="I115" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="M115" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="116" spans="9:13">
       <c r="I116" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="M116" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="9:13">
       <c r="I117" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M117" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="9:13">
       <c r="I118" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="M118" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="9:13">
       <c r="I119" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="M119" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="9:13">
       <c r="I120" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="M120" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="9:13">
       <c r="I121" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="M121" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="9:13">
       <c r="I122" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="M122" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="9:13">
       <c r="I123" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="M123" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="9:13">
       <c r="I124" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="M124" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="9:13">
       <c r="I125" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="M125" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="9:13">
       <c r="I126" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="M126" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="9:13">
       <c r="I127" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="M127" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="9:13">
       <c r="I128" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="M128" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="9:13">
       <c r="I129" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="M129" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="9:13">
       <c r="I130" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="M130" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="9:13">
       <c r="I131" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="M131" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="9:13">
       <c r="I132" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="M132" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="133" spans="9:13">
       <c r="I133" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="M133" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="134" spans="9:13">
       <c r="I134" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="M134" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="9:13">
       <c r="I135" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="M135" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="9:13">
       <c r="I136" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="M136" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="9:13">
       <c r="I137" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="M137" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="9:13">
       <c r="I138" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="M138" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="9:13">
       <c r="I139" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="M139" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="9:13">
       <c r="I140" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="M140" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="9:13">
       <c r="I141" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="M141" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="9:13">
       <c r="I142" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="M142" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="9:13">
       <c r="I143" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="M143" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="9:13">
       <c r="I144" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="M144" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="9:13">
       <c r="I145" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="M145" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="9:13">
       <c r="I146" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="M146" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="9:13">
       <c r="I147" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="M147" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="9:13">
       <c r="I148" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="M148" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="9:13">
       <c r="I149" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="M149" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="9:13">
       <c r="I150" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="M150" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="9:13">
       <c r="I151" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="M151" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="9:13">
       <c r="I152" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="M152" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="9:13">
       <c r="I153" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="M153" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="9:13">
       <c r="I154" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="M154" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="9:13">
       <c r="I155" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="M155" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="9:13">
       <c r="I156" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="M156" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="9:13">
       <c r="I157" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="M157" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="9:13">
       <c r="I158" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="M158" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="9:13">
       <c r="I159" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="M159" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="9:13">
       <c r="I160" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="M160" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="161" spans="9:13">
       <c r="I161" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="M161" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="162" spans="9:13">
       <c r="I162" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="M162" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="9:13">
       <c r="I163" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="M163" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="9:13">
       <c r="I164" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M164" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="9:13">
       <c r="I165" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="M165" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="9:13">
       <c r="I166" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="M166" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="9:13">
       <c r="I167" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M167" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="9:13">
       <c r="I168" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="M168" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="9:13">
       <c r="I169" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="M169" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="9:13">
       <c r="I170" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="M170" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="9:13">
       <c r="I171" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="M171" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="172" spans="9:13">
       <c r="I172" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="M172" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="173" spans="9:13">
       <c r="I173" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M173" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="9:13">
       <c r="I174" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="M174" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="9:13">
       <c r="I175" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="M175" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="9:13">
       <c r="I176" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="M176" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="9:13">
       <c r="I177" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="M177" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="9:13">
       <c r="I178" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="M178" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="9:13">
       <c r="I179" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="M179" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="9:13">
       <c r="I180" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="M180" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="9:13">
       <c r="I181" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="M181" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="9:13">
       <c r="I182" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="M182" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="9:13">
       <c r="I183" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="M183" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="9:13">
       <c r="I184" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="M184" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="9:13">
       <c r="I185" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M185" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="9:13">
       <c r="I186" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="M186" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="187" spans="9:13">
       <c r="I187" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M187" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="9:13">
       <c r="I188" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="M188" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="189" spans="9:13">
       <c r="I189" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="M189" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="9:13">
       <c r="I190" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="M190" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="191" spans="9:13">
       <c r="I191" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="M191" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="9:13">
       <c r="I192" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="M192" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="9:13">
       <c r="I193" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="M193" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="9:13">
       <c r="I194" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="M194" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="9:13">
       <c r="I195" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="M195" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="9:13">
       <c r="I196" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M196" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="9:13">
       <c r="I197" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="M197" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="9:13">
       <c r="I198" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="M198" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" spans="9:13">
       <c r="I199" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="M199" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="9:13">
       <c r="I200" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="M200" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="9:13">
       <c r="I201" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="M201" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="9:13">
       <c r="I202" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="M202" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="9:13">
       <c r="I203" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="M203" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="9:13">
       <c r="I204" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="M204" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="9:13">
       <c r="I205" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M205" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="9:13">
       <c r="I206" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="M206" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="207" spans="9:13">
       <c r="I207" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M207" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="208" spans="9:13">
       <c r="I208" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="M208" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="209" spans="9:13">
       <c r="I209" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="M209" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="9:13">
       <c r="I210" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M210" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211" spans="9:13">
       <c r="I211" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="M211" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="9:13">
       <c r="I212" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="M212" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="9:13">
       <c r="I213" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="M213" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="9:13">
       <c r="I214" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="M214" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="9:13">
       <c r="I215" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="M215" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="9:13">
       <c r="I216" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="M216" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="9:13">
       <c r="I217" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="M217" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="9:13">
       <c r="I218" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="M218" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="9:13">
       <c r="I219" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="M219" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="9:13">
       <c r="I220" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="M220" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="9:13">
       <c r="I221" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="M221" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="9:13">
       <c r="I222" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="M222" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="9:13">
       <c r="I223" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="M223" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="9:13">
       <c r="I224" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="M224" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="225" spans="9:13">
       <c r="I225" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="M225" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="9:13">
       <c r="I226" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="M226" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="9:13">
       <c r="I227" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="M227" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="9:13">
       <c r="I228" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="M228" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="9:13">
       <c r="I229" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="M229" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="9:13">
       <c r="I230" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="M230" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="9:13">
       <c r="I231" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="M231" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="9:13">
       <c r="I232" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="M232" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="233" spans="9:13">
       <c r="I233" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="M233" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="234" spans="9:13">
       <c r="I234" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="M234" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="9:13">
       <c r="I235" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="M235" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="9:13">
       <c r="I236" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="M236" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="9:13">
       <c r="I237" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="M237" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="9:13">
       <c r="I238" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="M238" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="9:13">
       <c r="I239" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="M239" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="9:13">
       <c r="I240" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="M240" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="241" spans="9:13">
       <c r="I241" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="M241" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="9:13">
       <c r="I242" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="M242" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="9:13">
       <c r="I243" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="M243" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244" spans="9:13">
       <c r="I244" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="M244" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245" spans="9:13">
       <c r="I245" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="M245" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="9:13">
       <c r="I246" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="M246" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="247" spans="9:13">
       <c r="I247" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="M247" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="248" spans="9:13">
       <c r="I248" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="M248" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="9:13">
       <c r="I249" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="M249" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="9:13">
       <c r="I250" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="M250" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="9:13">
       <c r="I251" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="M251" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="9:13">
       <c r="I252" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="M252" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="9:13">
       <c r="I253" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="M253" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="254" spans="9:13">
       <c r="I254" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="M254" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="9:13">
       <c r="I255" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="M255" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="9:13">
       <c r="I256" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="M256" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="9:13">
       <c r="I257" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="M257" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="9:13">
       <c r="I258" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="M258" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="9:13">
       <c r="I259" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="M259" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="9:13">
       <c r="I260" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="M260" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="9:13">
       <c r="I261" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="M261" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="9:13">
       <c r="I262" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="M262" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="9:13">
       <c r="I263" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="M263" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="9:13">
       <c r="I264" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="M264" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="9:13">
       <c r="I265" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="M265" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="9:13">
       <c r="I266" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="M266" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="9:13">
       <c r="I267" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="M267" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="9:13">
       <c r="I268" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="M268" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="9:13">
       <c r="I269" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="M269" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="9:13">
       <c r="I270" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="M270" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="9:13">
       <c r="I271" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="M271" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="9:13">
       <c r="I272" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="M272" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="9:13">
       <c r="I273" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="M273" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="9:13">
       <c r="M274" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="9:13">
       <c r="M275" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="9:13">
       <c r="M276" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="277" spans="9:13">
       <c r="M277" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="278" spans="9:13">
       <c r="M278" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="279" spans="9:13">
       <c r="M279" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="280" spans="9:13">
       <c r="M280" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="281" spans="9:13">
       <c r="M281" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="282" spans="9:13">
       <c r="M282" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="283" spans="9:13">
       <c r="M283" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="284" spans="9:13">
       <c r="M284" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="285" spans="9:13">
       <c r="M285" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="286" spans="9:13">
       <c r="M286" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
     </row>
     <row r="287" spans="9:13">
       <c r="M287" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -1715,8 +1715,7 @@
     <t>altitude</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. Units: 
-                    </t>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1815,15 +1814,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1841,15 +1838,13 @@
     <t>depth</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. Units: 
-                    </t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
   <si>
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. Units: 
-                    </t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>No</t>
@@ -1912,8 +1907,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t xml:space="preserve">(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees Units: 
-                    </t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
     <t>host taxid</t>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -107,7 +107,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -21,12 +21,12 @@
     <definedName name="countryoftravel">'cv_sample'!$I$1:$I$273</definedName>
     <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$287</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$Y$1:$Y$3</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$AD$1:$AD$14</definedName>
-    <definedName name="hostsex">'cv_sample'!$AE$1:$AE$17</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$288</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
+    <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
-    <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AJ$1:$AJ$2</definedName>
+    <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="676">
   <si>
     <t>alias</t>
   </si>
@@ -836,1234 +836,1237 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
+    <t>sample storage conditions</t>
+  </si>
+  <si>
+    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
+  </si>
+  <si>
     <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
   </si>
   <si>
+    <t>not ascertainable</t>
+  </si>
+  <si>
+    <t>not travel-related</t>
+  </si>
+  <si>
+    <t>travel-related</t>
+  </si>
+  <si>
+    <t>travel-relation</t>
+  </si>
+  <si>
+    <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
+  </si>
+  <si>
+    <t>after travel</t>
+  </si>
+  <si>
+    <t>during travel</t>
+  </si>
+  <si>
+    <t>clinical setting</t>
+  </si>
+  <si>
+    <t>(Optional) The timing of the clinic visit in relation to travel.</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antarctica</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Ashmore and Cartier Islands</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Baker Island</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bassas da India</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burma</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Clipperton Island</t>
+  </si>
+  <si>
+    <t>Cocos Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Coral Sea Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Czechoslovakia</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Europa Island</t>
+  </si>
+  <si>
+    <t>Falkland Islands</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Federal Republic of Germany</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Former Yugoslav Republic of Macedonia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern and Antarctic Lands</t>
+  </si>
+  <si>
+    <t>GDR</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Gaza Strip</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Glorioso Islands</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and McDonald Islands</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>Howland Island</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Jan Mayen</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jarvis Island</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Johnston Atoll</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Juan de Nova Island</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kingman Reef</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea</t>
+  </si>
+  <si>
+    <t>Kosovo</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macau</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia</t>
+  </si>
+  <si>
+    <t>Midway Islands</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Navassa Island</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>North Korea</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palmyra Atoll</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Paracel Islands</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Pitcairn Islands</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Reunion</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint Barthelemy</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint Martin</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Serbia and Montenegro</t>
+  </si>
+  <si>
+    <t>Seychelles</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Spratly Islands</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname</t>
+  </si>
+  <si>
+    <t>Svalbard</t>
+  </si>
+  <si>
+    <t>Swaziland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Tromelin Island</t>
+  </si>
+  <si>
+    <t>Tunisia</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>USSR</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>Uzbekistan</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands</t>
+  </si>
+  <si>
+    <t>Wake Island</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna</t>
+  </si>
+  <si>
+    <t>West Bank</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>country of travel</t>
+  </si>
+  <si>
+    <t>(Optional) The name of the country of patient's travel.</t>
+  </si>
+  <si>
+    <t>collected_by</t>
+  </si>
+  <si>
+    <t>(Mandatory) Name of persons or institute who collected the specimen</t>
+  </si>
+  <si>
+    <t>collection date</t>
+  </si>
+  <si>
+    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
+  </si>
+  <si>
+    <t>Arctic Ocean</t>
+  </si>
+  <si>
+    <t>Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Baltic Sea</t>
+  </si>
+  <si>
+    <t>Borneo</t>
+  </si>
+  <si>
+    <t>Curacao</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>East Timor</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Islas Malvinas)</t>
+  </si>
+  <si>
+    <t>Indian Ocean</t>
+  </si>
+  <si>
+    <t>Kerguelen Archipelago</t>
+  </si>
+  <si>
+    <t>Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>North Sea</t>
+  </si>
+  <si>
+    <t>Pacific Ocean</t>
+  </si>
+  <si>
+    <t>Ross Sea</t>
+  </si>
+  <si>
+    <t>Sint Maarten</t>
+  </si>
+  <si>
+    <t>Southern Ocean</t>
+  </si>
+  <si>
+    <t>Tasman Sea</t>
+  </si>
+  <si>
+    <t>missing: control sample</t>
+  </si>
+  <si>
+    <t>missing: data agreement established pre-2023</t>
+  </si>
+  <si>
+    <t>missing: endangered species</t>
+  </si>
+  <si>
+    <t>missing: human-identifiable</t>
+  </si>
+  <si>
+    <t>missing: lab stock</t>
+  </si>
+  <si>
+    <t>missing: sample group</t>
+  </si>
+  <si>
+    <t>missing: synthetic construct</t>
+  </si>
+  <si>
+    <t>missing: third party data</t>
+  </si>
+  <si>
+    <t>not applicable</t>
+  </si>
+  <si>
+    <t>not collected</t>
+  </si>
+  <si>
+    <t>not provided</t>
+  </si>
+  <si>
+    <t>restricted access</t>
+  </si>
+  <si>
+    <t>geographic location (country and/or sea)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
+  </si>
+  <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>identified_by</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
+  </si>
+  <si>
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days</t>
-  </si>
-  <si>
-    <t>not ascertainable</t>
-  </si>
-  <si>
-    <t>not travel-related</t>
-  </si>
-  <si>
-    <t>travel-related</t>
-  </si>
-  <si>
-    <t>travel-relation</t>
-  </si>
-  <si>
-    <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
-  </si>
-  <si>
-    <t>after travel</t>
-  </si>
-  <si>
-    <t>during travel</t>
-  </si>
-  <si>
-    <t>clinical setting</t>
-  </si>
-  <si>
-    <t>(Optional) The timing of the clinic visit in relation to travel.</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Albania</t>
-  </si>
-  <si>
-    <t>Algeria</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
-    <t>Angola</t>
-  </si>
-  <si>
-    <t>Anguilla</t>
-  </si>
-  <si>
-    <t>Antarctica</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Ashmore and Cartier Islands</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Austria</t>
-  </si>
-  <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
-    <t>Bahrain</t>
-  </si>
-  <si>
-    <t>Baker Island</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Barbados</t>
-  </si>
-  <si>
-    <t>Bassas da India</t>
-  </si>
-  <si>
-    <t>Belarus</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Belize</t>
-  </si>
-  <si>
-    <t>Benin</t>
-  </si>
-  <si>
-    <t>Bermuda</t>
-  </si>
-  <si>
-    <t>Bhutan</t>
-  </si>
-  <si>
-    <t>Bolivia</t>
-  </si>
-  <si>
-    <t>Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Bouvet Island</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>British Virgin Islands</t>
-  </si>
-  <si>
-    <t>Brunei</t>
-  </si>
-  <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>Burma</t>
-  </si>
-  <si>
-    <t>Burundi</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>Cayman Islands</t>
-  </si>
-  <si>
-    <t>Central African Republic</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Christmas Island</t>
-  </si>
-  <si>
-    <t>Clipperton Island</t>
-  </si>
-  <si>
-    <t>Cocos Islands</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Cook Islands</t>
-  </si>
-  <si>
-    <t>Coral Sea Islands</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Cote d'Ivoire</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>Cyprus</t>
-  </si>
-  <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
-    <t>Czechoslovakia</t>
-  </si>
-  <si>
-    <t>Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Denmark</t>
-  </si>
-  <si>
-    <t>Djibouti</t>
-  </si>
-  <si>
-    <t>Dominica</t>
-  </si>
-  <si>
-    <t>Dominican Republic</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Egypt</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
-  </si>
-  <si>
-    <t>Eritrea</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Europa Island</t>
-  </si>
-  <si>
-    <t>Falkland Islands</t>
-  </si>
-  <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
-    <t>Federal Republic of Germany</t>
-  </si>
-  <si>
-    <t>Fiji</t>
-  </si>
-  <si>
-    <t>Finland</t>
-  </si>
-  <si>
-    <t>Former Yugoslav Republic of Macedonia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>French Guiana</t>
-  </si>
-  <si>
-    <t>French Polynesia</t>
-  </si>
-  <si>
-    <t>French Southern and Antarctic Lands</t>
-  </si>
-  <si>
-    <t>GDR</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
-    <t>Gambia</t>
-  </si>
-  <si>
-    <t>Gaza Strip</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Gibraltar</t>
-  </si>
-  <si>
-    <t>Glorioso Islands</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Greenland</t>
-  </si>
-  <si>
-    <t>Grenada</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
-  </si>
-  <si>
-    <t>Guam</t>
-  </si>
-  <si>
-    <t>Guatemala</t>
-  </si>
-  <si>
-    <t>Guernsey</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guinea-Bissau</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Heard Island and McDonald Islands</t>
-  </si>
-  <si>
-    <t>Honduras</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>Howland Island</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Ireland</t>
-  </si>
-  <si>
-    <t>Isle of Man</t>
-  </si>
-  <si>
-    <t>Israel</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Jamaica</t>
-  </si>
-  <si>
-    <t>Jan Mayen</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Jarvis Island</t>
-  </si>
-  <si>
-    <t>Jersey</t>
-  </si>
-  <si>
-    <t>Johnston Atoll</t>
-  </si>
-  <si>
-    <t>Jordan</t>
-  </si>
-  <si>
-    <t>Juan de Nova Island</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Kingman Reef</t>
-  </si>
-  <si>
-    <t>Kiribati</t>
-  </si>
-  <si>
-    <t>Korea</t>
-  </si>
-  <si>
-    <t>Kosovo</t>
-  </si>
-  <si>
-    <t>Kuwait</t>
-  </si>
-  <si>
-    <t>Kyrgyzstan</t>
-  </si>
-  <si>
-    <t>Laos</t>
-  </si>
-  <si>
-    <t>Latvia</t>
-  </si>
-  <si>
-    <t>Lebanon</t>
-  </si>
-  <si>
-    <t>Lesotho</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Libya</t>
-  </si>
-  <si>
-    <t>Liechtenstein</t>
-  </si>
-  <si>
-    <t>Lithuania</t>
-  </si>
-  <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
-    <t>Macau</t>
-  </si>
-  <si>
-    <t>Macedonia</t>
-  </si>
-  <si>
-    <t>Madagascar</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Malta</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>Mauritania</t>
-  </si>
-  <si>
-    <t>Mauritius</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Micronesia</t>
-  </si>
-  <si>
-    <t>Midway Islands</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
-  </si>
-  <si>
-    <t>Montenegro</t>
-  </si>
-  <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Mozambique</t>
-  </si>
-  <si>
-    <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nauru</t>
-  </si>
-  <si>
-    <t>Navassa Island</t>
-  </si>
-  <si>
-    <t>Nepal</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
-    <t>New Caledonia</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Niue</t>
-  </si>
-  <si>
-    <t>Norfolk Island</t>
-  </si>
-  <si>
-    <t>North Korea</t>
-  </si>
-  <si>
-    <t>Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t>Norway</t>
-  </si>
-  <si>
-    <t>Oman</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Palau</t>
-  </si>
-  <si>
-    <t>Palmyra Atoll</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Paracel Islands</t>
-  </si>
-  <si>
-    <t>Paraguay</t>
-  </si>
-  <si>
-    <t>Peru</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Pitcairn Islands</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
-    <t>Qatar</t>
-  </si>
-  <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
-    <t>Reunion</t>
-  </si>
-  <si>
-    <t>Romania</t>
-  </si>
-  <si>
-    <t>Russia</t>
-  </si>
-  <si>
-    <t>Rwanda</t>
-  </si>
-  <si>
-    <t>Saint Barthelemy</t>
-  </si>
-  <si>
-    <t>Saint Helena</t>
-  </si>
-  <si>
-    <t>Saint Kitts and Nevis</t>
-  </si>
-  <si>
-    <t>Saint Lucia</t>
-  </si>
-  <si>
-    <t>Saint Martin</t>
-  </si>
-  <si>
-    <t>Saint Pierre and Miquelon</t>
-  </si>
-  <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>San Marino</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Senegal</t>
-  </si>
-  <si>
-    <t>Serbia</t>
-  </si>
-  <si>
-    <t>Serbia and Montenegro</t>
-  </si>
-  <si>
-    <t>Seychelles</t>
-  </si>
-  <si>
-    <t>Sierra Leone</t>
-  </si>
-  <si>
-    <t>Singapore</t>
-  </si>
-  <si>
-    <t>Slovakia</t>
-  </si>
-  <si>
-    <t>Slovenia</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Somalia</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>South Georgia and the South Sandwich Islands</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>South Sudan</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Spratly Islands</t>
-  </si>
-  <si>
-    <t>Sri Lanka</t>
-  </si>
-  <si>
-    <t>State of Palestine</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Suriname</t>
-  </si>
-  <si>
-    <t>Svalbard</t>
-  </si>
-  <si>
-    <t>Swaziland</t>
-  </si>
-  <si>
-    <t>Sweden</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Syria</t>
-  </si>
-  <si>
-    <t>Taiwan</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>Tokelau</t>
-  </si>
-  <si>
-    <t>Tonga</t>
-  </si>
-  <si>
-    <t>Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t>Tromelin Island</t>
-  </si>
-  <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
-  </si>
-  <si>
-    <t>Turks and Caicos Islands</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>USSR</t>
-  </si>
-  <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Uruguay</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
-    <t>Venezuela</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>Virgin Islands</t>
-  </si>
-  <si>
-    <t>Wake Island</t>
-  </si>
-  <si>
-    <t>Wallis and Futuna</t>
-  </si>
-  <si>
-    <t>West Bank</t>
-  </si>
-  <si>
-    <t>Western Sahara</t>
-  </si>
-  <si>
-    <t>Yemen</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>country of travel</t>
-  </si>
-  <si>
-    <t>(Optional) The name of the country of patient's travel.</t>
-  </si>
-  <si>
-    <t>collected_by</t>
-  </si>
-  <si>
-    <t>(Mandatory) Name of persons or institute who collected the specimen</t>
-  </si>
-  <si>
-    <t>collection date</t>
-  </si>
-  <si>
-    <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
-  </si>
-  <si>
-    <t>altitude</t>
-  </si>
-  <si>
-    <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
-  </si>
-  <si>
-    <t>Arctic Ocean</t>
-  </si>
-  <si>
-    <t>Atlantic Ocean</t>
-  </si>
-  <si>
-    <t>Baltic Sea</t>
-  </si>
-  <si>
-    <t>Borneo</t>
-  </si>
-  <si>
-    <t>Curacao</t>
-  </si>
-  <si>
-    <t>East Timor</t>
-  </si>
-  <si>
-    <t>Falkland Islands (Islas Malvinas)</t>
-  </si>
-  <si>
-    <t>Indian Ocean</t>
-  </si>
-  <si>
-    <t>Kerguelen Archipelago</t>
-  </si>
-  <si>
-    <t>Mediterranean Sea</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>North Sea</t>
-  </si>
-  <si>
-    <t>Pacific Ocean</t>
-  </si>
-  <si>
-    <t>Ross Sea</t>
-  </si>
-  <si>
-    <t>Sint Maarten</t>
-  </si>
-  <si>
-    <t>Southern Ocean</t>
-  </si>
-  <si>
-    <t>Tasman Sea</t>
-  </si>
-  <si>
-    <t>missing: control sample</t>
-  </si>
-  <si>
-    <t>missing: data agreement established pre-2023</t>
-  </si>
-  <si>
-    <t>missing: endangered species</t>
-  </si>
-  <si>
-    <t>missing: human-identifiable</t>
-  </si>
-  <si>
-    <t>missing: lab stock</t>
-  </si>
-  <si>
-    <t>missing: sample group</t>
-  </si>
-  <si>
-    <t>missing: synthetic construct</t>
-  </si>
-  <si>
-    <t>missing: third party data</t>
-  </si>
-  <si>
-    <t>not applicable</t>
-  </si>
-  <si>
-    <t>not collected</t>
-  </si>
-  <si>
-    <t>not provided</t>
-  </si>
-  <si>
-    <t>restricted access</t>
-  </si>
-  <si>
-    <t>geographic location (country and/or sea)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The location the sample was collected from with the intention of sequencing, as defined by the country or sea. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>identified_by</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>environmental_sample</t>
+  </si>
+  <si>
+    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
+  </si>
+  <si>
+    <t>mating_type</t>
+  </si>
+  <si>
+    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
+  </si>
+  <si>
+    <t>pathotype</t>
+  </si>
+  <si>
+    <t>(Optional) Name or code for pathotype of organism</t>
+  </si>
+  <si>
+    <t>host disease status</t>
+  </si>
+  <si>
+    <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>recovered</t>
+  </si>
+  <si>
+    <t>recovered with sequelae</t>
+  </si>
+  <si>
+    <t>host disease outcome</t>
+  </si>
+  <si>
+    <t>(Optional) Disease outcome in the host.</t>
+  </si>
+  <si>
+    <t>host subject id</t>
+  </si>
+  <si>
+    <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
+  </si>
+  <si>
+    <t>host age</t>
+  </si>
+  <si>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+  </si>
+  <si>
+    <t>host taxid</t>
+  </si>
+  <si>
+    <t>(Optional) Ncbi taxon id of the host, e.g. 9606</t>
+  </si>
+  <si>
+    <t>host life stage</t>
+  </si>
+  <si>
+    <t>(Optional) Description of life stage of host</t>
+  </si>
+  <si>
+    <t>diseased</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>host health state</t>
+  </si>
+  <si>
+    <t>(Mandatory) Health status of the host at the time of sample collection.</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>hermaphrodite</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>neuter</t>
+  </si>
+  <si>
+    <t>host sex</t>
+  </si>
+  <si>
+    <t>(Optional) Gender or sex of the host.</t>
+  </si>
+  <si>
+    <t>lab_host</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>host scientific name</t>
+  </si>
+  <si>
+    <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
+  </si>
+  <si>
+    <t>passage_history</t>
+  </si>
+  <si>
+    <t>(Optional) Details of passage of culture between time of isolation and sequencing</t>
+  </si>
+  <si>
+    <t>Is the sequenced pathogen host associated?</t>
+  </si>
+  <si>
+    <t>(Mandatory) Is the sequenced pathogen host associated? ('yes' or 'no')</t>
+  </si>
+  <si>
+    <t>bio_material</t>
+  </si>
+  <si>
+    <t>(Optional) Unique identifier that references the biological material from which the sample was obtained and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>culture_collection</t>
+  </si>
+  <si>
+    <t>(Optional) Unique identifier that references the culture (e.g. live microbial and viral cultures and cell lines) from which the sample has been obtained and that have been deposited in curated culture collections. the id needs to provide an institution code and the culture id, with optional collection code, in the following structure: (-institution_code:(collection_code):voucher_id. please note institution codes (and optional collection codes) are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
+  </si>
+  <si>
+    <t>(Optional) Unique identifier that references the physical specimen that remains after the sequence has been obtained and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>(Mandatory) Individual isolate from which the sample was obtained</t>
+  </si>
+  <si>
+    <t>sub_species</t>
+  </si>
+  <si>
+    <t>(Optional) Name of sub-species of organism from which sample was obtained</t>
+  </si>
+  <si>
+    <t>sub_strain</t>
+  </si>
+  <si>
+    <t>(Optional) Name or identifier of a genetically or otherwise modified strain from which sample was obtained, derived from a parental strain (which should be annotated in the strain field; sub_strain from which sample was obtained</t>
+  </si>
+  <si>
+    <t>sub_group</t>
+  </si>
+  <si>
+    <t>(Optional) Name of sub-group of organism from which sample was obtained</t>
+  </si>
+  <si>
+    <t>sub_type</t>
+  </si>
+  <si>
+    <t>(Optional) Name of sub-type of organism from which sample was obtained</t>
+  </si>
+  <si>
+    <t>serovar</t>
+  </si>
+  <si>
+    <t>(Recommended) Serological variety of a species (usually a prokaryote) characterized by its antigenic properties</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>(Recommended) Name of the strain from which the sample was obtained.</t>
+  </si>
+  <si>
+    <t>host disease stage</t>
+  </si>
+  <si>
+    <t>(Optional) Disease stage of host</t>
+  </si>
+  <si>
+    <t>isolation source host-associated</t>
+  </si>
+  <si>
+    <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
+  </si>
+  <si>
+    <t>host description</t>
+  </si>
+  <si>
+    <t>(Optional) Other descriptive information relating to the host.</t>
+  </si>
+  <si>
+    <t>genotype</t>
+  </si>
+  <si>
+    <t>(Optional) Name or code for genotype of organism</t>
+  </si>
+  <si>
+    <t>isolation source non-host-associated</t>
+  </si>
+  <si>
+    <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
   </si>
   <si>
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>environmental_sample</t>
-  </si>
-  <si>
-    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
-  </si>
-  <si>
-    <t>mating_type</t>
-  </si>
-  <si>
-    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
-  </si>
-  <si>
-    <t>genotype</t>
-  </si>
-  <si>
-    <t>(Optional) Name or code for genotype of organism</t>
-  </si>
-  <si>
-    <t>pathotype</t>
-  </si>
-  <si>
-    <t>(Optional) Name or code for pathotype of organism</t>
-  </si>
-  <si>
-    <t>host disease status</t>
-  </si>
-  <si>
-    <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
-  </si>
-  <si>
-    <t>dead</t>
-  </si>
-  <si>
-    <t>recovered</t>
-  </si>
-  <si>
-    <t>recovered with sequelae</t>
-  </si>
-  <si>
-    <t>host disease outcome</t>
-  </si>
-  <si>
-    <t>(Optional) Disease outcome in the host.</t>
-  </si>
-  <si>
-    <t>host subject id</t>
-  </si>
-  <si>
-    <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
-  </si>
-  <si>
-    <t>host age</t>
-  </si>
-  <si>
-    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
-  </si>
-  <si>
-    <t>host taxid</t>
-  </si>
-  <si>
-    <t>(Optional) Ncbi taxon id of the host, e.g. 9606</t>
-  </si>
-  <si>
-    <t>host life stage</t>
-  </si>
-  <si>
-    <t>(Optional) Description of life stage of host</t>
-  </si>
-  <si>
-    <t>diseased</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>host health state</t>
-  </si>
-  <si>
-    <t>(Mandatory) Health status of the host at the time of sample collection.</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>hermaphrodite</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>neuter</t>
-  </si>
-  <si>
-    <t>host sex</t>
-  </si>
-  <si>
-    <t>(Optional) Gender or sex of the host.</t>
-  </si>
-  <si>
-    <t>lab_host</t>
-  </si>
-  <si>
-    <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>host scientific name</t>
-  </si>
-  <si>
-    <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
-  </si>
-  <si>
-    <t>passage_history</t>
-  </si>
-  <si>
-    <t>(Optional) Details of passage of culture between time of isolation and sequencing</t>
-  </si>
-  <si>
-    <t>sample storage conditions</t>
-  </si>
-  <si>
-    <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location</t>
-  </si>
-  <si>
-    <t>Is the sequenced pathogen host associated?</t>
-  </si>
-  <si>
-    <t>(Mandatory) Is the sequenced pathogen host associated? ('yes' or 'no')</t>
-  </si>
-  <si>
-    <t>bio_material</t>
-  </si>
-  <si>
-    <t>(Optional) Unique identifier that references the biological material from which the sample was obtained and that ideally exists in a curated collection (e.g. stock centres, seed banks, dna banks). the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>culture_collection</t>
-  </si>
-  <si>
-    <t>(Optional) Unique identifier that references the culture (e.g. live microbial and viral cultures and cell lines) from which the sample has been obtained and that have been deposited in curated culture collections. the id needs to provide an institution code and the culture id, with optional collection code, in the following structure: (-institution_code:(collection_code):voucher_id. please note institution codes (and optional collection codes) are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>specimen_voucher</t>
-  </si>
-  <si>
-    <t>(Optional) Unique identifier that references the physical specimen that remains after the sequence has been obtained and that ideally exists in a curated collection. the id should have the following structure: name of the institution (institution code) followed by the collection code (if available) and the voucher id (institution_code:collection_code:voucher_id). please note institution codes and collection codes are taken from a controlled vocabulary maintained by the insdc: https://ftp.ncbi.nih.gov/pub/taxonomy/biocollections/</t>
-  </si>
-  <si>
-    <t>isolate</t>
-  </si>
-  <si>
-    <t>(Mandatory) Individual isolate from which the sample was obtained</t>
-  </si>
-  <si>
-    <t>sub_species</t>
-  </si>
-  <si>
-    <t>(Optional) Name of sub-species of organism from which sample was obtained</t>
-  </si>
-  <si>
-    <t>sub_strain</t>
-  </si>
-  <si>
-    <t>(Optional) Name or identifier of a genetically or otherwise modified strain from which sample was obtained, derived from a parental strain (which should be annotated in the strain field; sub_strain from which sample was obtained</t>
-  </si>
-  <si>
-    <t>sub_group</t>
-  </si>
-  <si>
-    <t>(Optional) Name of sub-group of organism from which sample was obtained</t>
-  </si>
-  <si>
-    <t>sub_type</t>
-  </si>
-  <si>
-    <t>(Optional) Name of sub-type of organism from which sample was obtained</t>
-  </si>
-  <si>
-    <t>serovar</t>
-  </si>
-  <si>
-    <t>(Recommended) Serological variety of a species (usually a prokaryote) characterized by its antigenic properties</t>
-  </si>
-  <si>
-    <t>strain</t>
-  </si>
-  <si>
-    <t>(Recommended) Name of the strain from which the sample was obtained.</t>
-  </si>
-  <si>
-    <t>host disease stage</t>
-  </si>
-  <si>
-    <t>(Optional) Disease stage of host</t>
-  </si>
-  <si>
-    <t>isolation source host-associated</t>
-  </si>
-  <si>
-    <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
-  </si>
-  <si>
-    <t>host description</t>
-  </si>
-  <si>
-    <t>(Optional) Other descriptive information relating to the host.</t>
-  </si>
-  <si>
-    <t>isolation source non-host-associated</t>
-  </si>
-  <si>
-    <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3624,118 +3627,118 @@
         <v>557</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
@@ -3776,118 +3779,118 @@
         <v>558</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -3907,16 +3910,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>environmentalsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
       <formula1>hostsex</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
       <formula1>Isthesequencedpathogenhostassociated</formula1>
     </dataValidation>
   </dataValidations>
@@ -3926,13 +3929,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AJ287"/>
+  <dimension ref="G1:AH288"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="7:36">
+    <row r="1" spans="7:34">
       <c r="G1" t="s">
         <v>269</v>
       </c>
@@ -3946,22 +3949,22 @@
         <v>278</v>
       </c>
       <c r="T1" t="s">
-        <v>602</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>614</v>
+        <v>603</v>
+      </c>
+      <c r="X1" t="s">
+        <v>613</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>626</v>
       </c>
       <c r="AD1" t="s">
-        <v>627</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>631</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="2" spans="7:36">
+        <v>630</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="7:34">
       <c r="G2" t="s">
         <v>270</v>
       </c>
@@ -3975,22 +3978,22 @@
         <v>279</v>
       </c>
       <c r="T2" t="s">
-        <v>603</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>615</v>
+        <v>604</v>
+      </c>
+      <c r="X2" t="s">
+        <v>614</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>627</v>
       </c>
       <c r="AD2" t="s">
-        <v>628</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>632</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="3" spans="7:36">
+        <v>631</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="7:34">
       <c r="G3" t="s">
         <v>271</v>
       </c>
@@ -4000,204 +4003,204 @@
       <c r="M3" t="s">
         <v>280</v>
       </c>
-      <c r="Y3" t="s">
-        <v>616</v>
+      <c r="X3" t="s">
+        <v>615</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>577</v>
       </c>
       <c r="AD3" t="s">
-        <v>576</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="4" spans="7:36">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="4" spans="7:34">
       <c r="I4" t="s">
         <v>281</v>
       </c>
       <c r="M4" t="s">
         <v>281</v>
       </c>
+      <c r="AC4" t="s">
+        <v>578</v>
+      </c>
       <c r="AD4" t="s">
         <v>577</v>
       </c>
-      <c r="AE4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="5" spans="7:36">
+    </row>
+    <row r="5" spans="7:34">
       <c r="I5" t="s">
         <v>282</v>
       </c>
       <c r="M5" t="s">
         <v>282</v>
       </c>
+      <c r="AC5" t="s">
+        <v>579</v>
+      </c>
       <c r="AD5" t="s">
         <v>578</v>
       </c>
-      <c r="AE5" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="6" spans="7:36">
+    </row>
+    <row r="6" spans="7:34">
       <c r="I6" t="s">
         <v>283</v>
       </c>
       <c r="M6" t="s">
         <v>283</v>
       </c>
+      <c r="AC6" t="s">
+        <v>580</v>
+      </c>
       <c r="AD6" t="s">
         <v>579</v>
       </c>
-      <c r="AE6" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="7" spans="7:36">
+    </row>
+    <row r="7" spans="7:34">
       <c r="I7" t="s">
         <v>284</v>
       </c>
       <c r="M7" t="s">
         <v>284</v>
       </c>
+      <c r="AC7" t="s">
+        <v>581</v>
+      </c>
       <c r="AD7" t="s">
         <v>580</v>
       </c>
-      <c r="AE7" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="8" spans="7:36">
+    </row>
+    <row r="8" spans="7:34">
       <c r="I8" t="s">
         <v>285</v>
       </c>
       <c r="M8" t="s">
         <v>285</v>
       </c>
+      <c r="AC8" t="s">
+        <v>582</v>
+      </c>
       <c r="AD8" t="s">
         <v>581</v>
       </c>
-      <c r="AE8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="7:36">
+    </row>
+    <row r="9" spans="7:34">
       <c r="I9" t="s">
         <v>286</v>
       </c>
       <c r="M9" t="s">
         <v>286</v>
       </c>
+      <c r="AC9" t="s">
+        <v>583</v>
+      </c>
       <c r="AD9" t="s">
         <v>582</v>
       </c>
-      <c r="AE9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="7:36">
+    </row>
+    <row r="10" spans="7:34">
       <c r="I10" t="s">
         <v>287</v>
       </c>
       <c r="M10" t="s">
         <v>559</v>
       </c>
+      <c r="AC10" t="s">
+        <v>584</v>
+      </c>
       <c r="AD10" t="s">
         <v>583</v>
       </c>
-      <c r="AE10" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="11" spans="7:36">
+    </row>
+    <row r="11" spans="7:34">
       <c r="I11" t="s">
         <v>288</v>
       </c>
       <c r="M11" t="s">
         <v>287</v>
       </c>
+      <c r="AC11" t="s">
+        <v>585</v>
+      </c>
       <c r="AD11" t="s">
         <v>584</v>
       </c>
-      <c r="AE11" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="12" spans="7:36">
+    </row>
+    <row r="12" spans="7:34">
       <c r="I12" t="s">
         <v>289</v>
       </c>
       <c r="M12" t="s">
         <v>288</v>
       </c>
+      <c r="AC12" t="s">
+        <v>586</v>
+      </c>
       <c r="AD12" t="s">
-        <v>585</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="13" spans="7:36">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="13" spans="7:34">
       <c r="I13" t="s">
         <v>290</v>
       </c>
       <c r="M13" t="s">
         <v>289</v>
       </c>
+      <c r="AC13" t="s">
+        <v>587</v>
+      </c>
       <c r="AD13" t="s">
-        <v>586</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="14" spans="7:36">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="14" spans="7:34">
       <c r="I14" t="s">
         <v>291</v>
       </c>
       <c r="M14" t="s">
         <v>290</v>
       </c>
+      <c r="AC14" t="s">
+        <v>588</v>
+      </c>
       <c r="AD14" t="s">
-        <v>587</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="15" spans="7:36">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="15" spans="7:34">
       <c r="I15" t="s">
         <v>292</v>
       </c>
       <c r="M15" t="s">
         <v>560</v>
       </c>
-      <c r="AE15" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="16" spans="7:36">
+      <c r="AD15" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16" spans="7:34">
       <c r="I16" t="s">
         <v>293</v>
       </c>
       <c r="M16" t="s">
         <v>291</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="9:31">
+    <row r="17" spans="9:30">
       <c r="I17" t="s">
         <v>294</v>
       </c>
       <c r="M17" t="s">
         <v>292</v>
       </c>
-      <c r="AE17" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="18" spans="9:31">
+      <c r="AD17" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="18" spans="9:30">
       <c r="I18" t="s">
         <v>295</v>
       </c>
@@ -4205,7 +4208,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="9:31">
+    <row r="19" spans="9:30">
       <c r="I19" t="s">
         <v>296</v>
       </c>
@@ -4213,7 +4216,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="20" spans="9:31">
+    <row r="20" spans="9:30">
       <c r="I20" t="s">
         <v>297</v>
       </c>
@@ -4221,7 +4224,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="21" spans="9:31">
+    <row r="21" spans="9:30">
       <c r="I21" t="s">
         <v>298</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="22" spans="9:31">
+    <row r="22" spans="9:30">
       <c r="I22" t="s">
         <v>299</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="23" spans="9:31">
+    <row r="23" spans="9:30">
       <c r="I23" t="s">
         <v>300</v>
       </c>
@@ -4245,7 +4248,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="24" spans="9:31">
+    <row r="24" spans="9:30">
       <c r="I24" t="s">
         <v>301</v>
       </c>
@@ -4253,7 +4256,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="25" spans="9:31">
+    <row r="25" spans="9:30">
       <c r="I25" t="s">
         <v>302</v>
       </c>
@@ -4261,7 +4264,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="9:31">
+    <row r="26" spans="9:30">
       <c r="I26" t="s">
         <v>303</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="9:31">
+    <row r="27" spans="9:30">
       <c r="I27" t="s">
         <v>304</v>
       </c>
@@ -4277,7 +4280,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="28" spans="9:31">
+    <row r="28" spans="9:30">
       <c r="I28" t="s">
         <v>305</v>
       </c>
@@ -4285,7 +4288,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="29" spans="9:31">
+    <row r="29" spans="9:30">
       <c r="I29" t="s">
         <v>306</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="30" spans="9:31">
+    <row r="30" spans="9:30">
       <c r="I30" t="s">
         <v>307</v>
       </c>
@@ -4301,7 +4304,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="31" spans="9:31">
+    <row r="31" spans="9:30">
       <c r="I31" t="s">
         <v>308</v>
       </c>
@@ -4309,7 +4312,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="32" spans="9:31">
+    <row r="32" spans="9:30">
       <c r="I32" t="s">
         <v>309</v>
       </c>
@@ -4586,7 +4589,7 @@
         <v>343</v>
       </c>
       <c r="M66" t="s">
-        <v>340</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="9:13">
@@ -4594,7 +4597,7 @@
         <v>344</v>
       </c>
       <c r="M67" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68" spans="9:13">
@@ -4602,7 +4605,7 @@
         <v>345</v>
       </c>
       <c r="M68" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="69" spans="9:13">
@@ -4610,7 +4613,7 @@
         <v>346</v>
       </c>
       <c r="M69" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="70" spans="9:13">
@@ -4618,7 +4621,7 @@
         <v>347</v>
       </c>
       <c r="M70" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="71" spans="9:13">
@@ -4626,7 +4629,7 @@
         <v>348</v>
       </c>
       <c r="M71" t="s">
-        <v>564</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72" spans="9:13">
@@ -4634,7 +4637,7 @@
         <v>349</v>
       </c>
       <c r="M72" t="s">
-        <v>345</v>
+        <v>565</v>
       </c>
     </row>
     <row r="73" spans="9:13">
@@ -4642,7 +4645,7 @@
         <v>350</v>
       </c>
       <c r="M73" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="74" spans="9:13">
@@ -4650,7 +4653,7 @@
         <v>351</v>
       </c>
       <c r="M74" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75" spans="9:13">
@@ -4658,7 +4661,7 @@
         <v>352</v>
       </c>
       <c r="M75" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" spans="9:13">
@@ -4666,7 +4669,7 @@
         <v>353</v>
       </c>
       <c r="M76" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="77" spans="9:13">
@@ -4674,7 +4677,7 @@
         <v>354</v>
       </c>
       <c r="M77" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="78" spans="9:13">
@@ -4682,7 +4685,7 @@
         <v>355</v>
       </c>
       <c r="M78" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="79" spans="9:13">
@@ -4690,7 +4693,7 @@
         <v>356</v>
       </c>
       <c r="M79" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="80" spans="9:13">
@@ -4698,7 +4701,7 @@
         <v>357</v>
       </c>
       <c r="M80" t="s">
-        <v>565</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="9:13">
@@ -4706,7 +4709,7 @@
         <v>358</v>
       </c>
       <c r="M81" t="s">
-        <v>354</v>
+        <v>566</v>
       </c>
     </row>
     <row r="82" spans="9:13">
@@ -4714,7 +4717,7 @@
         <v>359</v>
       </c>
       <c r="M82" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="83" spans="9:13">
@@ -4722,7 +4725,7 @@
         <v>360</v>
       </c>
       <c r="M83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="9:13">
@@ -4730,7 +4733,7 @@
         <v>361</v>
       </c>
       <c r="M84" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="9:13">
@@ -4738,7 +4741,7 @@
         <v>362</v>
       </c>
       <c r="M85" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="9:13">
@@ -4746,7 +4749,7 @@
         <v>363</v>
       </c>
       <c r="M86" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="9:13">
@@ -4754,7 +4757,7 @@
         <v>364</v>
       </c>
       <c r="M87" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="9:13">
@@ -4762,7 +4765,7 @@
         <v>365</v>
       </c>
       <c r="M88" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="9:13">
@@ -4770,7 +4773,7 @@
         <v>366</v>
       </c>
       <c r="M89" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" spans="9:13">
@@ -4778,7 +4781,7 @@
         <v>367</v>
       </c>
       <c r="M90" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="91" spans="9:13">
@@ -4786,7 +4789,7 @@
         <v>368</v>
       </c>
       <c r="M91" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="92" spans="9:13">
@@ -4794,7 +4797,7 @@
         <v>369</v>
       </c>
       <c r="M92" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="9:13">
@@ -4802,7 +4805,7 @@
         <v>370</v>
       </c>
       <c r="M93" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="94" spans="9:13">
@@ -4810,7 +4813,7 @@
         <v>371</v>
       </c>
       <c r="M94" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="9:13">
@@ -4818,7 +4821,7 @@
         <v>372</v>
       </c>
       <c r="M95" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="96" spans="9:13">
@@ -4826,7 +4829,7 @@
         <v>373</v>
       </c>
       <c r="M96" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="97" spans="9:13">
@@ -4834,7 +4837,7 @@
         <v>374</v>
       </c>
       <c r="M97" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="98" spans="9:13">
@@ -4842,7 +4845,7 @@
         <v>375</v>
       </c>
       <c r="M98" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="99" spans="9:13">
@@ -4850,7 +4853,7 @@
         <v>376</v>
       </c>
       <c r="M99" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="100" spans="9:13">
@@ -4858,7 +4861,7 @@
         <v>377</v>
       </c>
       <c r="M100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="101" spans="9:13">
@@ -4866,7 +4869,7 @@
         <v>378</v>
       </c>
       <c r="M101" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="102" spans="9:13">
@@ -4874,7 +4877,7 @@
         <v>379</v>
       </c>
       <c r="M102" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="103" spans="9:13">
@@ -4882,7 +4885,7 @@
         <v>380</v>
       </c>
       <c r="M103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="9:13">
@@ -4890,7 +4893,7 @@
         <v>381</v>
       </c>
       <c r="M104" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="105" spans="9:13">
@@ -4898,7 +4901,7 @@
         <v>382</v>
       </c>
       <c r="M105" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="106" spans="9:13">
@@ -4906,7 +4909,7 @@
         <v>383</v>
       </c>
       <c r="M106" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="9:13">
@@ -4914,7 +4917,7 @@
         <v>384</v>
       </c>
       <c r="M107" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="108" spans="9:13">
@@ -4922,7 +4925,7 @@
         <v>385</v>
       </c>
       <c r="M108" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="109" spans="9:13">
@@ -4930,7 +4933,7 @@
         <v>386</v>
       </c>
       <c r="M109" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110" spans="9:13">
@@ -4938,7 +4941,7 @@
         <v>387</v>
       </c>
       <c r="M110" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="111" spans="9:13">
@@ -4946,7 +4949,7 @@
         <v>388</v>
       </c>
       <c r="M111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="112" spans="9:13">
@@ -4954,7 +4957,7 @@
         <v>389</v>
       </c>
       <c r="M112" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="113" spans="9:13">
@@ -4962,7 +4965,7 @@
         <v>390</v>
       </c>
       <c r="M113" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="114" spans="9:13">
@@ -4970,7 +4973,7 @@
         <v>391</v>
       </c>
       <c r="M114" t="s">
-        <v>566</v>
+        <v>389</v>
       </c>
     </row>
     <row r="115" spans="9:13">
@@ -4978,7 +4981,7 @@
         <v>392</v>
       </c>
       <c r="M115" t="s">
-        <v>390</v>
+        <v>567</v>
       </c>
     </row>
     <row r="116" spans="9:13">
@@ -4986,7 +4989,7 @@
         <v>393</v>
       </c>
       <c r="M116" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="117" spans="9:13">
@@ -4994,7 +4997,7 @@
         <v>394</v>
       </c>
       <c r="M117" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="118" spans="9:13">
@@ -5002,7 +5005,7 @@
         <v>395</v>
       </c>
       <c r="M118" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="119" spans="9:13">
@@ -5010,7 +5013,7 @@
         <v>396</v>
       </c>
       <c r="M119" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="120" spans="9:13">
@@ -5018,7 +5021,7 @@
         <v>397</v>
       </c>
       <c r="M120" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="121" spans="9:13">
@@ -5026,7 +5029,7 @@
         <v>398</v>
       </c>
       <c r="M121" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" spans="9:13">
@@ -5034,7 +5037,7 @@
         <v>399</v>
       </c>
       <c r="M122" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="123" spans="9:13">
@@ -5042,7 +5045,7 @@
         <v>400</v>
       </c>
       <c r="M123" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="124" spans="9:13">
@@ -5050,7 +5053,7 @@
         <v>401</v>
       </c>
       <c r="M124" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="9:13">
@@ -5058,7 +5061,7 @@
         <v>402</v>
       </c>
       <c r="M125" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="9:13">
@@ -5066,7 +5069,7 @@
         <v>403</v>
       </c>
       <c r="M126" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="127" spans="9:13">
@@ -5074,7 +5077,7 @@
         <v>404</v>
       </c>
       <c r="M127" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="128" spans="9:13">
@@ -5082,7 +5085,7 @@
         <v>405</v>
       </c>
       <c r="M128" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="129" spans="9:13">
@@ -5090,7 +5093,7 @@
         <v>406</v>
       </c>
       <c r="M129" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="130" spans="9:13">
@@ -5098,7 +5101,7 @@
         <v>407</v>
       </c>
       <c r="M130" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="131" spans="9:13">
@@ -5106,7 +5109,7 @@
         <v>408</v>
       </c>
       <c r="M131" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="132" spans="9:13">
@@ -5114,7 +5117,7 @@
         <v>409</v>
       </c>
       <c r="M132" t="s">
-        <v>567</v>
+        <v>406</v>
       </c>
     </row>
     <row r="133" spans="9:13">
@@ -5122,7 +5125,7 @@
         <v>410</v>
       </c>
       <c r="M133" t="s">
-        <v>407</v>
+        <v>568</v>
       </c>
     </row>
     <row r="134" spans="9:13">
@@ -5130,7 +5133,7 @@
         <v>411</v>
       </c>
       <c r="M134" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="9:13">
@@ -5138,7 +5141,7 @@
         <v>412</v>
       </c>
       <c r="M135" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="136" spans="9:13">
@@ -5146,7 +5149,7 @@
         <v>413</v>
       </c>
       <c r="M136" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="9:13">
@@ -5154,7 +5157,7 @@
         <v>414</v>
       </c>
       <c r="M137" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="9:13">
@@ -5162,7 +5165,7 @@
         <v>415</v>
       </c>
       <c r="M138" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="139" spans="9:13">
@@ -5170,7 +5173,7 @@
         <v>416</v>
       </c>
       <c r="M139" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="140" spans="9:13">
@@ -5178,7 +5181,7 @@
         <v>417</v>
       </c>
       <c r="M140" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="141" spans="9:13">
@@ -5186,7 +5189,7 @@
         <v>418</v>
       </c>
       <c r="M141" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="142" spans="9:13">
@@ -5194,7 +5197,7 @@
         <v>419</v>
       </c>
       <c r="M142" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="143" spans="9:13">
@@ -5202,7 +5205,7 @@
         <v>420</v>
       </c>
       <c r="M143" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="144" spans="9:13">
@@ -5210,7 +5213,7 @@
         <v>421</v>
       </c>
       <c r="M144" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="9:13">
@@ -5218,7 +5221,7 @@
         <v>422</v>
       </c>
       <c r="M145" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="146" spans="9:13">
@@ -5226,7 +5229,7 @@
         <v>423</v>
       </c>
       <c r="M146" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" spans="9:13">
@@ -5234,7 +5237,7 @@
         <v>424</v>
       </c>
       <c r="M147" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="148" spans="9:13">
@@ -5242,7 +5245,7 @@
         <v>425</v>
       </c>
       <c r="M148" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="149" spans="9:13">
@@ -5250,7 +5253,7 @@
         <v>426</v>
       </c>
       <c r="M149" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="150" spans="9:13">
@@ -5258,7 +5261,7 @@
         <v>427</v>
       </c>
       <c r="M150" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="151" spans="9:13">
@@ -5266,7 +5269,7 @@
         <v>428</v>
       </c>
       <c r="M151" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="9:13">
@@ -5274,7 +5277,7 @@
         <v>429</v>
       </c>
       <c r="M152" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="153" spans="9:13">
@@ -5282,7 +5285,7 @@
         <v>430</v>
       </c>
       <c r="M153" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="154" spans="9:13">
@@ -5290,7 +5293,7 @@
         <v>431</v>
       </c>
       <c r="M154" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="155" spans="9:13">
@@ -5298,7 +5301,7 @@
         <v>432</v>
       </c>
       <c r="M155" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="156" spans="9:13">
@@ -5306,7 +5309,7 @@
         <v>433</v>
       </c>
       <c r="M156" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="157" spans="9:13">
@@ -5314,7 +5317,7 @@
         <v>434</v>
       </c>
       <c r="M157" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="158" spans="9:13">
@@ -5322,7 +5325,7 @@
         <v>435</v>
       </c>
       <c r="M158" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="159" spans="9:13">
@@ -5330,7 +5333,7 @@
         <v>436</v>
       </c>
       <c r="M159" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="160" spans="9:13">
@@ -5338,7 +5341,7 @@
         <v>437</v>
       </c>
       <c r="M160" t="s">
-        <v>568</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161" spans="9:13">
@@ -5346,7 +5349,7 @@
         <v>438</v>
       </c>
       <c r="M161" t="s">
-        <v>435</v>
+        <v>569</v>
       </c>
     </row>
     <row r="162" spans="9:13">
@@ -5354,7 +5357,7 @@
         <v>439</v>
       </c>
       <c r="M162" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="163" spans="9:13">
@@ -5362,7 +5365,7 @@
         <v>440</v>
       </c>
       <c r="M163" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="164" spans="9:13">
@@ -5370,7 +5373,7 @@
         <v>441</v>
       </c>
       <c r="M164" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="165" spans="9:13">
@@ -5378,7 +5381,7 @@
         <v>442</v>
       </c>
       <c r="M165" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="9:13">
@@ -5386,7 +5389,7 @@
         <v>443</v>
       </c>
       <c r="M166" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="167" spans="9:13">
@@ -5394,7 +5397,7 @@
         <v>444</v>
       </c>
       <c r="M167" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="168" spans="9:13">
@@ -5402,7 +5405,7 @@
         <v>445</v>
       </c>
       <c r="M168" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="169" spans="9:13">
@@ -5410,7 +5413,7 @@
         <v>446</v>
       </c>
       <c r="M169" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="9:13">
@@ -5418,7 +5421,7 @@
         <v>447</v>
       </c>
       <c r="M170" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="9:13">
@@ -5426,7 +5429,7 @@
         <v>448</v>
       </c>
       <c r="M171" t="s">
-        <v>569</v>
+        <v>444</v>
       </c>
     </row>
     <row r="172" spans="9:13">
@@ -5434,7 +5437,7 @@
         <v>449</v>
       </c>
       <c r="M172" t="s">
-        <v>445</v>
+        <v>570</v>
       </c>
     </row>
     <row r="173" spans="9:13">
@@ -5442,7 +5445,7 @@
         <v>450</v>
       </c>
       <c r="M173" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="174" spans="9:13">
@@ -5450,7 +5453,7 @@
         <v>451</v>
       </c>
       <c r="M174" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="175" spans="9:13">
@@ -5458,7 +5461,7 @@
         <v>452</v>
       </c>
       <c r="M175" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="9:13">
@@ -5466,7 +5469,7 @@
         <v>453</v>
       </c>
       <c r="M176" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="177" spans="9:13">
@@ -5474,7 +5477,7 @@
         <v>454</v>
       </c>
       <c r="M177" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="178" spans="9:13">
@@ -5482,7 +5485,7 @@
         <v>455</v>
       </c>
       <c r="M178" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="9:13">
@@ -5490,7 +5493,7 @@
         <v>456</v>
       </c>
       <c r="M179" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="9:13">
@@ -5498,7 +5501,7 @@
         <v>457</v>
       </c>
       <c r="M180" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="181" spans="9:13">
@@ -5506,7 +5509,7 @@
         <v>458</v>
       </c>
       <c r="M181" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="182" spans="9:13">
@@ -5514,7 +5517,7 @@
         <v>459</v>
       </c>
       <c r="M182" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="183" spans="9:13">
@@ -5522,7 +5525,7 @@
         <v>460</v>
       </c>
       <c r="M183" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="184" spans="9:13">
@@ -5530,7 +5533,7 @@
         <v>461</v>
       </c>
       <c r="M184" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="185" spans="9:13">
@@ -5538,7 +5541,7 @@
         <v>462</v>
       </c>
       <c r="M185" t="s">
-        <v>570</v>
+        <v>458</v>
       </c>
     </row>
     <row r="186" spans="9:13">
@@ -5546,7 +5549,7 @@
         <v>463</v>
       </c>
       <c r="M186" t="s">
-        <v>459</v>
+        <v>571</v>
       </c>
     </row>
     <row r="187" spans="9:13">
@@ -5554,7 +5557,7 @@
         <v>464</v>
       </c>
       <c r="M187" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="188" spans="9:13">
@@ -5562,7 +5565,7 @@
         <v>465</v>
       </c>
       <c r="M188" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="189" spans="9:13">
@@ -5570,7 +5573,7 @@
         <v>466</v>
       </c>
       <c r="M189" t="s">
-        <v>571</v>
+        <v>461</v>
       </c>
     </row>
     <row r="190" spans="9:13">
@@ -5578,7 +5581,7 @@
         <v>467</v>
       </c>
       <c r="M190" t="s">
-        <v>462</v>
+        <v>572</v>
       </c>
     </row>
     <row r="191" spans="9:13">
@@ -5586,7 +5589,7 @@
         <v>468</v>
       </c>
       <c r="M191" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="192" spans="9:13">
@@ -5594,7 +5597,7 @@
         <v>469</v>
       </c>
       <c r="M192" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="193" spans="9:13">
@@ -5602,7 +5605,7 @@
         <v>470</v>
       </c>
       <c r="M193" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="194" spans="9:13">
@@ -5610,7 +5613,7 @@
         <v>471</v>
       </c>
       <c r="M194" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="195" spans="9:13">
@@ -5618,7 +5621,7 @@
         <v>472</v>
       </c>
       <c r="M195" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="196" spans="9:13">
@@ -5626,7 +5629,7 @@
         <v>473</v>
       </c>
       <c r="M196" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="197" spans="9:13">
@@ -5634,7 +5637,7 @@
         <v>474</v>
       </c>
       <c r="M197" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="198" spans="9:13">
@@ -5642,7 +5645,7 @@
         <v>475</v>
       </c>
       <c r="M198" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="199" spans="9:13">
@@ -5650,7 +5653,7 @@
         <v>476</v>
       </c>
       <c r="M199" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="200" spans="9:13">
@@ -5658,7 +5661,7 @@
         <v>477</v>
       </c>
       <c r="M200" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="201" spans="9:13">
@@ -5666,7 +5669,7 @@
         <v>478</v>
       </c>
       <c r="M201" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="202" spans="9:13">
@@ -5674,7 +5677,7 @@
         <v>479</v>
       </c>
       <c r="M202" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="203" spans="9:13">
@@ -5682,7 +5685,7 @@
         <v>480</v>
       </c>
       <c r="M203" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="9:13">
@@ -5690,7 +5693,7 @@
         <v>481</v>
       </c>
       <c r="M204" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="9:13">
@@ -5698,7 +5701,7 @@
         <v>482</v>
       </c>
       <c r="M205" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="9:13">
@@ -5706,7 +5709,7 @@
         <v>483</v>
       </c>
       <c r="M206" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" spans="9:13">
@@ -5714,7 +5717,7 @@
         <v>484</v>
       </c>
       <c r="M207" t="s">
-        <v>572</v>
+        <v>478</v>
       </c>
     </row>
     <row r="208" spans="9:13">
@@ -5722,7 +5725,7 @@
         <v>485</v>
       </c>
       <c r="M208" t="s">
-        <v>479</v>
+        <v>573</v>
       </c>
     </row>
     <row r="209" spans="9:13">
@@ -5730,7 +5733,7 @@
         <v>486</v>
       </c>
       <c r="M209" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="9:13">
@@ -5738,7 +5741,7 @@
         <v>487</v>
       </c>
       <c r="M210" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="9:13">
@@ -5746,7 +5749,7 @@
         <v>488</v>
       </c>
       <c r="M211" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="212" spans="9:13">
@@ -5754,7 +5757,7 @@
         <v>489</v>
       </c>
       <c r="M212" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="213" spans="9:13">
@@ -5762,7 +5765,7 @@
         <v>490</v>
       </c>
       <c r="M213" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="9:13">
@@ -5770,7 +5773,7 @@
         <v>491</v>
       </c>
       <c r="M214" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="215" spans="9:13">
@@ -5778,7 +5781,7 @@
         <v>492</v>
       </c>
       <c r="M215" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="216" spans="9:13">
@@ -5786,7 +5789,7 @@
         <v>493</v>
       </c>
       <c r="M216" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="217" spans="9:13">
@@ -5794,7 +5797,7 @@
         <v>494</v>
       </c>
       <c r="M217" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218" spans="9:13">
@@ -5802,7 +5805,7 @@
         <v>495</v>
       </c>
       <c r="M218" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="9:13">
@@ -5810,7 +5813,7 @@
         <v>496</v>
       </c>
       <c r="M219" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="9:13">
@@ -5818,7 +5821,7 @@
         <v>497</v>
       </c>
       <c r="M220" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="9:13">
@@ -5826,7 +5829,7 @@
         <v>498</v>
       </c>
       <c r="M221" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="9:13">
@@ -5834,7 +5837,7 @@
         <v>499</v>
       </c>
       <c r="M222" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="9:13">
@@ -5842,7 +5845,7 @@
         <v>500</v>
       </c>
       <c r="M223" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="9:13">
@@ -5850,7 +5853,7 @@
         <v>501</v>
       </c>
       <c r="M224" t="s">
-        <v>573</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="9:13">
@@ -5858,7 +5861,7 @@
         <v>502</v>
       </c>
       <c r="M225" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
     </row>
     <row r="226" spans="9:13">
@@ -5866,7 +5869,7 @@
         <v>503</v>
       </c>
       <c r="M226" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="227" spans="9:13">
@@ -5874,7 +5877,7 @@
         <v>504</v>
       </c>
       <c r="M227" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="9:13">
@@ -5882,7 +5885,7 @@
         <v>505</v>
       </c>
       <c r="M228" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="9:13">
@@ -5890,7 +5893,7 @@
         <v>506</v>
       </c>
       <c r="M229" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="230" spans="9:13">
@@ -5898,7 +5901,7 @@
         <v>507</v>
       </c>
       <c r="M230" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="231" spans="9:13">
@@ -5906,7 +5909,7 @@
         <v>508</v>
       </c>
       <c r="M231" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="232" spans="9:13">
@@ -5914,7 +5917,7 @@
         <v>509</v>
       </c>
       <c r="M232" t="s">
-        <v>574</v>
+        <v>504</v>
       </c>
     </row>
     <row r="233" spans="9:13">
@@ -5922,7 +5925,7 @@
         <v>510</v>
       </c>
       <c r="M233" t="s">
-        <v>506</v>
+        <v>575</v>
       </c>
     </row>
     <row r="234" spans="9:13">
@@ -5930,7 +5933,7 @@
         <v>511</v>
       </c>
       <c r="M234" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="235" spans="9:13">
@@ -5938,7 +5941,7 @@
         <v>512</v>
       </c>
       <c r="M235" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="236" spans="9:13">
@@ -5946,7 +5949,7 @@
         <v>513</v>
       </c>
       <c r="M236" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="237" spans="9:13">
@@ -5954,7 +5957,7 @@
         <v>514</v>
       </c>
       <c r="M237" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="238" spans="9:13">
@@ -5962,7 +5965,7 @@
         <v>515</v>
       </c>
       <c r="M238" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="9:13">
@@ -5970,7 +5973,7 @@
         <v>516</v>
       </c>
       <c r="M239" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="240" spans="9:13">
@@ -5978,7 +5981,7 @@
         <v>517</v>
       </c>
       <c r="M240" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241" spans="9:13">
@@ -5986,7 +5989,7 @@
         <v>518</v>
       </c>
       <c r="M241" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="242" spans="9:13">
@@ -5994,7 +5997,7 @@
         <v>519</v>
       </c>
       <c r="M242" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243" spans="9:13">
@@ -6002,7 +6005,7 @@
         <v>520</v>
       </c>
       <c r="M243" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="9:13">
@@ -6010,7 +6013,7 @@
         <v>521</v>
       </c>
       <c r="M244" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="245" spans="9:13">
@@ -6018,7 +6021,7 @@
         <v>522</v>
       </c>
       <c r="M245" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="246" spans="9:13">
@@ -6026,7 +6029,7 @@
         <v>523</v>
       </c>
       <c r="M246" t="s">
-        <v>575</v>
+        <v>519</v>
       </c>
     </row>
     <row r="247" spans="9:13">
@@ -6034,7 +6037,7 @@
         <v>524</v>
       </c>
       <c r="M247" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
     </row>
     <row r="248" spans="9:13">
@@ -6042,7 +6045,7 @@
         <v>525</v>
       </c>
       <c r="M248" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="249" spans="9:13">
@@ -6050,7 +6053,7 @@
         <v>526</v>
       </c>
       <c r="M249" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="250" spans="9:13">
@@ -6058,7 +6061,7 @@
         <v>527</v>
       </c>
       <c r="M250" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="251" spans="9:13">
@@ -6066,7 +6069,7 @@
         <v>528</v>
       </c>
       <c r="M251" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="252" spans="9:13">
@@ -6074,7 +6077,7 @@
         <v>529</v>
       </c>
       <c r="M252" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="9:13">
@@ -6082,7 +6085,7 @@
         <v>530</v>
       </c>
       <c r="M253" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="254" spans="9:13">
@@ -6090,7 +6093,7 @@
         <v>531</v>
       </c>
       <c r="M254" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="255" spans="9:13">
@@ -6098,7 +6101,7 @@
         <v>532</v>
       </c>
       <c r="M255" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="256" spans="9:13">
@@ -6106,7 +6109,7 @@
         <v>533</v>
       </c>
       <c r="M256" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="9:13">
@@ -6114,7 +6117,7 @@
         <v>534</v>
       </c>
       <c r="M257" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="258" spans="9:13">
@@ -6122,7 +6125,7 @@
         <v>535</v>
       </c>
       <c r="M258" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="9:13">
@@ -6130,7 +6133,7 @@
         <v>536</v>
       </c>
       <c r="M259" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="9:13">
@@ -6138,7 +6141,7 @@
         <v>537</v>
       </c>
       <c r="M260" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="261" spans="9:13">
@@ -6146,7 +6149,7 @@
         <v>538</v>
       </c>
       <c r="M261" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="262" spans="9:13">
@@ -6154,7 +6157,7 @@
         <v>539</v>
       </c>
       <c r="M262" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="263" spans="9:13">
@@ -6162,7 +6165,7 @@
         <v>540</v>
       </c>
       <c r="M263" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="264" spans="9:13">
@@ -6170,7 +6173,7 @@
         <v>541</v>
       </c>
       <c r="M264" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="265" spans="9:13">
@@ -6178,7 +6181,7 @@
         <v>542</v>
       </c>
       <c r="M265" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="9:13">
@@ -6186,7 +6189,7 @@
         <v>543</v>
       </c>
       <c r="M266" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="9:13">
@@ -6194,7 +6197,7 @@
         <v>544</v>
       </c>
       <c r="M267" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="9:13">
@@ -6202,7 +6205,7 @@
         <v>545</v>
       </c>
       <c r="M268" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="9:13">
@@ -6210,7 +6213,7 @@
         <v>546</v>
       </c>
       <c r="M269" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="9:13">
@@ -6218,7 +6221,7 @@
         <v>547</v>
       </c>
       <c r="M270" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="9:13">
@@ -6226,7 +6229,7 @@
         <v>548</v>
       </c>
       <c r="M271" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" spans="9:13">
@@ -6234,7 +6237,7 @@
         <v>549</v>
       </c>
       <c r="M272" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="9:13">
@@ -6242,22 +6245,22 @@
         <v>550</v>
       </c>
       <c r="M273" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="9:13">
       <c r="M274" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="9:13">
       <c r="M275" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="9:13">
       <c r="M276" t="s">
-        <v>576</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="9:13">
@@ -6313,6 +6316,11 @@
     <row r="287" spans="9:13">
       <c r="M287" t="s">
         <v>587</v>
+      </c>
+    </row>
+    <row r="288" spans="9:13">
+      <c r="M288" t="s">
+        <v>588</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -4581,7 +4581,7 @@
         <v>342</v>
       </c>
       <c r="M65" t="s">
-        <v>338</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="9:13">
@@ -4589,7 +4589,7 @@
         <v>343</v>
       </c>
       <c r="M66" t="s">
-        <v>564</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="9:13">

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="677">
   <si>
     <t>alias</t>
   </si>
@@ -819,6 +819,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3597,300 +3600,300 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -3937,253 +3940,253 @@
   <sheetData>
     <row r="1" spans="7:34">
       <c r="G1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="T1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="X1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AC1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AD1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AH1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2" spans="7:34">
       <c r="G2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="T2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="X2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AC2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AD2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AH2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="3" spans="7:34">
       <c r="G3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AC3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AD3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="7:34">
       <c r="I4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC4" t="s">
+        <v>579</v>
+      </c>
+      <c r="AD4" t="s">
         <v>578</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="5" spans="7:34">
       <c r="I5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD5" t="s">
         <v>579</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="6" spans="7:34">
       <c r="I6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC6" t="s">
+        <v>581</v>
+      </c>
+      <c r="AD6" t="s">
         <v>580</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="7" spans="7:34">
       <c r="I7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC7" t="s">
+        <v>582</v>
+      </c>
+      <c r="AD7" t="s">
         <v>581</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="8" spans="7:34">
       <c r="I8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC8" t="s">
+        <v>583</v>
+      </c>
+      <c r="AD8" t="s">
         <v>582</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="9" spans="7:34">
       <c r="I9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC9" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD9" t="s">
         <v>583</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="10" spans="7:34">
       <c r="I10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AC10" t="s">
+        <v>585</v>
+      </c>
+      <c r="AD10" t="s">
         <v>584</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="11" spans="7:34">
       <c r="I11" t="s">
+        <v>289</v>
+      </c>
+      <c r="M11" t="s">
         <v>288</v>
       </c>
-      <c r="M11" t="s">
-        <v>287</v>
-      </c>
       <c r="AC11" t="s">
+        <v>586</v>
+      </c>
+      <c r="AD11" t="s">
         <v>585</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="12" spans="7:34">
       <c r="I12" t="s">
+        <v>290</v>
+      </c>
+      <c r="M12" t="s">
         <v>289</v>
       </c>
-      <c r="M12" t="s">
-        <v>288</v>
-      </c>
       <c r="AC12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AD12" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="13" spans="7:34">
       <c r="I13" t="s">
+        <v>291</v>
+      </c>
+      <c r="M13" t="s">
         <v>290</v>
       </c>
-      <c r="M13" t="s">
-        <v>289</v>
-      </c>
       <c r="AC13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AD13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="7:34">
       <c r="I14" t="s">
+        <v>292</v>
+      </c>
+      <c r="M14" t="s">
         <v>291</v>
       </c>
-      <c r="M14" t="s">
-        <v>290</v>
-      </c>
       <c r="AC14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AD14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="7:34">
       <c r="I15" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M15" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="AD15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="7:34">
       <c r="I16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M16" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AD16" t="s">
         <v>116</v>
@@ -4191,2136 +4194,2136 @@
     </row>
     <row r="17" spans="9:30">
       <c r="I17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M17" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="9:30">
       <c r="I18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="9:30">
       <c r="I19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="9:30">
       <c r="I20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M20" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="9:30">
       <c r="I21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="9:30">
       <c r="I22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="9:30">
       <c r="I23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="9:30">
       <c r="I24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="9:30">
       <c r="I25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M25" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="9:30">
       <c r="I26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M26" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="9:30">
       <c r="I27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="9:30">
       <c r="I28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M28" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="9:30">
       <c r="I29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M29" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="9:30">
       <c r="I30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M30" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="9:30">
       <c r="I31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="32" spans="9:30">
       <c r="I32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M32" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="9:13">
       <c r="I33" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="9:13">
       <c r="I34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35" spans="9:13">
       <c r="I35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M35" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="9:13">
       <c r="I36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M36" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="9:13">
       <c r="I37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M37" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="9:13">
       <c r="I38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="39" spans="9:13">
       <c r="I39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M39" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="40" spans="9:13">
       <c r="I40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M40" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="41" spans="9:13">
       <c r="I41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M41" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="9:13">
       <c r="I42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M42" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="9:13">
       <c r="I43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M43" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="9:13">
       <c r="I44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="9:13">
       <c r="I45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="9:13">
       <c r="I46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="9:13">
       <c r="I47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="9:13">
       <c r="I48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M48" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="9:13">
       <c r="I49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M49" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="9:13">
       <c r="I50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="9:13">
       <c r="I51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M51" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="9:13">
       <c r="I52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="9:13">
       <c r="I53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M53" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="9:13">
       <c r="I54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="9:13">
       <c r="I55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M55" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="9:13">
       <c r="I56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M56" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="9:13">
       <c r="I57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M57" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="9:13">
       <c r="I58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M58" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="9:13">
       <c r="I59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="9:13">
       <c r="I60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M60" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="9:13">
       <c r="I61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M61" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="9:13">
       <c r="I62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M62" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="9:13">
       <c r="I63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M63" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="9:13">
       <c r="I64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M64" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="65" spans="9:13">
       <c r="I65" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M65" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="9:13">
       <c r="I66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M66" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="67" spans="9:13">
       <c r="I67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M67" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="68" spans="9:13">
       <c r="I68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M68" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="9:13">
       <c r="I69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M69" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="9:13">
       <c r="I70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M70" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="9:13">
       <c r="I71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M71" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="72" spans="9:13">
       <c r="I72" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M72" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="9:13">
       <c r="I73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M73" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74" spans="9:13">
       <c r="I74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M74" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="75" spans="9:13">
       <c r="I75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M75" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76" spans="9:13">
       <c r="I76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M76" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="77" spans="9:13">
       <c r="I77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M77" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="78" spans="9:13">
       <c r="I78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M78" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="79" spans="9:13">
       <c r="I79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M79" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="9:13">
       <c r="I80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M80" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="81" spans="9:13">
       <c r="I81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M81" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="9:13">
       <c r="I82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M82" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="9:13">
       <c r="I83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="9:13">
       <c r="I84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M84" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="9:13">
       <c r="I85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M85" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="86" spans="9:13">
       <c r="I86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M86" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="87" spans="9:13">
       <c r="I87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M87" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="88" spans="9:13">
       <c r="I88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M88" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="89" spans="9:13">
       <c r="I89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="90" spans="9:13">
       <c r="I90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M90" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="9:13">
       <c r="I91" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M91" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="92" spans="9:13">
       <c r="I92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M92" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="93" spans="9:13">
       <c r="I93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M93" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="9:13">
       <c r="I94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M94" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="95" spans="9:13">
       <c r="I95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M95" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="9:13">
       <c r="I96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M96" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="97" spans="9:13">
       <c r="I97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M97" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="9:13">
       <c r="I98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M98" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="99" spans="9:13">
       <c r="I99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M99" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="100" spans="9:13">
       <c r="I100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M100" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="101" spans="9:13">
       <c r="I101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M101" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="102" spans="9:13">
       <c r="I102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M102" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="103" spans="9:13">
       <c r="I103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M103" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="104" spans="9:13">
       <c r="I104" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M104" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="105" spans="9:13">
       <c r="I105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M105" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="106" spans="9:13">
       <c r="I106" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M106" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="107" spans="9:13">
       <c r="I107" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M107" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="108" spans="9:13">
       <c r="I108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M108" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="109" spans="9:13">
       <c r="I109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M109" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="110" spans="9:13">
       <c r="I110" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="111" spans="9:13">
       <c r="I111" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M111" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="112" spans="9:13">
       <c r="I112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M112" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="113" spans="9:13">
       <c r="I113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M113" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="114" spans="9:13">
       <c r="I114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M114" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="115" spans="9:13">
       <c r="I115" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M115" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="9:13">
       <c r="I116" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M116" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="117" spans="9:13">
       <c r="I117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M117" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="118" spans="9:13">
       <c r="I118" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M118" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="119" spans="9:13">
       <c r="I119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M119" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="120" spans="9:13">
       <c r="I120" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M120" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="9:13">
       <c r="I121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M121" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" spans="9:13">
       <c r="I122" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M122" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="123" spans="9:13">
       <c r="I123" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M123" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="9:13">
       <c r="I124" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M124" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="125" spans="9:13">
       <c r="I125" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M125" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="126" spans="9:13">
       <c r="I126" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M126" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="127" spans="9:13">
       <c r="I127" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="128" spans="9:13">
       <c r="I128" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M128" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="129" spans="9:13">
       <c r="I129" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="130" spans="9:13">
       <c r="I130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M130" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="131" spans="9:13">
       <c r="I131" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M131" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="132" spans="9:13">
       <c r="I132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M132" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="133" spans="9:13">
       <c r="I133" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M133" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="9:13">
       <c r="I134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M134" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="135" spans="9:13">
       <c r="I135" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M135" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="136" spans="9:13">
       <c r="I136" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M136" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="9:13">
       <c r="I137" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M137" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="138" spans="9:13">
       <c r="I138" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M138" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="139" spans="9:13">
       <c r="I139" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M139" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="140" spans="9:13">
       <c r="I140" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M140" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" spans="9:13">
       <c r="I141" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="142" spans="9:13">
       <c r="I142" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M142" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="143" spans="9:13">
       <c r="I143" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="144" spans="9:13">
       <c r="I144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="145" spans="9:13">
       <c r="I145" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="9:13">
       <c r="I146" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M146" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="147" spans="9:13">
       <c r="I147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M147" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="148" spans="9:13">
       <c r="I148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M148" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="149" spans="9:13">
       <c r="I149" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M149" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="150" spans="9:13">
       <c r="I150" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M150" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="151" spans="9:13">
       <c r="I151" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M151" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="152" spans="9:13">
       <c r="I152" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M152" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="153" spans="9:13">
       <c r="I153" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M153" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="154" spans="9:13">
       <c r="I154" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M154" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="155" spans="9:13">
       <c r="I155" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M155" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="156" spans="9:13">
       <c r="I156" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M156" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="157" spans="9:13">
       <c r="I157" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M157" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="158" spans="9:13">
       <c r="I158" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M158" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="159" spans="9:13">
       <c r="I159" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M159" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="160" spans="9:13">
       <c r="I160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M160" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="161" spans="9:13">
       <c r="I161" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M161" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="9:13">
       <c r="I162" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M162" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="163" spans="9:13">
       <c r="I163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M163" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="164" spans="9:13">
       <c r="I164" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M164" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="165" spans="9:13">
       <c r="I165" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M165" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="166" spans="9:13">
       <c r="I166" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M166" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="167" spans="9:13">
       <c r="I167" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M167" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="168" spans="9:13">
       <c r="I168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M168" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="9:13">
       <c r="I169" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M169" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="9:13">
       <c r="I170" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M170" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="171" spans="9:13">
       <c r="I171" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M171" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="172" spans="9:13">
       <c r="I172" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M172" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="9:13">
       <c r="I173" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M173" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="174" spans="9:13">
       <c r="I174" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M174" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="9:13">
       <c r="I175" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M175" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="176" spans="9:13">
       <c r="I176" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M176" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="177" spans="9:13">
       <c r="I177" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M177" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="178" spans="9:13">
       <c r="I178" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M178" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="179" spans="9:13">
       <c r="I179" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M179" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="180" spans="9:13">
       <c r="I180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M180" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" spans="9:13">
       <c r="I181" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M181" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="182" spans="9:13">
       <c r="I182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M182" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="183" spans="9:13">
       <c r="I183" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M183" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="184" spans="9:13">
       <c r="I184" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M184" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="185" spans="9:13">
       <c r="I185" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M185" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="186" spans="9:13">
       <c r="I186" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M186" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="9:13">
       <c r="I187" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M187" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="188" spans="9:13">
       <c r="I188" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M188" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="189" spans="9:13">
       <c r="I189" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M189" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="190" spans="9:13">
       <c r="I190" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M190" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="9:13">
       <c r="I191" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M191" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="192" spans="9:13">
       <c r="I192" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M192" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="193" spans="9:13">
       <c r="I193" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M193" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="194" spans="9:13">
       <c r="I194" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M194" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="195" spans="9:13">
       <c r="I195" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M195" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="196" spans="9:13">
       <c r="I196" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M196" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="197" spans="9:13">
       <c r="I197" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M197" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="198" spans="9:13">
       <c r="I198" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M198" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="199" spans="9:13">
       <c r="I199" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M199" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="200" spans="9:13">
       <c r="I200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M200" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="201" spans="9:13">
       <c r="I201" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M201" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="202" spans="9:13">
       <c r="I202" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M202" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="9:13">
       <c r="I203" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M203" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="9:13">
       <c r="I204" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M204" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="9:13">
       <c r="I205" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M205" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="9:13">
       <c r="I206" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M206" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="207" spans="9:13">
       <c r="I207" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M207" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="208" spans="9:13">
       <c r="I208" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M208" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="209" spans="9:13">
       <c r="I209" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M209" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="9:13">
       <c r="I210" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M210" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="211" spans="9:13">
       <c r="I211" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M211" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="9:13">
       <c r="I212" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M212" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="9:13">
       <c r="I213" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M213" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="214" spans="9:13">
       <c r="I214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M214" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="9:13">
       <c r="I215" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M215" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="9:13">
       <c r="I216" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M216" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="9:13">
       <c r="I217" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M217" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="9:13">
       <c r="I218" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M218" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="9:13">
       <c r="I219" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M219" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="9:13">
       <c r="I220" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M220" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="9:13">
       <c r="I221" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M221" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="9:13">
       <c r="I222" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M222" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="9:13">
       <c r="I223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M223" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="9:13">
       <c r="I224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M224" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="9:13">
       <c r="I225" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M225" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="226" spans="9:13">
       <c r="I226" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="9:13">
       <c r="I227" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M227" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="9:13">
       <c r="I228" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M228" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="9:13">
       <c r="I229" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M229" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="9:13">
       <c r="I230" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M230" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="231" spans="9:13">
       <c r="I231" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M231" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="232" spans="9:13">
       <c r="I232" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M232" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="233" spans="9:13">
       <c r="I233" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M233" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="9:13">
       <c r="I234" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M234" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="235" spans="9:13">
       <c r="I235" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M235" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="236" spans="9:13">
       <c r="I236" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M236" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="237" spans="9:13">
       <c r="I237" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M237" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="238" spans="9:13">
       <c r="I238" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M238" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="239" spans="9:13">
       <c r="I239" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M239" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="240" spans="9:13">
       <c r="I240" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M240" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="241" spans="9:13">
       <c r="I241" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M241" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="242" spans="9:13">
       <c r="I242" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M242" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="243" spans="9:13">
       <c r="I243" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M243" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="244" spans="9:13">
       <c r="I244" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M244" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="245" spans="9:13">
       <c r="I245" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M245" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="9:13">
       <c r="I246" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M246" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="9:13">
       <c r="I247" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M247" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="248" spans="9:13">
       <c r="I248" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M248" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="249" spans="9:13">
       <c r="I249" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M249" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="9:13">
       <c r="I250" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M250" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="9:13">
       <c r="I251" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M251" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="252" spans="9:13">
       <c r="I252" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M252" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="253" spans="9:13">
       <c r="I253" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M253" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="254" spans="9:13">
       <c r="I254" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M254" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="255" spans="9:13">
       <c r="I255" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M255" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="256" spans="9:13">
       <c r="I256" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M256" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="257" spans="9:13">
       <c r="I257" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M257" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="258" spans="9:13">
       <c r="I258" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M258" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="259" spans="9:13">
       <c r="I259" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M259" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="260" spans="9:13">
       <c r="I260" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M260" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="261" spans="9:13">
       <c r="I261" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M261" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="262" spans="9:13">
       <c r="I262" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M262" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="263" spans="9:13">
       <c r="I263" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M263" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="264" spans="9:13">
       <c r="I264" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M264" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="9:13">
       <c r="I265" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M265" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="266" spans="9:13">
       <c r="I266" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M266" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="267" spans="9:13">
       <c r="I267" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M267" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="268" spans="9:13">
       <c r="I268" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M268" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="269" spans="9:13">
       <c r="I269" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M269" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="9:13">
       <c r="I270" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="9:13">
       <c r="I271" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M271" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="9:13">
       <c r="I272" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M272" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="273" spans="9:13">
       <c r="I273" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M273" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="274" spans="9:13">
       <c r="M274" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="9:13">
       <c r="M275" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="276" spans="9:13">
       <c r="M276" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="277" spans="9:13">
       <c r="M277" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="9:13">
       <c r="M278" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="9:13">
       <c r="M279" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="9:13">
       <c r="M280" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="9:13">
       <c r="M281" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282" spans="9:13">
       <c r="M282" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="9:13">
       <c r="M283" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="284" spans="9:13">
       <c r="M284" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285" spans="9:13">
       <c r="M285" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="286" spans="9:13">
       <c r="M286" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="9:13">
       <c r="M287" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="9:13">
       <c r="M288" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -119,7 +119,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -137,7 +137,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="clinicalsetting">'cv_sample'!$H$1:$H$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$I$1:$I$273</definedName>
-    <definedName name="environmentalsample">'cv_sample'!$T$1:$T$2</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$S$1:$S$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="678">
   <si>
     <t>alias</t>
   </si>
@@ -1721,6 +1721,66 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>identified_by</t>
+  </si>
+  <si>
+    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
+  </si>
+  <si>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>environmental_sample</t>
+  </si>
+  <si>
+    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
+  </si>
+  <si>
+    <t>mating_type</t>
+  </si>
+  <si>
+    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
+  </si>
+  <si>
+    <t>pathotype</t>
+  </si>
+  <si>
+    <t>(Optional) Name or code for pathotype of organism</t>
+  </si>
+  <si>
     <t>Arctic Ocean</t>
   </si>
   <si>
@@ -1775,6 +1835,9 @@
     <t>Tasman Sea</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1815,66 +1878,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>identified_by</t>
-  </si>
-  <si>
-    <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
-  </si>
-  <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>environmental_sample</t>
-  </si>
-  <si>
-    <t>(Mandatory) Identifies sequences derived by direct molecular isolation from a bulk environmental dna sample (by pcr with or without subsequent cloning of the product, dgge, or other anonymous methods) with no reliable identification of the source organism</t>
-  </si>
-  <si>
-    <t>mating_type</t>
-  </si>
-  <si>
-    <t>(Optional) Mating type of the organism from which the sequence was obtained; mating type is used for prokaryotes, and for eukaryotes that undergo meiosis without sexually dimorphic gametes</t>
-  </si>
-  <si>
-    <t>pathotype</t>
-  </si>
-  <si>
-    <t>(Optional) Name or code for pathotype of organism</t>
   </si>
   <si>
     <t>host disease status</t>
@@ -3630,118 +3633,118 @@
         <v>558</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
@@ -3782,118 +3785,118 @@
         <v>559</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -3907,11 +3910,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>countryoftravel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
+      <formula1>environmentalsample</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
       <formula1>geographiclocationcountryandorsea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
-      <formula1>environmentalsample</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>hostdiseaseoutcome</formula1>
@@ -3932,7 +3935,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AH288"/>
+  <dimension ref="G1:AH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3948,23 +3951,23 @@
       <c r="I1" t="s">
         <v>279</v>
       </c>
-      <c r="M1" t="s">
+      <c r="S1" t="s">
+        <v>572</v>
+      </c>
+      <c r="V1" t="s">
         <v>279</v>
       </c>
-      <c r="T1" t="s">
-        <v>604</v>
-      </c>
       <c r="X1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AC1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AD1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AH1" t="s">
-        <v>604</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="7:34">
@@ -3977,23 +3980,23 @@
       <c r="I2" t="s">
         <v>280</v>
       </c>
-      <c r="M2" t="s">
+      <c r="S2" t="s">
+        <v>573</v>
+      </c>
+      <c r="V2" t="s">
         <v>280</v>
       </c>
-      <c r="T2" t="s">
-        <v>605</v>
-      </c>
       <c r="X2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AC2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AD2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH2" t="s">
-        <v>605</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="7:34">
@@ -4003,189 +4006,189 @@
       <c r="I3" t="s">
         <v>281</v>
       </c>
-      <c r="M3" t="s">
+      <c r="V3" t="s">
         <v>281</v>
       </c>
       <c r="X3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AC3" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="AD3" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="7:34">
       <c r="I4" t="s">
         <v>282</v>
       </c>
-      <c r="M4" t="s">
+      <c r="V4" t="s">
         <v>282</v>
       </c>
       <c r="AC4" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="AD4" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
     </row>
     <row r="5" spans="7:34">
       <c r="I5" t="s">
         <v>283</v>
       </c>
-      <c r="M5" t="s">
+      <c r="V5" t="s">
         <v>283</v>
       </c>
       <c r="AC5" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="AD5" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="7:34">
       <c r="I6" t="s">
         <v>284</v>
       </c>
-      <c r="M6" t="s">
+      <c r="V6" t="s">
         <v>284</v>
       </c>
       <c r="AC6" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="AD6" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
     </row>
     <row r="7" spans="7:34">
       <c r="I7" t="s">
         <v>285</v>
       </c>
-      <c r="M7" t="s">
+      <c r="V7" t="s">
         <v>285</v>
       </c>
       <c r="AC7" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="AD7" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="7:34">
       <c r="I8" t="s">
         <v>286</v>
       </c>
-      <c r="M8" t="s">
+      <c r="V8" t="s">
         <v>286</v>
       </c>
       <c r="AC8" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="AD8" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="9" spans="7:34">
       <c r="I9" t="s">
         <v>287</v>
       </c>
-      <c r="M9" t="s">
+      <c r="V9" t="s">
         <v>287</v>
       </c>
       <c r="AC9" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="AD9" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="7:34">
       <c r="I10" t="s">
         <v>288</v>
       </c>
-      <c r="M10" t="s">
-        <v>560</v>
+      <c r="V10" t="s">
+        <v>580</v>
       </c>
       <c r="AC10" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
       <c r="AD10" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="7:34">
       <c r="I11" t="s">
         <v>289</v>
       </c>
-      <c r="M11" t="s">
+      <c r="V11" t="s">
         <v>288</v>
       </c>
       <c r="AC11" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="AD11" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="7:34">
       <c r="I12" t="s">
         <v>290</v>
       </c>
-      <c r="M12" t="s">
+      <c r="V12" t="s">
         <v>289</v>
       </c>
       <c r="AC12" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="AD12" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="13" spans="7:34">
       <c r="I13" t="s">
         <v>291</v>
       </c>
-      <c r="M13" t="s">
+      <c r="V13" t="s">
         <v>290</v>
       </c>
       <c r="AC13" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="AD13" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="7:34">
       <c r="I14" t="s">
         <v>292</v>
       </c>
-      <c r="M14" t="s">
+      <c r="V14" t="s">
         <v>291</v>
       </c>
       <c r="AC14" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
       <c r="AD14" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="7:34">
       <c r="I15" t="s">
         <v>293</v>
       </c>
-      <c r="M15" t="s">
-        <v>561</v>
+      <c r="V15" t="s">
+        <v>581</v>
       </c>
       <c r="AD15" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="7:34">
       <c r="I16" t="s">
         <v>294</v>
       </c>
-      <c r="M16" t="s">
+      <c r="V16" t="s">
         <v>292</v>
       </c>
       <c r="AD16" t="s">
@@ -4196,18 +4199,18 @@
       <c r="I17" t="s">
         <v>295</v>
       </c>
-      <c r="M17" t="s">
+      <c r="V17" t="s">
         <v>293</v>
       </c>
       <c r="AD17" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="9:30">
       <c r="I18" t="s">
         <v>296</v>
       </c>
-      <c r="M18" t="s">
+      <c r="V18" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4215,7 +4218,7 @@
       <c r="I19" t="s">
         <v>297</v>
       </c>
-      <c r="M19" t="s">
+      <c r="V19" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4223,7 +4226,7 @@
       <c r="I20" t="s">
         <v>298</v>
       </c>
-      <c r="M20" t="s">
+      <c r="V20" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4231,7 +4234,7 @@
       <c r="I21" t="s">
         <v>299</v>
       </c>
-      <c r="M21" t="s">
+      <c r="V21" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4239,15 +4242,15 @@
       <c r="I22" t="s">
         <v>300</v>
       </c>
-      <c r="M22" t="s">
-        <v>562</v>
+      <c r="V22" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="9:30">
       <c r="I23" t="s">
         <v>301</v>
       </c>
-      <c r="M23" t="s">
+      <c r="V23" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4255,7 +4258,7 @@
       <c r="I24" t="s">
         <v>302</v>
       </c>
-      <c r="M24" t="s">
+      <c r="V24" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4263,7 +4266,7 @@
       <c r="I25" t="s">
         <v>303</v>
       </c>
-      <c r="M25" t="s">
+      <c r="V25" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4271,7 +4274,7 @@
       <c r="I26" t="s">
         <v>304</v>
       </c>
-      <c r="M26" t="s">
+      <c r="V26" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4279,7 +4282,7 @@
       <c r="I27" t="s">
         <v>305</v>
       </c>
-      <c r="M27" t="s">
+      <c r="V27" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4287,7 +4290,7 @@
       <c r="I28" t="s">
         <v>306</v>
       </c>
-      <c r="M28" t="s">
+      <c r="V28" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4295,7 +4298,7 @@
       <c r="I29" t="s">
         <v>307</v>
       </c>
-      <c r="M29" t="s">
+      <c r="V29" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4303,7 +4306,7 @@
       <c r="I30" t="s">
         <v>308</v>
       </c>
-      <c r="M30" t="s">
+      <c r="V30" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4311,7 +4314,7 @@
       <c r="I31" t="s">
         <v>309</v>
       </c>
-      <c r="M31" t="s">
+      <c r="V31" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4319,2011 +4322,2016 @@
       <c r="I32" t="s">
         <v>310</v>
       </c>
-      <c r="M32" t="s">
+      <c r="V32" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="33" spans="9:13">
+    <row r="33" spans="9:22">
       <c r="I33" t="s">
         <v>311</v>
       </c>
-      <c r="M33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="9:13">
+      <c r="V33" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="34" spans="9:22">
       <c r="I34" t="s">
         <v>312</v>
       </c>
-      <c r="M34" t="s">
+      <c r="V34" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="9:13">
+    <row r="35" spans="9:22">
       <c r="I35" t="s">
         <v>313</v>
       </c>
-      <c r="M35" t="s">
+      <c r="V35" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="36" spans="9:13">
+    <row r="36" spans="9:22">
       <c r="I36" t="s">
         <v>314</v>
       </c>
-      <c r="M36" t="s">
+      <c r="V36" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="37" spans="9:13">
+    <row r="37" spans="9:22">
       <c r="I37" t="s">
         <v>315</v>
       </c>
-      <c r="M37" t="s">
+      <c r="V37" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="9:13">
+    <row r="38" spans="9:22">
       <c r="I38" t="s">
         <v>316</v>
       </c>
-      <c r="M38" t="s">
+      <c r="V38" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="39" spans="9:13">
+    <row r="39" spans="9:22">
       <c r="I39" t="s">
         <v>317</v>
       </c>
-      <c r="M39" t="s">
+      <c r="V39" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="40" spans="9:13">
+    <row r="40" spans="9:22">
       <c r="I40" t="s">
         <v>318</v>
       </c>
-      <c r="M40" t="s">
+      <c r="V40" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="41" spans="9:13">
+    <row r="41" spans="9:22">
       <c r="I41" t="s">
         <v>319</v>
       </c>
-      <c r="M41" t="s">
+      <c r="V41" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="9:13">
+    <row r="42" spans="9:22">
       <c r="I42" t="s">
         <v>320</v>
       </c>
-      <c r="M42" t="s">
+      <c r="V42" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="9:13">
+    <row r="43" spans="9:22">
       <c r="I43" t="s">
         <v>321</v>
       </c>
-      <c r="M43" t="s">
+      <c r="V43" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="44" spans="9:13">
+    <row r="44" spans="9:22">
       <c r="I44" t="s">
         <v>322</v>
       </c>
-      <c r="M44" t="s">
+      <c r="V44" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="45" spans="9:13">
+    <row r="45" spans="9:22">
       <c r="I45" t="s">
         <v>323</v>
       </c>
-      <c r="M45" t="s">
+      <c r="V45" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="46" spans="9:13">
+    <row r="46" spans="9:22">
       <c r="I46" t="s">
         <v>324</v>
       </c>
-      <c r="M46" t="s">
+      <c r="V46" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="47" spans="9:13">
+    <row r="47" spans="9:22">
       <c r="I47" t="s">
         <v>325</v>
       </c>
-      <c r="M47" t="s">
+      <c r="V47" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="48" spans="9:13">
+    <row r="48" spans="9:22">
       <c r="I48" t="s">
         <v>326</v>
       </c>
-      <c r="M48" t="s">
+      <c r="V48" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="49" spans="9:13">
+    <row r="49" spans="9:22">
       <c r="I49" t="s">
         <v>327</v>
       </c>
-      <c r="M49" t="s">
+      <c r="V49" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="50" spans="9:13">
+    <row r="50" spans="9:22">
       <c r="I50" t="s">
         <v>328</v>
       </c>
-      <c r="M50" t="s">
+      <c r="V50" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="9:13">
+    <row r="51" spans="9:22">
       <c r="I51" t="s">
         <v>329</v>
       </c>
-      <c r="M51" t="s">
+      <c r="V51" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="52" spans="9:13">
+    <row r="52" spans="9:22">
       <c r="I52" t="s">
         <v>330</v>
       </c>
-      <c r="M52" t="s">
+      <c r="V52" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="9:13">
+    <row r="53" spans="9:22">
       <c r="I53" t="s">
         <v>331</v>
       </c>
-      <c r="M53" t="s">
+      <c r="V53" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="54" spans="9:13">
+    <row r="54" spans="9:22">
       <c r="I54" t="s">
         <v>332</v>
       </c>
-      <c r="M54" t="s">
+      <c r="V54" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="55" spans="9:13">
+    <row r="55" spans="9:22">
       <c r="I55" t="s">
         <v>333</v>
       </c>
-      <c r="M55" t="s">
+      <c r="V55" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="9:13">
+    <row r="56" spans="9:22">
       <c r="I56" t="s">
         <v>334</v>
       </c>
-      <c r="M56" t="s">
+      <c r="V56" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="57" spans="9:13">
+    <row r="57" spans="9:22">
       <c r="I57" t="s">
         <v>335</v>
       </c>
-      <c r="M57" t="s">
+      <c r="V57" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="58" spans="9:13">
+    <row r="58" spans="9:22">
       <c r="I58" t="s">
         <v>336</v>
       </c>
-      <c r="M58" t="s">
+      <c r="V58" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="59" spans="9:13">
+    <row r="59" spans="9:22">
       <c r="I59" t="s">
         <v>337</v>
       </c>
-      <c r="M59" t="s">
+      <c r="V59" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="60" spans="9:13">
+    <row r="60" spans="9:22">
       <c r="I60" t="s">
         <v>338</v>
       </c>
-      <c r="M60" t="s">
+      <c r="V60" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="9:13">
+    <row r="61" spans="9:22">
       <c r="I61" t="s">
         <v>339</v>
       </c>
-      <c r="M61" t="s">
+      <c r="V61" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="9:13">
+    <row r="62" spans="9:22">
       <c r="I62" t="s">
         <v>340</v>
       </c>
-      <c r="M62" t="s">
+      <c r="V62" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="63" spans="9:13">
+    <row r="63" spans="9:22">
       <c r="I63" t="s">
         <v>341</v>
       </c>
-      <c r="M63" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="9:13">
+      <c r="V63" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="64" spans="9:22">
       <c r="I64" t="s">
         <v>342</v>
       </c>
-      <c r="M64" t="s">
+      <c r="V64" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="9:13">
+    <row r="65" spans="9:22">
       <c r="I65" t="s">
         <v>343</v>
       </c>
-      <c r="M65" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="66" spans="9:13">
+      <c r="V65" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="66" spans="9:22">
       <c r="I66" t="s">
         <v>344</v>
       </c>
-      <c r="M66" t="s">
+      <c r="V66" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="67" spans="9:13">
+    <row r="67" spans="9:22">
       <c r="I67" t="s">
         <v>345</v>
       </c>
-      <c r="M67" t="s">
+      <c r="V67" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="68" spans="9:13">
+    <row r="68" spans="9:22">
       <c r="I68" t="s">
         <v>346</v>
       </c>
-      <c r="M68" t="s">
+      <c r="V68" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="9:13">
+    <row r="69" spans="9:22">
       <c r="I69" t="s">
         <v>347</v>
       </c>
-      <c r="M69" t="s">
+      <c r="V69" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="70" spans="9:13">
+    <row r="70" spans="9:22">
       <c r="I70" t="s">
         <v>348</v>
       </c>
-      <c r="M70" t="s">
+      <c r="V70" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="71" spans="9:13">
+    <row r="71" spans="9:22">
       <c r="I71" t="s">
         <v>349</v>
       </c>
-      <c r="M71" t="s">
+      <c r="V71" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="72" spans="9:13">
+    <row r="72" spans="9:22">
       <c r="I72" t="s">
         <v>350</v>
       </c>
-      <c r="M72" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="73" spans="9:13">
+      <c r="V72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73" spans="9:22">
       <c r="I73" t="s">
         <v>351</v>
       </c>
-      <c r="M73" t="s">
+      <c r="V73" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="74" spans="9:13">
+    <row r="74" spans="9:22">
       <c r="I74" t="s">
         <v>352</v>
       </c>
-      <c r="M74" t="s">
+      <c r="V74" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="9:13">
+    <row r="75" spans="9:22">
       <c r="I75" t="s">
         <v>353</v>
       </c>
-      <c r="M75" t="s">
+      <c r="V75" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="9:13">
+    <row r="76" spans="9:22">
       <c r="I76" t="s">
         <v>354</v>
       </c>
-      <c r="M76" t="s">
+      <c r="V76" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="9:13">
+    <row r="77" spans="9:22">
       <c r="I77" t="s">
         <v>355</v>
       </c>
-      <c r="M77" t="s">
+      <c r="V77" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="78" spans="9:13">
+    <row r="78" spans="9:22">
       <c r="I78" t="s">
         <v>356</v>
       </c>
-      <c r="M78" t="s">
+      <c r="V78" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="9:13">
+    <row r="79" spans="9:22">
       <c r="I79" t="s">
         <v>357</v>
       </c>
-      <c r="M79" t="s">
+      <c r="V79" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="80" spans="9:13">
+    <row r="80" spans="9:22">
       <c r="I80" t="s">
         <v>358</v>
       </c>
-      <c r="M80" t="s">
+      <c r="V80" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="81" spans="9:13">
+    <row r="81" spans="9:22">
       <c r="I81" t="s">
         <v>359</v>
       </c>
-      <c r="M81" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="82" spans="9:13">
+      <c r="V81" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82" spans="9:22">
       <c r="I82" t="s">
         <v>360</v>
       </c>
-      <c r="M82" t="s">
+      <c r="V82" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="9:13">
+    <row r="83" spans="9:22">
       <c r="I83" t="s">
         <v>361</v>
       </c>
-      <c r="M83" t="s">
+      <c r="V83" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="84" spans="9:13">
+    <row r="84" spans="9:22">
       <c r="I84" t="s">
         <v>362</v>
       </c>
-      <c r="M84" t="s">
+      <c r="V84" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="85" spans="9:13">
+    <row r="85" spans="9:22">
       <c r="I85" t="s">
         <v>363</v>
       </c>
-      <c r="M85" t="s">
+      <c r="V85" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="9:13">
+    <row r="86" spans="9:22">
       <c r="I86" t="s">
         <v>364</v>
       </c>
-      <c r="M86" t="s">
+      <c r="V86" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="87" spans="9:13">
+    <row r="87" spans="9:22">
       <c r="I87" t="s">
         <v>365</v>
       </c>
-      <c r="M87" t="s">
+      <c r="V87" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="88" spans="9:13">
+    <row r="88" spans="9:22">
       <c r="I88" t="s">
         <v>366</v>
       </c>
-      <c r="M88" t="s">
+      <c r="V88" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="89" spans="9:13">
+    <row r="89" spans="9:22">
       <c r="I89" t="s">
         <v>367</v>
       </c>
-      <c r="M89" t="s">
+      <c r="V89" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="90" spans="9:13">
+    <row r="90" spans="9:22">
       <c r="I90" t="s">
         <v>368</v>
       </c>
-      <c r="M90" t="s">
+      <c r="V90" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="91" spans="9:13">
+    <row r="91" spans="9:22">
       <c r="I91" t="s">
         <v>369</v>
       </c>
-      <c r="M91" t="s">
+      <c r="V91" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="92" spans="9:13">
+    <row r="92" spans="9:22">
       <c r="I92" t="s">
         <v>370</v>
       </c>
-      <c r="M92" t="s">
+      <c r="V92" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="9:13">
+    <row r="93" spans="9:22">
       <c r="I93" t="s">
         <v>371</v>
       </c>
-      <c r="M93" t="s">
+      <c r="V93" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="94" spans="9:13">
+    <row r="94" spans="9:22">
       <c r="I94" t="s">
         <v>372</v>
       </c>
-      <c r="M94" t="s">
+      <c r="V94" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="95" spans="9:13">
+    <row r="95" spans="9:22">
       <c r="I95" t="s">
         <v>373</v>
       </c>
-      <c r="M95" t="s">
+      <c r="V95" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="96" spans="9:13">
+    <row r="96" spans="9:22">
       <c r="I96" t="s">
         <v>374</v>
       </c>
-      <c r="M96" t="s">
+      <c r="V96" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="97" spans="9:13">
+    <row r="97" spans="9:22">
       <c r="I97" t="s">
         <v>375</v>
       </c>
-      <c r="M97" t="s">
+      <c r="V97" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="98" spans="9:13">
+    <row r="98" spans="9:22">
       <c r="I98" t="s">
         <v>376</v>
       </c>
-      <c r="M98" t="s">
+      <c r="V98" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="99" spans="9:13">
+    <row r="99" spans="9:22">
       <c r="I99" t="s">
         <v>377</v>
       </c>
-      <c r="M99" t="s">
+      <c r="V99" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="100" spans="9:13">
+    <row r="100" spans="9:22">
       <c r="I100" t="s">
         <v>378</v>
       </c>
-      <c r="M100" t="s">
+      <c r="V100" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="9:13">
+    <row r="101" spans="9:22">
       <c r="I101" t="s">
         <v>379</v>
       </c>
-      <c r="M101" t="s">
+      <c r="V101" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="102" spans="9:13">
+    <row r="102" spans="9:22">
       <c r="I102" t="s">
         <v>380</v>
       </c>
-      <c r="M102" t="s">
+      <c r="V102" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="103" spans="9:13">
+    <row r="103" spans="9:22">
       <c r="I103" t="s">
         <v>381</v>
       </c>
-      <c r="M103" t="s">
+      <c r="V103" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="104" spans="9:13">
+    <row r="104" spans="9:22">
       <c r="I104" t="s">
         <v>382</v>
       </c>
-      <c r="M104" t="s">
+      <c r="V104" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="105" spans="9:13">
+    <row r="105" spans="9:22">
       <c r="I105" t="s">
         <v>383</v>
       </c>
-      <c r="M105" t="s">
+      <c r="V105" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="106" spans="9:13">
+    <row r="106" spans="9:22">
       <c r="I106" t="s">
         <v>384</v>
       </c>
-      <c r="M106" t="s">
+      <c r="V106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="107" spans="9:13">
+    <row r="107" spans="9:22">
       <c r="I107" t="s">
         <v>385</v>
       </c>
-      <c r="M107" t="s">
+      <c r="V107" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="108" spans="9:13">
+    <row r="108" spans="9:22">
       <c r="I108" t="s">
         <v>386</v>
       </c>
-      <c r="M108" t="s">
+      <c r="V108" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="109" spans="9:13">
+    <row r="109" spans="9:22">
       <c r="I109" t="s">
         <v>387</v>
       </c>
-      <c r="M109" t="s">
+      <c r="V109" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="110" spans="9:13">
+    <row r="110" spans="9:22">
       <c r="I110" t="s">
         <v>388</v>
       </c>
-      <c r="M110" t="s">
+      <c r="V110" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="111" spans="9:13">
+    <row r="111" spans="9:22">
       <c r="I111" t="s">
         <v>389</v>
       </c>
-      <c r="M111" t="s">
+      <c r="V111" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="112" spans="9:13">
+    <row r="112" spans="9:22">
       <c r="I112" t="s">
         <v>390</v>
       </c>
-      <c r="M112" t="s">
+      <c r="V112" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="113" spans="9:13">
+    <row r="113" spans="9:22">
       <c r="I113" t="s">
         <v>391</v>
       </c>
-      <c r="M113" t="s">
+      <c r="V113" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="114" spans="9:13">
+    <row r="114" spans="9:22">
       <c r="I114" t="s">
         <v>392</v>
       </c>
-      <c r="M114" t="s">
+      <c r="V114" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="115" spans="9:13">
+    <row r="115" spans="9:22">
       <c r="I115" t="s">
         <v>393</v>
       </c>
-      <c r="M115" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="116" spans="9:13">
+      <c r="V115" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="116" spans="9:22">
       <c r="I116" t="s">
         <v>394</v>
       </c>
-      <c r="M116" t="s">
+      <c r="V116" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="117" spans="9:13">
+    <row r="117" spans="9:22">
       <c r="I117" t="s">
         <v>395</v>
       </c>
-      <c r="M117" t="s">
+      <c r="V117" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="118" spans="9:13">
+    <row r="118" spans="9:22">
       <c r="I118" t="s">
         <v>396</v>
       </c>
-      <c r="M118" t="s">
+      <c r="V118" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="119" spans="9:13">
+    <row r="119" spans="9:22">
       <c r="I119" t="s">
         <v>397</v>
       </c>
-      <c r="M119" t="s">
+      <c r="V119" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="120" spans="9:13">
+    <row r="120" spans="9:22">
       <c r="I120" t="s">
         <v>398</v>
       </c>
-      <c r="M120" t="s">
+      <c r="V120" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="121" spans="9:13">
+    <row r="121" spans="9:22">
       <c r="I121" t="s">
         <v>399</v>
       </c>
-      <c r="M121" t="s">
+      <c r="V121" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="122" spans="9:13">
+    <row r="122" spans="9:22">
       <c r="I122" t="s">
         <v>400</v>
       </c>
-      <c r="M122" t="s">
+      <c r="V122" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="123" spans="9:13">
+    <row r="123" spans="9:22">
       <c r="I123" t="s">
         <v>401</v>
       </c>
-      <c r="M123" t="s">
+      <c r="V123" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="124" spans="9:13">
+    <row r="124" spans="9:22">
       <c r="I124" t="s">
         <v>402</v>
       </c>
-      <c r="M124" t="s">
+      <c r="V124" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="9:13">
+    <row r="125" spans="9:22">
       <c r="I125" t="s">
         <v>403</v>
       </c>
-      <c r="M125" t="s">
+      <c r="V125" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="126" spans="9:13">
+    <row r="126" spans="9:22">
       <c r="I126" t="s">
         <v>404</v>
       </c>
-      <c r="M126" t="s">
+      <c r="V126" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="127" spans="9:13">
+    <row r="127" spans="9:22">
       <c r="I127" t="s">
         <v>405</v>
       </c>
-      <c r="M127" t="s">
+      <c r="V127" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="128" spans="9:13">
+    <row r="128" spans="9:22">
       <c r="I128" t="s">
         <v>406</v>
       </c>
-      <c r="M128" t="s">
+      <c r="V128" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="129" spans="9:13">
+    <row r="129" spans="9:22">
       <c r="I129" t="s">
         <v>407</v>
       </c>
-      <c r="M129" t="s">
+      <c r="V129" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="130" spans="9:13">
+    <row r="130" spans="9:22">
       <c r="I130" t="s">
         <v>408</v>
       </c>
-      <c r="M130" t="s">
+      <c r="V130" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="131" spans="9:13">
+    <row r="131" spans="9:22">
       <c r="I131" t="s">
         <v>409</v>
       </c>
-      <c r="M131" t="s">
+      <c r="V131" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="132" spans="9:13">
+    <row r="132" spans="9:22">
       <c r="I132" t="s">
         <v>410</v>
       </c>
-      <c r="M132" t="s">
+      <c r="V132" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="133" spans="9:13">
+    <row r="133" spans="9:22">
       <c r="I133" t="s">
         <v>411</v>
       </c>
-      <c r="M133" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="134" spans="9:13">
+      <c r="V133" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="134" spans="9:22">
       <c r="I134" t="s">
         <v>412</v>
       </c>
-      <c r="M134" t="s">
+      <c r="V134" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="135" spans="9:13">
+    <row r="135" spans="9:22">
       <c r="I135" t="s">
         <v>413</v>
       </c>
-      <c r="M135" t="s">
+      <c r="V135" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="136" spans="9:13">
+    <row r="136" spans="9:22">
       <c r="I136" t="s">
         <v>414</v>
       </c>
-      <c r="M136" t="s">
+      <c r="V136" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="137" spans="9:13">
+    <row r="137" spans="9:22">
       <c r="I137" t="s">
         <v>415</v>
       </c>
-      <c r="M137" t="s">
+      <c r="V137" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="9:13">
+    <row r="138" spans="9:22">
       <c r="I138" t="s">
         <v>416</v>
       </c>
-      <c r="M138" t="s">
+      <c r="V138" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="139" spans="9:13">
+    <row r="139" spans="9:22">
       <c r="I139" t="s">
         <v>417</v>
       </c>
-      <c r="M139" t="s">
+      <c r="V139" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="140" spans="9:13">
+    <row r="140" spans="9:22">
       <c r="I140" t="s">
         <v>418</v>
       </c>
-      <c r="M140" t="s">
+      <c r="V140" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="141" spans="9:13">
+    <row r="141" spans="9:22">
       <c r="I141" t="s">
         <v>419</v>
       </c>
-      <c r="M141" t="s">
+      <c r="V141" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="142" spans="9:13">
+    <row r="142" spans="9:22">
       <c r="I142" t="s">
         <v>420</v>
       </c>
-      <c r="M142" t="s">
+      <c r="V142" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="143" spans="9:13">
+    <row r="143" spans="9:22">
       <c r="I143" t="s">
         <v>421</v>
       </c>
-      <c r="M143" t="s">
+      <c r="V143" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="144" spans="9:13">
+    <row r="144" spans="9:22">
       <c r="I144" t="s">
         <v>422</v>
       </c>
-      <c r="M144" t="s">
+      <c r="V144" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="145" spans="9:13">
+    <row r="145" spans="9:22">
       <c r="I145" t="s">
         <v>423</v>
       </c>
-      <c r="M145" t="s">
+      <c r="V145" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="146" spans="9:13">
+    <row r="146" spans="9:22">
       <c r="I146" t="s">
         <v>424</v>
       </c>
-      <c r="M146" t="s">
+      <c r="V146" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="147" spans="9:13">
+    <row r="147" spans="9:22">
       <c r="I147" t="s">
         <v>425</v>
       </c>
-      <c r="M147" t="s">
+      <c r="V147" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="148" spans="9:13">
+    <row r="148" spans="9:22">
       <c r="I148" t="s">
         <v>426</v>
       </c>
-      <c r="M148" t="s">
+      <c r="V148" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="149" spans="9:13">
+    <row r="149" spans="9:22">
       <c r="I149" t="s">
         <v>427</v>
       </c>
-      <c r="M149" t="s">
+      <c r="V149" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="150" spans="9:13">
+    <row r="150" spans="9:22">
       <c r="I150" t="s">
         <v>428</v>
       </c>
-      <c r="M150" t="s">
+      <c r="V150" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="151" spans="9:13">
+    <row r="151" spans="9:22">
       <c r="I151" t="s">
         <v>429</v>
       </c>
-      <c r="M151" t="s">
+      <c r="V151" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="152" spans="9:13">
+    <row r="152" spans="9:22">
       <c r="I152" t="s">
         <v>430</v>
       </c>
-      <c r="M152" t="s">
+      <c r="V152" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="9:13">
+    <row r="153" spans="9:22">
       <c r="I153" t="s">
         <v>431</v>
       </c>
-      <c r="M153" t="s">
+      <c r="V153" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="154" spans="9:13">
+    <row r="154" spans="9:22">
       <c r="I154" t="s">
         <v>432</v>
       </c>
-      <c r="M154" t="s">
+      <c r="V154" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="155" spans="9:13">
+    <row r="155" spans="9:22">
       <c r="I155" t="s">
         <v>433</v>
       </c>
-      <c r="M155" t="s">
+      <c r="V155" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="156" spans="9:13">
+    <row r="156" spans="9:22">
       <c r="I156" t="s">
         <v>434</v>
       </c>
-      <c r="M156" t="s">
+      <c r="V156" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="157" spans="9:13">
+    <row r="157" spans="9:22">
       <c r="I157" t="s">
         <v>435</v>
       </c>
-      <c r="M157" t="s">
+      <c r="V157" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="158" spans="9:13">
+    <row r="158" spans="9:22">
       <c r="I158" t="s">
         <v>436</v>
       </c>
-      <c r="M158" t="s">
+      <c r="V158" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="159" spans="9:13">
+    <row r="159" spans="9:22">
       <c r="I159" t="s">
         <v>437</v>
       </c>
-      <c r="M159" t="s">
+      <c r="V159" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="160" spans="9:13">
+    <row r="160" spans="9:22">
       <c r="I160" t="s">
         <v>438</v>
       </c>
-      <c r="M160" t="s">
+      <c r="V160" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="161" spans="9:13">
+    <row r="161" spans="9:22">
       <c r="I161" t="s">
         <v>439</v>
       </c>
-      <c r="M161" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="162" spans="9:13">
+      <c r="V161" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="162" spans="9:22">
       <c r="I162" t="s">
         <v>440</v>
       </c>
-      <c r="M162" t="s">
+      <c r="V162" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="163" spans="9:13">
+    <row r="163" spans="9:22">
       <c r="I163" t="s">
         <v>441</v>
       </c>
-      <c r="M163" t="s">
+      <c r="V163" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="164" spans="9:13">
+    <row r="164" spans="9:22">
       <c r="I164" t="s">
         <v>442</v>
       </c>
-      <c r="M164" t="s">
+      <c r="V164" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="165" spans="9:13">
+    <row r="165" spans="9:22">
       <c r="I165" t="s">
         <v>443</v>
       </c>
-      <c r="M165" t="s">
+      <c r="V165" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="166" spans="9:13">
+    <row r="166" spans="9:22">
       <c r="I166" t="s">
         <v>444</v>
       </c>
-      <c r="M166" t="s">
+      <c r="V166" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="167" spans="9:13">
+    <row r="167" spans="9:22">
       <c r="I167" t="s">
         <v>445</v>
       </c>
-      <c r="M167" t="s">
+      <c r="V167" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="168" spans="9:13">
+    <row r="168" spans="9:22">
       <c r="I168" t="s">
         <v>446</v>
       </c>
-      <c r="M168" t="s">
+      <c r="V168" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="169" spans="9:13">
+    <row r="169" spans="9:22">
       <c r="I169" t="s">
         <v>447</v>
       </c>
-      <c r="M169" t="s">
+      <c r="V169" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="170" spans="9:13">
+    <row r="170" spans="9:22">
       <c r="I170" t="s">
         <v>448</v>
       </c>
-      <c r="M170" t="s">
+      <c r="V170" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="171" spans="9:13">
+    <row r="171" spans="9:22">
       <c r="I171" t="s">
         <v>449</v>
       </c>
-      <c r="M171" t="s">
+      <c r="V171" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="9:13">
+    <row r="172" spans="9:22">
       <c r="I172" t="s">
         <v>450</v>
       </c>
-      <c r="M172" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="173" spans="9:13">
+      <c r="V172" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="173" spans="9:22">
       <c r="I173" t="s">
         <v>451</v>
       </c>
-      <c r="M173" t="s">
+      <c r="V173" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="174" spans="9:13">
+    <row r="174" spans="9:22">
       <c r="I174" t="s">
         <v>452</v>
       </c>
-      <c r="M174" t="s">
+      <c r="V174" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="175" spans="9:13">
+    <row r="175" spans="9:22">
       <c r="I175" t="s">
         <v>453</v>
       </c>
-      <c r="M175" t="s">
+      <c r="V175" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="176" spans="9:13">
+    <row r="176" spans="9:22">
       <c r="I176" t="s">
         <v>454</v>
       </c>
-      <c r="M176" t="s">
+      <c r="V176" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="177" spans="9:13">
+    <row r="177" spans="9:22">
       <c r="I177" t="s">
         <v>455</v>
       </c>
-      <c r="M177" t="s">
+      <c r="V177" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="178" spans="9:13">
+    <row r="178" spans="9:22">
       <c r="I178" t="s">
         <v>456</v>
       </c>
-      <c r="M178" t="s">
+      <c r="V178" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="179" spans="9:13">
+    <row r="179" spans="9:22">
       <c r="I179" t="s">
         <v>457</v>
       </c>
-      <c r="M179" t="s">
+      <c r="V179" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="180" spans="9:13">
+    <row r="180" spans="9:22">
       <c r="I180" t="s">
         <v>458</v>
       </c>
-      <c r="M180" t="s">
+      <c r="V180" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="181" spans="9:13">
+    <row r="181" spans="9:22">
       <c r="I181" t="s">
         <v>459</v>
       </c>
-      <c r="M181" t="s">
+      <c r="V181" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="182" spans="9:13">
+    <row r="182" spans="9:22">
       <c r="I182" t="s">
         <v>460</v>
       </c>
-      <c r="M182" t="s">
+      <c r="V182" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="183" spans="9:13">
+    <row r="183" spans="9:22">
       <c r="I183" t="s">
         <v>461</v>
       </c>
-      <c r="M183" t="s">
+      <c r="V183" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="184" spans="9:13">
+    <row r="184" spans="9:22">
       <c r="I184" t="s">
         <v>462</v>
       </c>
-      <c r="M184" t="s">
+      <c r="V184" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="185" spans="9:13">
+    <row r="185" spans="9:22">
       <c r="I185" t="s">
         <v>463</v>
       </c>
-      <c r="M185" t="s">
+      <c r="V185" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="186" spans="9:13">
+    <row r="186" spans="9:22">
       <c r="I186" t="s">
         <v>464</v>
       </c>
-      <c r="M186" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="187" spans="9:13">
+      <c r="V186" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="187" spans="9:22">
       <c r="I187" t="s">
         <v>465</v>
       </c>
-      <c r="M187" t="s">
+      <c r="V187" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="9:13">
+    <row r="188" spans="9:22">
       <c r="I188" t="s">
         <v>466</v>
       </c>
-      <c r="M188" t="s">
+      <c r="V188" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="189" spans="9:13">
+    <row r="189" spans="9:22">
       <c r="I189" t="s">
         <v>467</v>
       </c>
-      <c r="M189" t="s">
+      <c r="V189" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="190" spans="9:13">
+    <row r="190" spans="9:22">
       <c r="I190" t="s">
         <v>468</v>
       </c>
-      <c r="M190" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="191" spans="9:13">
+      <c r="V190" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="191" spans="9:22">
       <c r="I191" t="s">
         <v>469</v>
       </c>
-      <c r="M191" t="s">
+      <c r="V191" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="192" spans="9:13">
+    <row r="192" spans="9:22">
       <c r="I192" t="s">
         <v>470</v>
       </c>
-      <c r="M192" t="s">
+      <c r="V192" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="193" spans="9:13">
+    <row r="193" spans="9:22">
       <c r="I193" t="s">
         <v>471</v>
       </c>
-      <c r="M193" t="s">
+      <c r="V193" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="194" spans="9:13">
+    <row r="194" spans="9:22">
       <c r="I194" t="s">
         <v>472</v>
       </c>
-      <c r="M194" t="s">
+      <c r="V194" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="195" spans="9:13">
+    <row r="195" spans="9:22">
       <c r="I195" t="s">
         <v>473</v>
       </c>
-      <c r="M195" t="s">
+      <c r="V195" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="9:13">
+    <row r="196" spans="9:22">
       <c r="I196" t="s">
         <v>474</v>
       </c>
-      <c r="M196" t="s">
+      <c r="V196" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="197" spans="9:13">
+    <row r="197" spans="9:22">
       <c r="I197" t="s">
         <v>475</v>
       </c>
-      <c r="M197" t="s">
+      <c r="V197" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="198" spans="9:13">
+    <row r="198" spans="9:22">
       <c r="I198" t="s">
         <v>476</v>
       </c>
-      <c r="M198" t="s">
+      <c r="V198" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="9:13">
+    <row r="199" spans="9:22">
       <c r="I199" t="s">
         <v>477</v>
       </c>
-      <c r="M199" t="s">
+      <c r="V199" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="200" spans="9:13">
+    <row r="200" spans="9:22">
       <c r="I200" t="s">
         <v>478</v>
       </c>
-      <c r="M200" t="s">
+      <c r="V200" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="201" spans="9:13">
+    <row r="201" spans="9:22">
       <c r="I201" t="s">
         <v>479</v>
       </c>
-      <c r="M201" t="s">
+      <c r="V201" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="202" spans="9:13">
+    <row r="202" spans="9:22">
       <c r="I202" t="s">
         <v>480</v>
       </c>
-      <c r="M202" t="s">
+      <c r="V202" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="203" spans="9:13">
+    <row r="203" spans="9:22">
       <c r="I203" t="s">
         <v>481</v>
       </c>
-      <c r="M203" t="s">
+      <c r="V203" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="204" spans="9:13">
+    <row r="204" spans="9:22">
       <c r="I204" t="s">
         <v>482</v>
       </c>
-      <c r="M204" t="s">
+      <c r="V204" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="205" spans="9:13">
+    <row r="205" spans="9:22">
       <c r="I205" t="s">
         <v>483</v>
       </c>
-      <c r="M205" t="s">
+      <c r="V205" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="206" spans="9:13">
+    <row r="206" spans="9:22">
       <c r="I206" t="s">
         <v>484</v>
       </c>
-      <c r="M206" t="s">
+      <c r="V206" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="207" spans="9:13">
+    <row r="207" spans="9:22">
       <c r="I207" t="s">
         <v>485</v>
       </c>
-      <c r="M207" t="s">
+      <c r="V207" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="208" spans="9:13">
+    <row r="208" spans="9:22">
       <c r="I208" t="s">
         <v>486</v>
       </c>
-      <c r="M208" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="209" spans="9:13">
+      <c r="V208" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="209" spans="9:22">
       <c r="I209" t="s">
         <v>487</v>
       </c>
-      <c r="M209" t="s">
+      <c r="V209" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="210" spans="9:13">
+    <row r="210" spans="9:22">
       <c r="I210" t="s">
         <v>488</v>
       </c>
-      <c r="M210" t="s">
+      <c r="V210" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="211" spans="9:13">
+    <row r="211" spans="9:22">
       <c r="I211" t="s">
         <v>489</v>
       </c>
-      <c r="M211" t="s">
+      <c r="V211" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="212" spans="9:13">
+    <row r="212" spans="9:22">
       <c r="I212" t="s">
         <v>490</v>
       </c>
-      <c r="M212" t="s">
+      <c r="V212" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="213" spans="9:13">
+    <row r="213" spans="9:22">
       <c r="I213" t="s">
         <v>491</v>
       </c>
-      <c r="M213" t="s">
+      <c r="V213" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="214" spans="9:13">
+    <row r="214" spans="9:22">
       <c r="I214" t="s">
         <v>492</v>
       </c>
-      <c r="M214" t="s">
+      <c r="V214" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="215" spans="9:13">
+    <row r="215" spans="9:22">
       <c r="I215" t="s">
         <v>493</v>
       </c>
-      <c r="M215" t="s">
+      <c r="V215" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="216" spans="9:13">
+    <row r="216" spans="9:22">
       <c r="I216" t="s">
         <v>494</v>
       </c>
-      <c r="M216" t="s">
+      <c r="V216" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="217" spans="9:13">
+    <row r="217" spans="9:22">
       <c r="I217" t="s">
         <v>495</v>
       </c>
-      <c r="M217" t="s">
+      <c r="V217" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="218" spans="9:13">
+    <row r="218" spans="9:22">
       <c r="I218" t="s">
         <v>496</v>
       </c>
-      <c r="M218" t="s">
+      <c r="V218" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="219" spans="9:13">
+    <row r="219" spans="9:22">
       <c r="I219" t="s">
         <v>497</v>
       </c>
-      <c r="M219" t="s">
+      <c r="V219" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="220" spans="9:13">
+    <row r="220" spans="9:22">
       <c r="I220" t="s">
         <v>498</v>
       </c>
-      <c r="M220" t="s">
+      <c r="V220" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="221" spans="9:13">
+    <row r="221" spans="9:22">
       <c r="I221" t="s">
         <v>499</v>
       </c>
-      <c r="M221" t="s">
+      <c r="V221" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="222" spans="9:13">
+    <row r="222" spans="9:22">
       <c r="I222" t="s">
         <v>500</v>
       </c>
-      <c r="M222" t="s">
+      <c r="V222" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="223" spans="9:13">
+    <row r="223" spans="9:22">
       <c r="I223" t="s">
         <v>501</v>
       </c>
-      <c r="M223" t="s">
+      <c r="V223" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="224" spans="9:13">
+    <row r="224" spans="9:22">
       <c r="I224" t="s">
         <v>502</v>
       </c>
-      <c r="M224" t="s">
+      <c r="V224" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="225" spans="9:13">
+    <row r="225" spans="9:22">
       <c r="I225" t="s">
         <v>503</v>
       </c>
-      <c r="M225" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="226" spans="9:13">
+      <c r="V225" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="226" spans="9:22">
       <c r="I226" t="s">
         <v>504</v>
       </c>
-      <c r="M226" t="s">
+      <c r="V226" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="227" spans="9:13">
+    <row r="227" spans="9:22">
       <c r="I227" t="s">
         <v>505</v>
       </c>
-      <c r="M227" t="s">
+      <c r="V227" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="228" spans="9:13">
+    <row r="228" spans="9:22">
       <c r="I228" t="s">
         <v>506</v>
       </c>
-      <c r="M228" t="s">
+      <c r="V228" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="229" spans="9:13">
+    <row r="229" spans="9:22">
       <c r="I229" t="s">
         <v>507</v>
       </c>
-      <c r="M229" t="s">
+      <c r="V229" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="230" spans="9:13">
+    <row r="230" spans="9:22">
       <c r="I230" t="s">
         <v>508</v>
       </c>
-      <c r="M230" t="s">
+      <c r="V230" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="231" spans="9:13">
+    <row r="231" spans="9:22">
       <c r="I231" t="s">
         <v>509</v>
       </c>
-      <c r="M231" t="s">
+      <c r="V231" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="232" spans="9:13">
+    <row r="232" spans="9:22">
       <c r="I232" t="s">
         <v>510</v>
       </c>
-      <c r="M232" t="s">
+      <c r="V232" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="233" spans="9:13">
+    <row r="233" spans="9:22">
       <c r="I233" t="s">
         <v>511</v>
       </c>
-      <c r="M233" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="234" spans="9:13">
+      <c r="V233" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="234" spans="9:22">
       <c r="I234" t="s">
         <v>512</v>
       </c>
-      <c r="M234" t="s">
+      <c r="V234" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="235" spans="9:13">
+    <row r="235" spans="9:22">
       <c r="I235" t="s">
         <v>513</v>
       </c>
-      <c r="M235" t="s">
+      <c r="V235" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="236" spans="9:13">
+    <row r="236" spans="9:22">
       <c r="I236" t="s">
         <v>514</v>
       </c>
-      <c r="M236" t="s">
+      <c r="V236" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="237" spans="9:13">
+    <row r="237" spans="9:22">
       <c r="I237" t="s">
         <v>515</v>
       </c>
-      <c r="M237" t="s">
+      <c r="V237" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="238" spans="9:13">
+    <row r="238" spans="9:22">
       <c r="I238" t="s">
         <v>516</v>
       </c>
-      <c r="M238" t="s">
+      <c r="V238" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="239" spans="9:13">
+    <row r="239" spans="9:22">
       <c r="I239" t="s">
         <v>517</v>
       </c>
-      <c r="M239" t="s">
+      <c r="V239" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="240" spans="9:13">
+    <row r="240" spans="9:22">
       <c r="I240" t="s">
         <v>518</v>
       </c>
-      <c r="M240" t="s">
+      <c r="V240" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="241" spans="9:13">
+    <row r="241" spans="9:22">
       <c r="I241" t="s">
         <v>519</v>
       </c>
-      <c r="M241" t="s">
+      <c r="V241" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="242" spans="9:13">
+    <row r="242" spans="9:22">
       <c r="I242" t="s">
         <v>520</v>
       </c>
-      <c r="M242" t="s">
+      <c r="V242" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="243" spans="9:13">
+    <row r="243" spans="9:22">
       <c r="I243" t="s">
         <v>521</v>
       </c>
-      <c r="M243" t="s">
+      <c r="V243" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="244" spans="9:13">
+    <row r="244" spans="9:22">
       <c r="I244" t="s">
         <v>522</v>
       </c>
-      <c r="M244" t="s">
+      <c r="V244" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="245" spans="9:13">
+    <row r="245" spans="9:22">
       <c r="I245" t="s">
         <v>523</v>
       </c>
-      <c r="M245" t="s">
+      <c r="V245" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="246" spans="9:13">
+    <row r="246" spans="9:22">
       <c r="I246" t="s">
         <v>524</v>
       </c>
-      <c r="M246" t="s">
+      <c r="V246" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="247" spans="9:13">
+    <row r="247" spans="9:22">
       <c r="I247" t="s">
         <v>525</v>
       </c>
-      <c r="M247" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="248" spans="9:13">
+      <c r="V247" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="248" spans="9:22">
       <c r="I248" t="s">
         <v>526</v>
       </c>
-      <c r="M248" t="s">
+      <c r="V248" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="249" spans="9:13">
+    <row r="249" spans="9:22">
       <c r="I249" t="s">
         <v>527</v>
       </c>
-      <c r="M249" t="s">
+      <c r="V249" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="250" spans="9:13">
+    <row r="250" spans="9:22">
       <c r="I250" t="s">
         <v>528</v>
       </c>
-      <c r="M250" t="s">
+      <c r="V250" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="251" spans="9:13">
+    <row r="251" spans="9:22">
       <c r="I251" t="s">
         <v>529</v>
       </c>
-      <c r="M251" t="s">
+      <c r="V251" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="252" spans="9:13">
+    <row r="252" spans="9:22">
       <c r="I252" t="s">
         <v>530</v>
       </c>
-      <c r="M252" t="s">
+      <c r="V252" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="253" spans="9:13">
+    <row r="253" spans="9:22">
       <c r="I253" t="s">
         <v>531</v>
       </c>
-      <c r="M253" t="s">
+      <c r="V253" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="254" spans="9:13">
+    <row r="254" spans="9:22">
       <c r="I254" t="s">
         <v>532</v>
       </c>
-      <c r="M254" t="s">
+      <c r="V254" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="255" spans="9:13">
+    <row r="255" spans="9:22">
       <c r="I255" t="s">
         <v>533</v>
       </c>
-      <c r="M255" t="s">
+      <c r="V255" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="256" spans="9:13">
+    <row r="256" spans="9:22">
       <c r="I256" t="s">
         <v>534</v>
       </c>
-      <c r="M256" t="s">
+      <c r="V256" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="257" spans="9:13">
+    <row r="257" spans="9:22">
       <c r="I257" t="s">
         <v>535</v>
       </c>
-      <c r="M257" t="s">
+      <c r="V257" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="258" spans="9:13">
+    <row r="258" spans="9:22">
       <c r="I258" t="s">
         <v>536</v>
       </c>
-      <c r="M258" t="s">
+      <c r="V258" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="259" spans="9:13">
+    <row r="259" spans="9:22">
       <c r="I259" t="s">
         <v>537</v>
       </c>
-      <c r="M259" t="s">
+      <c r="V259" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="260" spans="9:13">
+    <row r="260" spans="9:22">
       <c r="I260" t="s">
         <v>538</v>
       </c>
-      <c r="M260" t="s">
+      <c r="V260" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="261" spans="9:13">
+    <row r="261" spans="9:22">
       <c r="I261" t="s">
         <v>539</v>
       </c>
-      <c r="M261" t="s">
+      <c r="V261" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="262" spans="9:13">
+    <row r="262" spans="9:22">
       <c r="I262" t="s">
         <v>540</v>
       </c>
-      <c r="M262" t="s">
+      <c r="V262" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="263" spans="9:13">
+    <row r="263" spans="9:22">
       <c r="I263" t="s">
         <v>541</v>
       </c>
-      <c r="M263" t="s">
+      <c r="V263" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="264" spans="9:13">
+    <row r="264" spans="9:22">
       <c r="I264" t="s">
         <v>542</v>
       </c>
-      <c r="M264" t="s">
+      <c r="V264" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="265" spans="9:13">
+    <row r="265" spans="9:22">
       <c r="I265" t="s">
         <v>543</v>
       </c>
-      <c r="M265" t="s">
+      <c r="V265" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="266" spans="9:13">
+    <row r="266" spans="9:22">
       <c r="I266" t="s">
         <v>544</v>
       </c>
-      <c r="M266" t="s">
+      <c r="V266" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="267" spans="9:13">
+    <row r="267" spans="9:22">
       <c r="I267" t="s">
         <v>545</v>
       </c>
-      <c r="M267" t="s">
+      <c r="V267" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="268" spans="9:13">
+    <row r="268" spans="9:22">
       <c r="I268" t="s">
         <v>546</v>
       </c>
-      <c r="M268" t="s">
+      <c r="V268" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="269" spans="9:13">
+    <row r="269" spans="9:22">
       <c r="I269" t="s">
         <v>547</v>
       </c>
-      <c r="M269" t="s">
+      <c r="V269" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="270" spans="9:13">
+    <row r="270" spans="9:22">
       <c r="I270" t="s">
         <v>548</v>
       </c>
-      <c r="M270" t="s">
+      <c r="V270" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="271" spans="9:13">
+    <row r="271" spans="9:22">
       <c r="I271" t="s">
         <v>549</v>
       </c>
-      <c r="M271" t="s">
+      <c r="V271" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="272" spans="9:13">
+    <row r="272" spans="9:22">
       <c r="I272" t="s">
         <v>550</v>
       </c>
-      <c r="M272" t="s">
+      <c r="V272" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="273" spans="9:13">
+    <row r="273" spans="9:22">
       <c r="I273" t="s">
         <v>551</v>
       </c>
-      <c r="M273" t="s">
+      <c r="V273" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="274" spans="9:13">
-      <c r="M274" t="s">
+    <row r="274" spans="9:22">
+      <c r="V274" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="275" spans="9:13">
-      <c r="M275" t="s">
+    <row r="275" spans="9:22">
+      <c r="V275" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="276" spans="9:13">
-      <c r="M276" t="s">
+    <row r="276" spans="9:22">
+      <c r="V276" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="9:13">
-      <c r="M277" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="278" spans="9:13">
-      <c r="M278" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="279" spans="9:13">
-      <c r="M279" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="280" spans="9:13">
-      <c r="M280" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="281" spans="9:13">
-      <c r="M281" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="282" spans="9:13">
-      <c r="M282" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="283" spans="9:13">
-      <c r="M283" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="284" spans="9:13">
-      <c r="M284" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="285" spans="9:13">
-      <c r="M285" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="286" spans="9:13">
-      <c r="M286" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="287" spans="9:13">
-      <c r="M287" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="288" spans="9:13">
-      <c r="M288" t="s">
-        <v>589</v>
+    <row r="277" spans="9:22">
+      <c r="V277" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="278" spans="9:22">
+      <c r="V278" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="279" spans="9:22">
+      <c r="V279" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="280" spans="9:22">
+      <c r="V280" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="281" spans="9:22">
+      <c r="V281" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="282" spans="9:22">
+      <c r="V282" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="283" spans="9:22">
+      <c r="V283" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="284" spans="9:22">
+      <c r="V284" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="285" spans="9:22">
+      <c r="V285" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="286" spans="9:22">
+      <c r="V286" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="287" spans="9:22">
+      <c r="V287" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="288" spans="9:22">
+      <c r="V288" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="289" spans="22:22">
+      <c r="V289" t="s">
+        <v>610</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="971" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="679">
   <si>
     <t>alias</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2611,7 +2614,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2655,7 +2658,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2682,7 +2685,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3394,6 +3397,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3418,27 +3426,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3461,122 +3469,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3603,300 +3611,300 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -3943,253 +3951,253 @@
   <sheetData>
     <row r="1" spans="7:34">
       <c r="G1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="V1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="X1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AC1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AD1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AH1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="7:34">
       <c r="G2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="V2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AC2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AD2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AH2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="7:34">
       <c r="G3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="V3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AC3" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AD3" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="4" spans="7:34">
       <c r="I4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC4" t="s">
+        <v>601</v>
+      </c>
+      <c r="AD4" t="s">
         <v>600</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="5" spans="7:34">
       <c r="I5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC5" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD5" t="s">
         <v>601</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="6" spans="7:34">
       <c r="I6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC6" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD6" t="s">
         <v>602</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="7" spans="7:34">
       <c r="I7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC7" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD7" t="s">
         <v>603</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="8" spans="7:34">
       <c r="I8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC8" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD8" t="s">
         <v>604</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="9" spans="7:34">
       <c r="I9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC9" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD9" t="s">
         <v>605</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="10" spans="7:34">
       <c r="I10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AC10" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD10" t="s">
         <v>606</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="11" spans="7:34">
       <c r="I11" t="s">
+        <v>290</v>
+      </c>
+      <c r="V11" t="s">
         <v>289</v>
       </c>
-      <c r="V11" t="s">
-        <v>288</v>
-      </c>
       <c r="AC11" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD11" t="s">
         <v>607</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="12" spans="7:34">
       <c r="I12" t="s">
+        <v>291</v>
+      </c>
+      <c r="V12" t="s">
         <v>290</v>
       </c>
-      <c r="V12" t="s">
-        <v>289</v>
-      </c>
       <c r="AC12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="AD12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="13" spans="7:34">
       <c r="I13" t="s">
+        <v>292</v>
+      </c>
+      <c r="V13" t="s">
         <v>291</v>
       </c>
-      <c r="V13" t="s">
-        <v>290</v>
-      </c>
       <c r="AC13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD13" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14" spans="7:34">
       <c r="I14" t="s">
+        <v>293</v>
+      </c>
+      <c r="V14" t="s">
         <v>292</v>
       </c>
-      <c r="V14" t="s">
-        <v>291</v>
-      </c>
       <c r="AC14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD14" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="15" spans="7:34">
       <c r="I15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V15" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AD15" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="16" spans="7:34">
       <c r="I16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V16" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AD16" t="s">
         <v>116</v>
@@ -4197,2141 +4205,2141 @@
     </row>
     <row r="17" spans="9:30">
       <c r="I17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V17" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AD17" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="9:30">
       <c r="I18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="9:30">
       <c r="I19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="9:30">
       <c r="I20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V20" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="9:30">
       <c r="I21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="9:30">
       <c r="I22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="9:30">
       <c r="I23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V23" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="9:30">
       <c r="I24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V24" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="9:30">
       <c r="I25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V25" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="9:30">
       <c r="I26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V26" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="9:30">
       <c r="I27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="9:30">
       <c r="I28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V28" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="9:30">
       <c r="I29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V29" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="9:30">
       <c r="I30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V30" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="9:30">
       <c r="I31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="9:30">
       <c r="I32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V32" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="9:22">
       <c r="I33" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V33" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="9:22">
       <c r="I34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V34" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="9:22">
       <c r="I35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V35" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="9:22">
       <c r="I36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V36" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="9:22">
       <c r="I37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V37" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="9:22">
       <c r="I38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="V38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="9:22">
       <c r="I39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="V39" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="9:22">
       <c r="I40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V40" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="9:22">
       <c r="I41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V41" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="9:22">
       <c r="I42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V42" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="9:22">
       <c r="I43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V43" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="9:22">
       <c r="I44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="V44" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="9:22">
       <c r="I45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="V45" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="9:22">
       <c r="I46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V46" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="9:22">
       <c r="I47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V47" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="9:22">
       <c r="I48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V48" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="9:22">
       <c r="I49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V49" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="9:22">
       <c r="I50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V50" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="9:22">
       <c r="I51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V51" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="9:22">
       <c r="I52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="9:22">
       <c r="I53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V53" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="9:22">
       <c r="I54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V54" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="9:22">
       <c r="I55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V55" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="9:22">
       <c r="I56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="V56" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="9:22">
       <c r="I57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V57" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="9:22">
       <c r="I58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V58" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="9:22">
       <c r="I59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="9:22">
       <c r="I60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V60" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="9:22">
       <c r="I61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V61" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="9:22">
       <c r="I62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V62" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="9:22">
       <c r="I63" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V63" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="64" spans="9:22">
       <c r="I64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V64" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="9:22">
       <c r="I65" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V65" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" spans="9:22">
       <c r="I66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V66" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="67" spans="9:22">
       <c r="I67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V67" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="9:22">
       <c r="I68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V68" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="69" spans="9:22">
       <c r="I69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V69" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70" spans="9:22">
       <c r="I70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V70" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="71" spans="9:22">
       <c r="I71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V71" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="72" spans="9:22">
       <c r="I72" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V72" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="73" spans="9:22">
       <c r="I73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V73" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="9:22">
       <c r="I74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V74" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="9:22">
       <c r="I75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V75" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="9:22">
       <c r="I76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V76" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="9:22">
       <c r="I77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V77" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="9:22">
       <c r="I78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V78" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="9:22">
       <c r="I79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V79" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" spans="9:22">
       <c r="I80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V80" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="9:22">
       <c r="I81" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V81" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="82" spans="9:22">
       <c r="I82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V82" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="9:22">
       <c r="I83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V83" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="9:22">
       <c r="I84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="85" spans="9:22">
       <c r="I85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V85" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="86" spans="9:22">
       <c r="I86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V86" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="9:22">
       <c r="I87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="88" spans="9:22">
       <c r="I88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="V88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="9:22">
       <c r="I89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V89" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="90" spans="9:22">
       <c r="I90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V90" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="9:22">
       <c r="I91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V91" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="92" spans="9:22">
       <c r="I92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V92" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="93" spans="9:22">
       <c r="I93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="9:22">
       <c r="I94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V94" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="9:22">
       <c r="I95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V95" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="96" spans="9:22">
       <c r="I96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V96" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="9:22">
       <c r="I97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V97" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="98" spans="9:22">
       <c r="I98" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V98" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="9:22">
       <c r="I99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V99" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="9:22">
       <c r="I100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V100" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="101" spans="9:22">
       <c r="I101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V101" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="9:22">
       <c r="I102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V102" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="103" spans="9:22">
       <c r="I103" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V103" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="104" spans="9:22">
       <c r="I104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V104" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="105" spans="9:22">
       <c r="I105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V105" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="106" spans="9:22">
       <c r="I106" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V106" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="107" spans="9:22">
       <c r="I107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V107" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="108" spans="9:22">
       <c r="I108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V108" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="109" spans="9:22">
       <c r="I109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V109" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="110" spans="9:22">
       <c r="I110" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="V110" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="111" spans="9:22">
       <c r="I111" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V111" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="112" spans="9:22">
       <c r="I112" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V112" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="113" spans="9:22">
       <c r="I113" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V113" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="114" spans="9:22">
       <c r="I114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="V114" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="115" spans="9:22">
       <c r="I115" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V115" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="116" spans="9:22">
       <c r="I116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="V116" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="9:22">
       <c r="I117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V117" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="118" spans="9:22">
       <c r="I118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V118" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="119" spans="9:22">
       <c r="I119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="V119" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="120" spans="9:22">
       <c r="I120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="V120" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="121" spans="9:22">
       <c r="I121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="122" spans="9:22">
       <c r="I122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V122" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" spans="9:22">
       <c r="I123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V123" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="124" spans="9:22">
       <c r="I124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="V124" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="125" spans="9:22">
       <c r="I125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V125" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="126" spans="9:22">
       <c r="I126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="127" spans="9:22">
       <c r="I127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="V127" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="128" spans="9:22">
       <c r="I128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="V128" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="129" spans="9:22">
       <c r="I129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="V129" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="130" spans="9:22">
       <c r="I130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V130" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="9:22">
       <c r="I131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="V131" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="132" spans="9:22">
       <c r="I132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="V132" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="9:22">
       <c r="I133" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="V133" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="134" spans="9:22">
       <c r="I134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V134" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="135" spans="9:22">
       <c r="I135" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="V135" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="9:22">
       <c r="I136" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="V136" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="137" spans="9:22">
       <c r="I137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V137" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="138" spans="9:22">
       <c r="I138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V138" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="139" spans="9:22">
       <c r="I139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V139" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="9:22">
       <c r="I140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="141" spans="9:22">
       <c r="I141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V141" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="142" spans="9:22">
       <c r="I142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="143" spans="9:22">
       <c r="I143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V143" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="144" spans="9:22">
       <c r="I144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V144" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="9:22">
       <c r="I145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="146" spans="9:22">
       <c r="I146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="147" spans="9:22">
       <c r="I147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="V147" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="148" spans="9:22">
       <c r="I148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="V148" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="9:22">
       <c r="I149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V149" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="150" spans="9:22">
       <c r="I150" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="V150" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="151" spans="9:22">
       <c r="I151" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V151" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="152" spans="9:22">
       <c r="I152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V152" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="153" spans="9:22">
       <c r="I153" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V153" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="154" spans="9:22">
       <c r="I154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V154" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="155" spans="9:22">
       <c r="I155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V155" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="156" spans="9:22">
       <c r="I156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V156" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="157" spans="9:22">
       <c r="I157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V157" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="158" spans="9:22">
       <c r="I158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V158" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="159" spans="9:22">
       <c r="I159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V159" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="160" spans="9:22">
       <c r="I160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V160" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="161" spans="9:22">
       <c r="I161" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V161" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="162" spans="9:22">
       <c r="I162" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V162" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="163" spans="9:22">
       <c r="I163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V163" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="164" spans="9:22">
       <c r="I164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V164" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="165" spans="9:22">
       <c r="I165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V165" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="166" spans="9:22">
       <c r="I166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V166" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="167" spans="9:22">
       <c r="I167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V167" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="9:22">
       <c r="I168" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V168" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="9:22">
       <c r="I169" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V169" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="170" spans="9:22">
       <c r="I170" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="V170" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="171" spans="9:22">
       <c r="I171" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="V171" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172" spans="9:22">
       <c r="I172" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V172" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="173" spans="9:22">
       <c r="I173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V173" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="174" spans="9:22">
       <c r="I174" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V174" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="175" spans="9:22">
       <c r="I175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V175" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="176" spans="9:22">
       <c r="I176" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V176" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="177" spans="9:22">
       <c r="I177" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V177" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="178" spans="9:22">
       <c r="I178" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V178" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="179" spans="9:22">
       <c r="I179" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V179" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="180" spans="9:22">
       <c r="I180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V180" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="181" spans="9:22">
       <c r="I181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V181" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="182" spans="9:22">
       <c r="I182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="V182" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="183" spans="9:22">
       <c r="I183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V183" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="184" spans="9:22">
       <c r="I184" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V184" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="185" spans="9:22">
       <c r="I185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V185" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="186" spans="9:22">
       <c r="I186" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V186" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="187" spans="9:22">
       <c r="I187" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="V187" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="188" spans="9:22">
       <c r="I188" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="V188" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="189" spans="9:22">
       <c r="I189" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="V189" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="190" spans="9:22">
       <c r="I190" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="V190" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="191" spans="9:22">
       <c r="I191" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="V191" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="192" spans="9:22">
       <c r="I192" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="V192" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="193" spans="9:22">
       <c r="I193" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="V193" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="194" spans="9:22">
       <c r="I194" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V194" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="195" spans="9:22">
       <c r="I195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V195" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="196" spans="9:22">
       <c r="I196" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="V196" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="197" spans="9:22">
       <c r="I197" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="V197" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="198" spans="9:22">
       <c r="I198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="V198" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="199" spans="9:22">
       <c r="I199" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V199" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="200" spans="9:22">
       <c r="I200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="V200" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="201" spans="9:22">
       <c r="I201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V201" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="202" spans="9:22">
       <c r="I202" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="V202" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="9:22">
       <c r="I203" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="V203" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="9:22">
       <c r="I204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="V204" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="9:22">
       <c r="I205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="V205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="9:22">
       <c r="I206" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="V206" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="9:22">
       <c r="I207" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="V207" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="9:22">
       <c r="I208" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="V208" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="9:22">
       <c r="I209" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="V209" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="210" spans="9:22">
       <c r="I210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="V210" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="211" spans="9:22">
       <c r="I211" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="V211" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="212" spans="9:22">
       <c r="I212" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="V212" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="213" spans="9:22">
       <c r="I213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V213" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="9:22">
       <c r="I214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="V214" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="9:22">
       <c r="I215" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="V215" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="9:22">
       <c r="I216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="V216" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="9:22">
       <c r="I217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V217" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="9:22">
       <c r="I218" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V218" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="219" spans="9:22">
       <c r="I219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V219" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="220" spans="9:22">
       <c r="I220" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="V220" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="9:22">
       <c r="I221" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="V221" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="9:22">
       <c r="I222" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="V222" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="9:22">
       <c r="I223" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V223" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="9:22">
       <c r="I224" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="V224" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="9:22">
       <c r="I225" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="V225" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="226" spans="9:22">
       <c r="I226" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="V226" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="9:22">
       <c r="I227" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="V227" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="228" spans="9:22">
       <c r="I228" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="V228" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="9:22">
       <c r="I229" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V229" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="9:22">
       <c r="I230" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V230" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="9:22">
       <c r="I231" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V231" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="9:22">
       <c r="I232" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V232" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="233" spans="9:22">
       <c r="I233" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="V233" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="234" spans="9:22">
       <c r="I234" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="V234" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="235" spans="9:22">
       <c r="I235" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="V235" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="236" spans="9:22">
       <c r="I236" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="V236" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="9:22">
       <c r="I237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="V237" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="238" spans="9:22">
       <c r="I238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="V238" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="239" spans="9:22">
       <c r="I239" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="V239" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="240" spans="9:22">
       <c r="I240" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="V240" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="241" spans="9:22">
       <c r="I241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="V241" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="242" spans="9:22">
       <c r="I242" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="V242" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="9:22">
       <c r="I243" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="V243" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="244" spans="9:22">
       <c r="I244" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="V244" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="245" spans="9:22">
       <c r="I245" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="V245" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="246" spans="9:22">
       <c r="I246" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="V246" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="247" spans="9:22">
       <c r="I247" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V247" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="248" spans="9:22">
       <c r="I248" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="V248" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="9:22">
       <c r="I249" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V249" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="250" spans="9:22">
       <c r="I250" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="V250" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="251" spans="9:22">
       <c r="I251" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="V251" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="252" spans="9:22">
       <c r="I252" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="V252" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="253" spans="9:22">
       <c r="I253" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="V253" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="254" spans="9:22">
       <c r="I254" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V254" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="255" spans="9:22">
       <c r="I255" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V255" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="256" spans="9:22">
       <c r="I256" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="V256" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="257" spans="9:22">
       <c r="I257" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="V257" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="258" spans="9:22">
       <c r="I258" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="V258" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="259" spans="9:22">
       <c r="I259" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="V259" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="260" spans="9:22">
       <c r="I260" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="V260" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="261" spans="9:22">
       <c r="I261" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V261" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="262" spans="9:22">
       <c r="I262" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V262" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="263" spans="9:22">
       <c r="I263" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="V263" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="264" spans="9:22">
       <c r="I264" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V264" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="265" spans="9:22">
       <c r="I265" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V265" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="266" spans="9:22">
       <c r="I266" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="V266" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="267" spans="9:22">
       <c r="I267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="V267" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="268" spans="9:22">
       <c r="I268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="V268" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="9:22">
       <c r="I269" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="V269" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="270" spans="9:22">
       <c r="I270" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="V270" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="271" spans="9:22">
       <c r="I271" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="V271" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="272" spans="9:22">
       <c r="I272" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="V272" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="273" spans="9:22">
       <c r="I273" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="V273" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="274" spans="9:22">
       <c r="V274" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="275" spans="9:22">
       <c r="V275" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="276" spans="9:22">
       <c r="V276" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="277" spans="9:22">
       <c r="V277" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="278" spans="9:22">
       <c r="V278" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="279" spans="9:22">
       <c r="V279" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="280" spans="9:22">
       <c r="V280" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="281" spans="9:22">
       <c r="V281" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="282" spans="9:22">
       <c r="V282" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="283" spans="9:22">
       <c r="V283" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="284" spans="9:22">
       <c r="V284" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="285" spans="9:22">
       <c r="V285" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="286" spans="9:22">
       <c r="V286" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="287" spans="9:22">
       <c r="V287" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="288" spans="9:22">
       <c r="V288" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="289" spans="22:22">
       <c r="V289" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="679">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="680">
   <si>
     <t>alias</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2614,7 +2617,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2658,7 +2661,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2685,7 +2688,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3402,6 +3405,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3426,27 +3434,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3469,122 +3477,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3611,300 +3619,300 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -3951,253 +3959,253 @@
   <sheetData>
     <row r="1" spans="7:34">
       <c r="G1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="V1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="X1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AC1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AD1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AH1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2" spans="7:34">
       <c r="G2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="V2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AC2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AD2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AH2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="7:34">
       <c r="G3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="V3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AC3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AD3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="7:34">
       <c r="I4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC4" t="s">
+        <v>602</v>
+      </c>
+      <c r="AD4" t="s">
         <v>601</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="5" spans="7:34">
       <c r="I5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC5" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD5" t="s">
         <v>602</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="6" spans="7:34">
       <c r="I6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC6" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD6" t="s">
         <v>603</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="7" spans="7:34">
       <c r="I7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC7" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD7" t="s">
         <v>604</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="8" spans="7:34">
       <c r="I8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC8" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD8" t="s">
         <v>605</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="9" spans="7:34">
       <c r="I9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC9" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD9" t="s">
         <v>606</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="10" spans="7:34">
       <c r="I10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AC10" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD10" t="s">
         <v>607</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="11" spans="7:34">
       <c r="I11" t="s">
+        <v>291</v>
+      </c>
+      <c r="V11" t="s">
         <v>290</v>
       </c>
-      <c r="V11" t="s">
-        <v>289</v>
-      </c>
       <c r="AC11" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD11" t="s">
         <v>608</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="12" spans="7:34">
       <c r="I12" t="s">
+        <v>292</v>
+      </c>
+      <c r="V12" t="s">
         <v>291</v>
       </c>
-      <c r="V12" t="s">
-        <v>290</v>
-      </c>
       <c r="AC12" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AD12" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13" spans="7:34">
       <c r="I13" t="s">
+        <v>293</v>
+      </c>
+      <c r="V13" t="s">
         <v>292</v>
       </c>
-      <c r="V13" t="s">
-        <v>291</v>
-      </c>
       <c r="AC13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD13" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="7:34">
       <c r="I14" t="s">
+        <v>294</v>
+      </c>
+      <c r="V14" t="s">
         <v>293</v>
       </c>
-      <c r="V14" t="s">
-        <v>292</v>
-      </c>
       <c r="AC14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD14" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15" spans="7:34">
       <c r="I15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V15" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AD15" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="16" spans="7:34">
       <c r="I16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AD16" t="s">
         <v>116</v>
@@ -4205,2141 +4213,2141 @@
     </row>
     <row r="17" spans="9:30">
       <c r="I17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V17" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD17" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="18" spans="9:30">
       <c r="I18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="9:30">
       <c r="I19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V19" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="9:30">
       <c r="I20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V20" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="9:30">
       <c r="I21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V21" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="9:30">
       <c r="I22" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="23" spans="9:30">
       <c r="I23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V23" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="9:30">
       <c r="I24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="9:30">
       <c r="I25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V25" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="9:30">
       <c r="I26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V26" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="9:30">
       <c r="I27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="9:30">
       <c r="I28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V28" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="9:30">
       <c r="I29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V29" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="9:30">
       <c r="I30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V30" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="9:30">
       <c r="I31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="9:30">
       <c r="I32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V32" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="33" spans="9:22">
       <c r="I33" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="9:22">
       <c r="I34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V34" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="9:22">
       <c r="I35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V35" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="9:22">
       <c r="I36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V36" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="9:22">
       <c r="I37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="V37" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="9:22">
       <c r="I38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="V38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="9:22">
       <c r="I39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V39" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="9:22">
       <c r="I40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V40" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="9:22">
       <c r="I41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V41" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="9:22">
       <c r="I42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V42" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="9:22">
       <c r="I43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="V43" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="9:22">
       <c r="I44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="V44" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="9:22">
       <c r="I45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V45" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="46" spans="9:22">
       <c r="I46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V46" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47" spans="9:22">
       <c r="I47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V47" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="48" spans="9:22">
       <c r="I48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="9:22">
       <c r="I49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V49" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="9:22">
       <c r="I50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V50" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" spans="9:22">
       <c r="I51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V51" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="52" spans="9:22">
       <c r="I52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53" spans="9:22">
       <c r="I53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V53" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="9:22">
       <c r="I54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V54" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="55" spans="9:22">
       <c r="I55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="V55" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="9:22">
       <c r="I56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V56" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57" spans="9:22">
       <c r="I57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V57" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="58" spans="9:22">
       <c r="I58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V58" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="59" spans="9:22">
       <c r="I59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V59" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="9:22">
       <c r="I60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V60" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="61" spans="9:22">
       <c r="I61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V61" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="9:22">
       <c r="I62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V62" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="63" spans="9:22">
       <c r="I63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V63" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="9:22">
       <c r="I64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V64" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="65" spans="9:22">
       <c r="I65" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V65" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="66" spans="9:22">
       <c r="I66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V66" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="9:22">
       <c r="I67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V67" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="9:22">
       <c r="I68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V68" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="9:22">
       <c r="I69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V69" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="9:22">
       <c r="I70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V70" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="9:22">
       <c r="I71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V71" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="72" spans="9:22">
       <c r="I72" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V72" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="73" spans="9:22">
       <c r="I73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V73" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="9:22">
       <c r="I74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="9:22">
       <c r="I75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V75" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="9:22">
       <c r="I76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V76" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="9:22">
       <c r="I77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V77" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="9:22">
       <c r="I78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V78" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="9:22">
       <c r="I79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V79" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="9:22">
       <c r="I80" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V80" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="81" spans="9:22">
       <c r="I81" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V81" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="82" spans="9:22">
       <c r="I82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="83" spans="9:22">
       <c r="I83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="9:22">
       <c r="I84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V84" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="85" spans="9:22">
       <c r="I85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V85" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="9:22">
       <c r="I86" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V86" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="9:22">
       <c r="I87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="V87" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="9:22">
       <c r="I88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V88" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="89" spans="9:22">
       <c r="I89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V89" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="9:22">
       <c r="I90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V90" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="9:22">
       <c r="I91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V91" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="9:22">
       <c r="I92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V92" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="9:22">
       <c r="I93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="9:22">
       <c r="I94" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V94" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="9:22">
       <c r="I95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V95" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="9:22">
       <c r="I96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V96" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="9:22">
       <c r="I97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V97" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="9:22">
       <c r="I98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V98" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="9:22">
       <c r="I99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V99" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="9:22">
       <c r="I100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V100" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="9:22">
       <c r="I101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V101" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="9:22">
       <c r="I102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V102" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="9:22">
       <c r="I103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V103" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="9:22">
       <c r="I104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V104" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="9:22">
       <c r="I105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V105" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="9:22">
       <c r="I106" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V106" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="9:22">
       <c r="I107" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V107" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="9:22">
       <c r="I108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V108" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="9:22">
       <c r="I109" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="V109" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="9:22">
       <c r="I110" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V110" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="9:22">
       <c r="I111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V111" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="9:22">
       <c r="I112" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V112" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="9:22">
       <c r="I113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="V113" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="9:22">
       <c r="I114" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V114" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="115" spans="9:22">
       <c r="I115" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="V115" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="116" spans="9:22">
       <c r="I116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V116" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="9:22">
       <c r="I117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V117" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="9:22">
       <c r="I118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="V118" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="9:22">
       <c r="I119" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="V119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="9:22">
       <c r="I120" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V120" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="9:22">
       <c r="I121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="9:22">
       <c r="I122" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="9:22">
       <c r="I123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="V123" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="9:22">
       <c r="I124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="9:22">
       <c r="I125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V125" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="9:22">
       <c r="I126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="V126" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="9:22">
       <c r="I127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="V127" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="9:22">
       <c r="I128" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="V128" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="9:22">
       <c r="I129" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V129" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="9:22">
       <c r="I130" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="V130" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="9:22">
       <c r="I131" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="V131" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="9:22">
       <c r="I132" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="V132" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="133" spans="9:22">
       <c r="I133" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V133" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="134" spans="9:22">
       <c r="I134" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="V134" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="9:22">
       <c r="I135" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="V135" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="9:22">
       <c r="I136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V136" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="9:22">
       <c r="I137" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V137" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="9:22">
       <c r="I138" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V138" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="9:22">
       <c r="I139" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="9:22">
       <c r="I140" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V140" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="9:22">
       <c r="I141" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="9:22">
       <c r="I142" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V142" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="9:22">
       <c r="I143" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V143" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="9:22">
       <c r="I144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V144" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="9:22">
       <c r="I145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V145" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="9:22">
       <c r="I146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="V146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="9:22">
       <c r="I147" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="V147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="9:22">
       <c r="I148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V148" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="9:22">
       <c r="I149" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="V149" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="9:22">
       <c r="I150" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V150" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="9:22">
       <c r="I151" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V151" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="9:22">
       <c r="I152" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V152" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="9:22">
       <c r="I153" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V153" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="9:22">
       <c r="I154" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V154" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="9:22">
       <c r="I155" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V155" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="9:22">
       <c r="I156" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V156" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="9:22">
       <c r="I157" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V157" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="9:22">
       <c r="I158" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V158" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="9:22">
       <c r="I159" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V159" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="9:22">
       <c r="I160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V160" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="161" spans="9:22">
       <c r="I161" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V161" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="162" spans="9:22">
       <c r="I162" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V162" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="9:22">
       <c r="I163" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V163" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="9:22">
       <c r="I164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V164" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="9:22">
       <c r="I165" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V165" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="9:22">
       <c r="I166" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V166" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="9:22">
       <c r="I167" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V167" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="9:22">
       <c r="I168" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V168" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="9:22">
       <c r="I169" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="V169" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="9:22">
       <c r="I170" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="V170" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="9:22">
       <c r="I171" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V171" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="172" spans="9:22">
       <c r="I172" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V172" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="173" spans="9:22">
       <c r="I173" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V173" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="9:22">
       <c r="I174" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V174" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="9:22">
       <c r="I175" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V175" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="9:22">
       <c r="I176" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V176" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="9:22">
       <c r="I177" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V177" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="9:22">
       <c r="I178" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V178" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="9:22">
       <c r="I179" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V179" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="9:22">
       <c r="I180" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V180" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="9:22">
       <c r="I181" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="V181" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="9:22">
       <c r="I182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V182" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="9:22">
       <c r="I183" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V183" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="9:22">
       <c r="I184" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V184" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="9:22">
       <c r="I185" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V185" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="186" spans="9:22">
       <c r="I186" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="V186" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="187" spans="9:22">
       <c r="I187" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="V187" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="9:22">
       <c r="I188" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="V188" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="9:22">
       <c r="I189" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="V189" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="190" spans="9:22">
       <c r="I190" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="V190" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="191" spans="9:22">
       <c r="I191" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="V191" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="9:22">
       <c r="I192" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="V192" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="9:22">
       <c r="I193" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V193" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="9:22">
       <c r="I194" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V194" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="9:22">
       <c r="I195" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="V195" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="9:22">
       <c r="I196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="V196" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="9:22">
       <c r="I197" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="V197" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="9:22">
       <c r="I198" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V198" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="9:22">
       <c r="I199" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="V199" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="9:22">
       <c r="I200" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V200" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="9:22">
       <c r="I201" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="V201" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="9:22">
       <c r="I202" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="V202" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="9:22">
       <c r="I203" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="V203" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="9:22">
       <c r="I204" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="V204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="9:22">
       <c r="I205" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="V205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="9:22">
       <c r="I206" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="V206" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="9:22">
       <c r="I207" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="V207" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="9:22">
       <c r="I208" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="V208" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="209" spans="9:22">
       <c r="I209" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="V209" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" spans="9:22">
       <c r="I210" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="V210" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="211" spans="9:22">
       <c r="I211" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="V211" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="9:22">
       <c r="I212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V212" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="9:22">
       <c r="I213" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="V213" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="9:22">
       <c r="I214" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="V214" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="9:22">
       <c r="I215" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="V215" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="9:22">
       <c r="I216" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V216" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="9:22">
       <c r="I217" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V217" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="9:22">
       <c r="I218" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V218" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="9:22">
       <c r="I219" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="V219" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="9:22">
       <c r="I220" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="V220" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="9:22">
       <c r="I221" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="V221" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="9:22">
       <c r="I222" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V222" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="9:22">
       <c r="I223" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="V223" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="9:22">
       <c r="I224" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="V224" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="9:22">
       <c r="I225" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="V225" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="9:22">
       <c r="I226" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="V226" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="9:22">
       <c r="I227" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="V227" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="9:22">
       <c r="I228" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V228" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="9:22">
       <c r="I229" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V229" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="9:22">
       <c r="I230" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V230" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="9:22">
       <c r="I231" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V231" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="9:22">
       <c r="I232" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="V232" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="233" spans="9:22">
       <c r="I233" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="V233" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="234" spans="9:22">
       <c r="I234" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="V234" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="9:22">
       <c r="I235" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="V235" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" spans="9:22">
       <c r="I236" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="V236" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="237" spans="9:22">
       <c r="I237" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="V237" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="238" spans="9:22">
       <c r="I238" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="V238" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="9:22">
       <c r="I239" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="V239" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240" spans="9:22">
       <c r="I240" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="V240" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="9:22">
       <c r="I241" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="V241" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242" spans="9:22">
       <c r="I242" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="V242" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="9:22">
       <c r="I243" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="V243" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="9:22">
       <c r="I244" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="V244" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="245" spans="9:22">
       <c r="I245" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="V245" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="9:22">
       <c r="I246" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V246" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="247" spans="9:22">
       <c r="I247" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="V247" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="248" spans="9:22">
       <c r="I248" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V248" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="249" spans="9:22">
       <c r="I249" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="V249" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="9:22">
       <c r="I250" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="V250" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="9:22">
       <c r="I251" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="V251" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="9:22">
       <c r="I252" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="V252" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="9:22">
       <c r="I253" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V253" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="9:22">
       <c r="I254" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V254" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="9:22">
       <c r="I255" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="V255" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256" spans="9:22">
       <c r="I256" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="V256" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="9:22">
       <c r="I257" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="V257" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258" spans="9:22">
       <c r="I258" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="V258" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="9:22">
       <c r="I259" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="V259" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="260" spans="9:22">
       <c r="I260" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V260" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="9:22">
       <c r="I261" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V261" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="9:22">
       <c r="I262" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="V262" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="9:22">
       <c r="I263" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V263" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="9:22">
       <c r="I264" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V264" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="9:22">
       <c r="I265" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="V265" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="266" spans="9:22">
       <c r="I266" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="V266" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="9:22">
       <c r="I267" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="V267" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="9:22">
       <c r="I268" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="V268" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="9:22">
       <c r="I269" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="V269" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="9:22">
       <c r="I270" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="V270" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="9:22">
       <c r="I271" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="V271" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="9:22">
       <c r="I272" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="V272" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="9:22">
       <c r="I273" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="V273" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="9:22">
       <c r="V274" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="9:22">
       <c r="V275" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="9:22">
       <c r="V276" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="277" spans="9:22">
       <c r="V277" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="278" spans="9:22">
       <c r="V278" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="279" spans="9:22">
       <c r="V279" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="280" spans="9:22">
       <c r="V280" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="281" spans="9:22">
       <c r="V281" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="282" spans="9:22">
       <c r="V282" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="283" spans="9:22">
       <c r="V283" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="284" spans="9:22">
       <c r="V284" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="285" spans="9:22">
       <c r="V285" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="286" spans="9:22">
       <c r="V286" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="287" spans="9:22">
       <c r="V287" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="288" spans="9:22">
       <c r="V288" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="289" spans="22:22">
       <c r="V289" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="681">
   <si>
     <t>alias</t>
   </si>
@@ -726,6 +726,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2617,7 +2620,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2661,7 +2664,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2688,7 +2691,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3410,6 +3413,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3434,27 +3442,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3477,122 +3485,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3619,300 +3627,300 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
   </sheetData>
@@ -3959,253 +3967,253 @@
   <sheetData>
     <row r="1" spans="7:34">
       <c r="G1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="S1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="V1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="X1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AC1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AD1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AH1" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2" spans="7:34">
       <c r="G2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="V2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AC2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AD2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AH2" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="3" spans="7:34">
       <c r="G3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="V3" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AC3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="AD3" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="7:34">
       <c r="I4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC4" t="s">
+        <v>603</v>
+      </c>
+      <c r="AD4" t="s">
         <v>602</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="5" spans="7:34">
       <c r="I5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC5" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD5" t="s">
         <v>603</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="6" spans="7:34">
       <c r="I6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC6" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD6" t="s">
         <v>604</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="7" spans="7:34">
       <c r="I7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC7" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD7" t="s">
         <v>605</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="8" spans="7:34">
       <c r="I8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC8" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD8" t="s">
         <v>606</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="9" spans="7:34">
       <c r="I9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC9" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD9" t="s">
         <v>607</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="10" spans="7:34">
       <c r="I10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AC10" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD10" t="s">
         <v>608</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="11" spans="7:34">
       <c r="I11" t="s">
+        <v>292</v>
+      </c>
+      <c r="V11" t="s">
         <v>291</v>
       </c>
-      <c r="V11" t="s">
-        <v>290</v>
-      </c>
       <c r="AC11" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD11" t="s">
         <v>609</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="12" spans="7:34">
       <c r="I12" t="s">
+        <v>293</v>
+      </c>
+      <c r="V12" t="s">
         <v>292</v>
       </c>
-      <c r="V12" t="s">
-        <v>291</v>
-      </c>
       <c r="AC12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AD12" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="13" spans="7:34">
       <c r="I13" t="s">
+        <v>294</v>
+      </c>
+      <c r="V13" t="s">
         <v>293</v>
       </c>
-      <c r="V13" t="s">
-        <v>292</v>
-      </c>
       <c r="AC13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD13" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14" spans="7:34">
       <c r="I14" t="s">
+        <v>295</v>
+      </c>
+      <c r="V14" t="s">
         <v>294</v>
       </c>
-      <c r="V14" t="s">
-        <v>293</v>
-      </c>
       <c r="AC14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD14" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="15" spans="7:34">
       <c r="I15" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V15" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AD15" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="7:34">
       <c r="I16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AD16" t="s">
         <v>116</v>
@@ -4213,2141 +4221,2141 @@
     </row>
     <row r="17" spans="9:30">
       <c r="I17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AD17" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="9:30">
       <c r="I18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="9:30">
       <c r="I19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="9:30">
       <c r="I20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="9:30">
       <c r="I21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="9:30">
       <c r="I22" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V22" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="23" spans="9:30">
       <c r="I23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V23" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="24" spans="9:30">
       <c r="I24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V24" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="9:30">
       <c r="I25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V25" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="26" spans="9:30">
       <c r="I26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V26" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="9:30">
       <c r="I27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="9:30">
       <c r="I28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V28" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="9:30">
       <c r="I29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V29" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="9:30">
       <c r="I30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V30" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="9:30">
       <c r="I31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="9:30">
       <c r="I32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V32" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="9:22">
       <c r="I33" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V33" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="34" spans="9:22">
       <c r="I34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V34" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="35" spans="9:22">
       <c r="I35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V35" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36" spans="9:22">
       <c r="I36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="V36" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="37" spans="9:22">
       <c r="I37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="V37" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38" spans="9:22">
       <c r="I38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="9:22">
       <c r="I39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V39" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" spans="9:22">
       <c r="I40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V40" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" spans="9:22">
       <c r="I41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V41" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="42" spans="9:22">
       <c r="I42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="V42" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="43" spans="9:22">
       <c r="I43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="V43" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="44" spans="9:22">
       <c r="I44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V44" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="9:22">
       <c r="I45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V45" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="46" spans="9:22">
       <c r="I46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V46" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="9:22">
       <c r="I47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V47" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="9:22">
       <c r="I48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="49" spans="9:22">
       <c r="I49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V49" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="50" spans="9:22">
       <c r="I50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V50" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" spans="9:22">
       <c r="I51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V51" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="52" spans="9:22">
       <c r="I52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V52" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="53" spans="9:22">
       <c r="I53" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V53" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="54" spans="9:22">
       <c r="I54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="V54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="55" spans="9:22">
       <c r="I55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V55" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="56" spans="9:22">
       <c r="I56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V56" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="57" spans="9:22">
       <c r="I57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V57" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58" spans="9:22">
       <c r="I58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V58" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="59" spans="9:22">
       <c r="I59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V59" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="60" spans="9:22">
       <c r="I60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V60" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" spans="9:22">
       <c r="I61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" spans="9:22">
       <c r="I62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V62" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="63" spans="9:22">
       <c r="I63" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V63" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="64" spans="9:22">
       <c r="I64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V64" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="9:22">
       <c r="I65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V65" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66" spans="9:22">
       <c r="I66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V66" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="9:22">
       <c r="I67" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V67" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="9:22">
       <c r="I68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V68" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="69" spans="9:22">
       <c r="I69" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V69" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="9:22">
       <c r="I70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V70" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="71" spans="9:22">
       <c r="I71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V71" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72" spans="9:22">
       <c r="I72" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V72" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="73" spans="9:22">
       <c r="I73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V73" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="74" spans="9:22">
       <c r="I74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75" spans="9:22">
       <c r="I75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V75" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="9:22">
       <c r="I76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V76" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="9:22">
       <c r="I77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V77" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="78" spans="9:22">
       <c r="I78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V78" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="79" spans="9:22">
       <c r="I79" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V79" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="80" spans="9:22">
       <c r="I80" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V80" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="81" spans="9:22">
       <c r="I81" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V81" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="82" spans="9:22">
       <c r="I82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="9:22">
       <c r="I83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V83" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="84" spans="9:22">
       <c r="I84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V84" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="9:22">
       <c r="I85" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V85" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="86" spans="9:22">
       <c r="I86" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="V86" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="87" spans="9:22">
       <c r="I87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V87" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="88" spans="9:22">
       <c r="I88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V88" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="9:22">
       <c r="I89" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V89" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="90" spans="9:22">
       <c r="I90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V90" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="91" spans="9:22">
       <c r="I91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V91" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="92" spans="9:22">
       <c r="I92" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V92" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="93" spans="9:22">
       <c r="I93" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V93" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="94" spans="9:22">
       <c r="I94" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="95" spans="9:22">
       <c r="I95" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V95" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="96" spans="9:22">
       <c r="I96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V96" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="9:22">
       <c r="I97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V97" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="9:22">
       <c r="I98" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V98" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="9:22">
       <c r="I99" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V99" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="100" spans="9:22">
       <c r="I100" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V100" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="101" spans="9:22">
       <c r="I101" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V101" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="9:22">
       <c r="I102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V102" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="103" spans="9:22">
       <c r="I103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V103" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="104" spans="9:22">
       <c r="I104" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V104" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="105" spans="9:22">
       <c r="I105" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V105" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106" spans="9:22">
       <c r="I106" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V106" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="107" spans="9:22">
       <c r="I107" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V107" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="108" spans="9:22">
       <c r="I108" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="V108" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109" spans="9:22">
       <c r="I109" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V109" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="110" spans="9:22">
       <c r="I110" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V110" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="111" spans="9:22">
       <c r="I111" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V111" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="112" spans="9:22">
       <c r="I112" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="V112" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="113" spans="9:22">
       <c r="I113" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V113" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="114" spans="9:22">
       <c r="I114" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="V114" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="115" spans="9:22">
       <c r="I115" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V115" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="116" spans="9:22">
       <c r="I116" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V116" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="117" spans="9:22">
       <c r="I117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="V117" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="118" spans="9:22">
       <c r="I118" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="V118" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="119" spans="9:22">
       <c r="I119" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="120" spans="9:22">
       <c r="I120" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V120" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="121" spans="9:22">
       <c r="I121" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V121" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="122" spans="9:22">
       <c r="I122" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="V122" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="123" spans="9:22">
       <c r="I123" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V123" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" spans="9:22">
       <c r="I124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V124" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="125" spans="9:22">
       <c r="I125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="V125" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="9:22">
       <c r="I126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="V126" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="127" spans="9:22">
       <c r="I127" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="V127" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="128" spans="9:22">
       <c r="I128" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V128" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="129" spans="9:22">
       <c r="I129" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="V129" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="9:22">
       <c r="I130" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="V130" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="131" spans="9:22">
       <c r="I131" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="V131" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="9:22">
       <c r="I132" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V132" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="9:22">
       <c r="I133" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="V133" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="9:22">
       <c r="I134" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="V134" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="9:22">
       <c r="I135" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V135" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="9:22">
       <c r="I136" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V136" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="137" spans="9:22">
       <c r="I137" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V137" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="138" spans="9:22">
       <c r="I138" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V138" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="139" spans="9:22">
       <c r="I139" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V139" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="140" spans="9:22">
       <c r="I140" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V140" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="141" spans="9:22">
       <c r="I141" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V141" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="142" spans="9:22">
       <c r="I142" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V142" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="9:22">
       <c r="I143" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V143" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="144" spans="9:22">
       <c r="I144" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V144" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="9:22">
       <c r="I145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="V145" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="146" spans="9:22">
       <c r="I146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="V146" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="147" spans="9:22">
       <c r="I147" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="9:22">
       <c r="I148" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="V148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="9:22">
       <c r="I149" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V149" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="9:22">
       <c r="I150" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V150" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="151" spans="9:22">
       <c r="I151" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V151" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="152" spans="9:22">
       <c r="I152" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V152" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="153" spans="9:22">
       <c r="I153" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V153" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="154" spans="9:22">
       <c r="I154" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V154" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="155" spans="9:22">
       <c r="I155" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V155" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="156" spans="9:22">
       <c r="I156" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V156" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="157" spans="9:22">
       <c r="I157" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V157" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="158" spans="9:22">
       <c r="I158" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V158" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="159" spans="9:22">
       <c r="I159" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V159" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="160" spans="9:22">
       <c r="I160" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V160" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="161" spans="9:22">
       <c r="I161" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V161" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="162" spans="9:22">
       <c r="I162" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V162" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="163" spans="9:22">
       <c r="I163" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V163" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164" spans="9:22">
       <c r="I164" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V164" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="165" spans="9:22">
       <c r="I165" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V165" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="9:22">
       <c r="I166" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V166" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="9:22">
       <c r="I167" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V167" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="168" spans="9:22">
       <c r="I168" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="V168" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="169" spans="9:22">
       <c r="I169" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="V169" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="170" spans="9:22">
       <c r="I170" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V170" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="171" spans="9:22">
       <c r="I171" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V171" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="172" spans="9:22">
       <c r="I172" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V172" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="173" spans="9:22">
       <c r="I173" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V173" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174" spans="9:22">
       <c r="I174" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V174" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="175" spans="9:22">
       <c r="I175" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V175" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="176" spans="9:22">
       <c r="I176" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V176" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="177" spans="9:22">
       <c r="I177" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V177" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="9:22">
       <c r="I178" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V178" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="179" spans="9:22">
       <c r="I179" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V179" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="180" spans="9:22">
       <c r="I180" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="V180" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="181" spans="9:22">
       <c r="I181" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V181" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="182" spans="9:22">
       <c r="I182" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V182" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="183" spans="9:22">
       <c r="I183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V183" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="9:22">
       <c r="I184" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V184" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="185" spans="9:22">
       <c r="I185" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="V185" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="186" spans="9:22">
       <c r="I186" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="V186" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="187" spans="9:22">
       <c r="I187" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="V187" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="188" spans="9:22">
       <c r="I188" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="V188" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="9:22">
       <c r="I189" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="V189" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="9:22">
       <c r="I190" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="V190" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="191" spans="9:22">
       <c r="I191" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="V191" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="192" spans="9:22">
       <c r="I192" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V192" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="9:22">
       <c r="I193" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V193" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="9:22">
       <c r="I194" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="V194" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" spans="9:22">
       <c r="I195" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="V195" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="9:22">
       <c r="I196" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="V196" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="9:22">
       <c r="I197" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V197" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="9:22">
       <c r="I198" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="V198" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="9:22">
       <c r="I199" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V199" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="9:22">
       <c r="I200" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="V200" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="9:22">
       <c r="I201" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="V201" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="9:22">
       <c r="I202" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="V202" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="9:22">
       <c r="I203" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="V203" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="9:22">
       <c r="I204" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="V204" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205" spans="9:22">
       <c r="I205" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="V205" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" spans="9:22">
       <c r="I206" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="V206" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" spans="9:22">
       <c r="I207" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="V207" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" spans="9:22">
       <c r="I208" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="V208" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="209" spans="9:22">
       <c r="I209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="V209" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="9:22">
       <c r="I210" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="V210" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="9:22">
       <c r="I211" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="9:22">
       <c r="I212" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="V212" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" spans="9:22">
       <c r="I213" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="V213" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="214" spans="9:22">
       <c r="I214" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="V214" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="9:22">
       <c r="I215" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V215" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="9:22">
       <c r="I216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V216" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="217" spans="9:22">
       <c r="I217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V217" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="9:22">
       <c r="I218" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="V218" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="219" spans="9:22">
       <c r="I219" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="V219" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="9:22">
       <c r="I220" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="V220" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="221" spans="9:22">
       <c r="I221" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V221" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="9:22">
       <c r="I222" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="V222" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="9:22">
       <c r="I223" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="V223" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="9:22">
       <c r="I224" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="V224" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="225" spans="9:22">
       <c r="I225" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="V225" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="226" spans="9:22">
       <c r="I226" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="V226" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="227" spans="9:22">
       <c r="I227" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V227" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="9:22">
       <c r="I228" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V228" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="9:22">
       <c r="I229" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V229" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="9:22">
       <c r="I230" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V230" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="231" spans="9:22">
       <c r="I231" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="V231" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="232" spans="9:22">
       <c r="I232" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="V232" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="233" spans="9:22">
       <c r="I233" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="V233" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="234" spans="9:22">
       <c r="I234" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="V234" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="235" spans="9:22">
       <c r="I235" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="V235" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="236" spans="9:22">
       <c r="I236" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="V236" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="237" spans="9:22">
       <c r="I237" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="V237" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="238" spans="9:22">
       <c r="I238" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="V238" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="9:22">
       <c r="I239" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="V239" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="9:22">
       <c r="I240" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="V240" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="9:22">
       <c r="I241" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="V241" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="9:22">
       <c r="I242" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="V242" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="9:22">
       <c r="I243" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="V243" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="9:22">
       <c r="I244" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="V244" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="9:22">
       <c r="I245" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V245" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="246" spans="9:22">
       <c r="I246" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="V246" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="247" spans="9:22">
       <c r="I247" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V247" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="248" spans="9:22">
       <c r="I248" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="V248" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="9:22">
       <c r="I249" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="V249" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="250" spans="9:22">
       <c r="I250" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="V250" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="251" spans="9:22">
       <c r="I251" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="V251" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="252" spans="9:22">
       <c r="I252" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V252" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="9:22">
       <c r="I253" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V253" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="9:22">
       <c r="I254" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="V254" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="9:22">
       <c r="I255" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="V255" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="9:22">
       <c r="I256" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="V256" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="9:22">
       <c r="I257" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="V257" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="258" spans="9:22">
       <c r="I258" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="V258" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="259" spans="9:22">
       <c r="I259" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V259" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="9:22">
       <c r="I260" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V260" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="261" spans="9:22">
       <c r="I261" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="V261" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="262" spans="9:22">
       <c r="I262" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V262" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="263" spans="9:22">
       <c r="I263" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V263" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="264" spans="9:22">
       <c r="I264" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="V264" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="265" spans="9:22">
       <c r="I265" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="V265" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="9:22">
       <c r="I266" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="V266" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="9:22">
       <c r="I267" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="V267" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="9:22">
       <c r="I268" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="V268" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="9:22">
       <c r="I269" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="V269" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="9:22">
       <c r="I270" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="V270" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="9:22">
       <c r="I271" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="V271" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="9:22">
       <c r="I272" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="V272" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="9:22">
       <c r="I273" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="V273" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="9:22">
       <c r="V274" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="275" spans="9:22">
       <c r="V275" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="276" spans="9:22">
       <c r="V276" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="9:22">
       <c r="V277" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="278" spans="9:22">
       <c r="V278" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="279" spans="9:22">
       <c r="V279" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="280" spans="9:22">
       <c r="V280" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="281" spans="9:22">
       <c r="V281" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="282" spans="9:22">
       <c r="V282" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="283" spans="9:22">
       <c r="V283" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="284" spans="9:22">
       <c r="V284" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="285" spans="9:22">
       <c r="V285" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="286" spans="9:22">
       <c r="V286" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="287" spans="9:22">
       <c r="V287" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="288" spans="9:22">
       <c r="V288" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="289" spans="22:22">
       <c r="V289" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -25,7 +25,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="682">
   <si>
     <t>alias</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2620,7 +2623,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2664,7 +2667,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2694,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3418,6 +3421,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3442,27 +3450,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3485,122 +3493,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3627,300 +3635,300 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3967,253 +3975,253 @@
   <sheetData>
     <row r="1" spans="7:34">
       <c r="G1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="S1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="V1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="X1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AC1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AD1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AH1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="7:34">
       <c r="G2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="S2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="V2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="X2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AC2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AD2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AH2" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="7:34">
       <c r="G3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="V3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="X3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AC3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="AD3" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="7:34">
       <c r="I4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AC4" t="s">
+        <v>604</v>
+      </c>
+      <c r="AD4" t="s">
         <v>603</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="5" spans="7:34">
       <c r="I5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC5" t="s">
+        <v>605</v>
+      </c>
+      <c r="AD5" t="s">
         <v>604</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="6" spans="7:34">
       <c r="I6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC6" t="s">
+        <v>606</v>
+      </c>
+      <c r="AD6" t="s">
         <v>605</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="7" spans="7:34">
       <c r="I7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AC7" t="s">
+        <v>607</v>
+      </c>
+      <c r="AD7" t="s">
         <v>606</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="8" spans="7:34">
       <c r="I8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AC8" t="s">
+        <v>608</v>
+      </c>
+      <c r="AD8" t="s">
         <v>607</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="9" spans="7:34">
       <c r="I9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AC9" t="s">
+        <v>609</v>
+      </c>
+      <c r="AD9" t="s">
         <v>608</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="10" spans="7:34">
       <c r="I10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AC10" t="s">
+        <v>610</v>
+      </c>
+      <c r="AD10" t="s">
         <v>609</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="11" spans="7:34">
       <c r="I11" t="s">
+        <v>293</v>
+      </c>
+      <c r="V11" t="s">
         <v>292</v>
       </c>
-      <c r="V11" t="s">
-        <v>291</v>
-      </c>
       <c r="AC11" t="s">
+        <v>611</v>
+      </c>
+      <c r="AD11" t="s">
         <v>610</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="12" spans="7:34">
       <c r="I12" t="s">
+        <v>294</v>
+      </c>
+      <c r="V12" t="s">
         <v>293</v>
       </c>
-      <c r="V12" t="s">
-        <v>292</v>
-      </c>
       <c r="AC12" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AD12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="7:34">
       <c r="I13" t="s">
+        <v>295</v>
+      </c>
+      <c r="V13" t="s">
         <v>294</v>
       </c>
-      <c r="V13" t="s">
-        <v>293</v>
-      </c>
       <c r="AC13" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="AD13" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="7:34">
       <c r="I14" t="s">
+        <v>296</v>
+      </c>
+      <c r="V14" t="s">
         <v>295</v>
       </c>
-      <c r="V14" t="s">
-        <v>294</v>
-      </c>
       <c r="AC14" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="AD14" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="7:34">
       <c r="I15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="V15" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AD15" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="7:34">
       <c r="I16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="V16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AD16" t="s">
         <v>116</v>
@@ -4221,2141 +4229,2141 @@
     </row>
     <row r="17" spans="9:30">
       <c r="I17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="V17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AD17" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="9:30">
       <c r="I18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="V18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="9:30">
       <c r="I19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="V19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="9:30">
       <c r="I20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="V20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="9:30">
       <c r="I21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="V21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="9:30">
       <c r="I22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="V22" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23" spans="9:30">
       <c r="I23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="V23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="9:30">
       <c r="I24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="V24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="9:30">
       <c r="I25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="V25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="9:30">
       <c r="I26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="V26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="9:30">
       <c r="I27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="V27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="9:30">
       <c r="I28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="V28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="9:30">
       <c r="I29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="V29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="9:30">
       <c r="I30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="V30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="9:30">
       <c r="I31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="V31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="9:30">
       <c r="I32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="V32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="9:22">
       <c r="I33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="V33" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="34" spans="9:22">
       <c r="I34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="V34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="9:22">
       <c r="I35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="V35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="9:22">
       <c r="I36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="V36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="9:22">
       <c r="I37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="V37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="9:22">
       <c r="I38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="V38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="9:22">
       <c r="I39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="V39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="9:22">
       <c r="I40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="V40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="9:22">
       <c r="I41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="V41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="9:22">
       <c r="I42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="V42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="9:22">
       <c r="I43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="V43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="9:22">
       <c r="I44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="V44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="9:22">
       <c r="I45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="V45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="9:22">
       <c r="I46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="V46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="9:22">
       <c r="I47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="V47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="9:22">
       <c r="I48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="V48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="9:22">
       <c r="I49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="V49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="9:22">
       <c r="I50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="V50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="9:22">
       <c r="I51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="V51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="9:22">
       <c r="I52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="V52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="9:22">
       <c r="I53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="V53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="9:22">
       <c r="I54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="V54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="9:22">
       <c r="I55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="V55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="9:22">
       <c r="I56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="V56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="9:22">
       <c r="I57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="V57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="9:22">
       <c r="I58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="V58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="9:22">
       <c r="I59" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="V59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="9:22">
       <c r="I60" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="V60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="9:22">
       <c r="I61" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="V61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="9:22">
       <c r="I62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="V62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="9:22">
       <c r="I63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="V63" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="9:22">
       <c r="I64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="9:22">
       <c r="I65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="V65" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="66" spans="9:22">
       <c r="I66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="V66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="9:22">
       <c r="I67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="V67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="9:22">
       <c r="I68" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="V68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="9:22">
       <c r="I69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="V69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="9:22">
       <c r="I70" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="V70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="9:22">
       <c r="I71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="V71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="9:22">
       <c r="I72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="V72" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="9:22">
       <c r="I73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="V73" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="9:22">
       <c r="I74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="V74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="9:22">
       <c r="I75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="9:22">
       <c r="I76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="9:22">
       <c r="I77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="V77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="9:22">
       <c r="I78" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="V78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="9:22">
       <c r="I79" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="V79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="9:22">
       <c r="I80" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="V80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="9:22">
       <c r="I81" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="V81" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="82" spans="9:22">
       <c r="I82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="V82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="9:22">
       <c r="I83" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="V83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="9:22">
       <c r="I84" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="V84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="9:22">
       <c r="I85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="V85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="9:22">
       <c r="I86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="V86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="9:22">
       <c r="I87" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="V87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="9:22">
       <c r="I88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="V88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="9:22">
       <c r="I89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="9:22">
       <c r="I90" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="V90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="9:22">
       <c r="I91" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="V91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="9:22">
       <c r="I92" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="V92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="9:22">
       <c r="I93" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="V93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="9:22">
       <c r="I94" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="V94" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="9:22">
       <c r="I95" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="V95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="9:22">
       <c r="I96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="V96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="9:22">
       <c r="I97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="V97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="9:22">
       <c r="I98" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="V98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="9:22">
       <c r="I99" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="V99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="9:22">
       <c r="I100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="V100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="9:22">
       <c r="I101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="V101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="9:22">
       <c r="I102" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="V102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="9:22">
       <c r="I103" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="V103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="9:22">
       <c r="I104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="V104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="9:22">
       <c r="I105" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="9:22">
       <c r="I106" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="V106" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="9:22">
       <c r="I107" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="V107" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="9:22">
       <c r="I108" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="V108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="9:22">
       <c r="I109" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="V109" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="9:22">
       <c r="I110" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="V110" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="9:22">
       <c r="I111" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="V111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="9:22">
       <c r="I112" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="V112" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="9:22">
       <c r="I113" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="V113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="9:22">
       <c r="I114" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V114" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="9:22">
       <c r="I115" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="V115" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="9:22">
       <c r="I116" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="V116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="9:22">
       <c r="I117" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="V117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="9:22">
       <c r="I118" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="V118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="9:22">
       <c r="I119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="V119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="9:22">
       <c r="I120" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="V120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="9:22">
       <c r="I121" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="V121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="9:22">
       <c r="I122" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="V122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="9:22">
       <c r="I123" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="V123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="9:22">
       <c r="I124" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="V124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="9:22">
       <c r="I125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="V125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="9:22">
       <c r="I126" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="V126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="9:22">
       <c r="I127" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="V127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="9:22">
       <c r="I128" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="V128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="9:22">
       <c r="I129" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="V129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="9:22">
       <c r="I130" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="V130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="9:22">
       <c r="I131" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="V131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="9:22">
       <c r="I132" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="V132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="9:22">
       <c r="I133" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="V133" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134" spans="9:22">
       <c r="I134" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="9:22">
       <c r="I135" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V135" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="9:22">
       <c r="I136" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V136" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="9:22">
       <c r="I137" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="9:22">
       <c r="I138" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="V138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="9:22">
       <c r="I139" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="9:22">
       <c r="I140" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="V140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="9:22">
       <c r="I141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="V141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="9:22">
       <c r="I142" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="V142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="9:22">
       <c r="I143" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="V143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="9:22">
       <c r="I144" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="V144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="9:22">
       <c r="I145" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="V145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="9:22">
       <c r="I146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="V146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="9:22">
       <c r="I147" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="V147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="9:22">
       <c r="I148" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="V148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="9:22">
       <c r="I149" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="V149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" spans="9:22">
       <c r="I150" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="V150" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="9:22">
       <c r="I151" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="V151" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="9:22">
       <c r="I152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="V152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="9:22">
       <c r="I153" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="V153" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="9:22">
       <c r="I154" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="V154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="9:22">
       <c r="I155" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="V155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="9:22">
       <c r="I156" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="V156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="9:22">
       <c r="I157" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="V157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="9:22">
       <c r="I158" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="V158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="9:22">
       <c r="I159" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="V159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="9:22">
       <c r="I160" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="V160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="9:22">
       <c r="I161" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="V161" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="9:22">
       <c r="I162" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="V162" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="9:22">
       <c r="I163" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="V163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="9:22">
       <c r="I164" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="V164" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="9:22">
       <c r="I165" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="V165" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="9:22">
       <c r="I166" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V166" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="9:22">
       <c r="I167" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="V167" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="9:22">
       <c r="I168" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="V168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="9:22">
       <c r="I169" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="V169" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="9:22">
       <c r="I170" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="V170" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="9:22">
       <c r="I171" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="V171" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="9:22">
       <c r="I172" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="V172" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="9:22">
       <c r="I173" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="V173" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="9:22">
       <c r="I174" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="V174" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="9:22">
       <c r="I175" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V175" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="9:22">
       <c r="I176" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="V176" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="9:22">
       <c r="I177" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="V177" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="9:22">
       <c r="I178" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V178" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="9:22">
       <c r="I179" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="V179" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="9:22">
       <c r="I180" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="9:22">
       <c r="I181" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V181" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="9:22">
       <c r="I182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="V182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="9:22">
       <c r="I183" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V183" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="9:22">
       <c r="I184" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="V184" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" spans="9:22">
       <c r="I185" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="V185" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="9:22">
       <c r="I186" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="V186" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="187" spans="9:22">
       <c r="I187" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="V187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="9:22">
       <c r="I188" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="V188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="9:22">
       <c r="I189" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="V189" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="9:22">
       <c r="I190" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="V190" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" spans="9:22">
       <c r="I191" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="V191" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="9:22">
       <c r="I192" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="V192" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="9:22">
       <c r="I193" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="V193" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="194" spans="9:22">
       <c r="I194" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="V194" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="9:22">
       <c r="I195" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="V195" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="9:22">
       <c r="I196" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="V196" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="9:22">
       <c r="I197" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="V197" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="9:22">
       <c r="I198" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V198" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="199" spans="9:22">
       <c r="I199" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="V199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="9:22">
       <c r="I200" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="V200" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="9:22">
       <c r="I201" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="V201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="9:22">
       <c r="I202" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="V202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="9:22">
       <c r="I203" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="V203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="9:22">
       <c r="I204" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="V204" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" spans="9:22">
       <c r="I205" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="V205" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="9:22">
       <c r="I206" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="V206" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="9:22">
       <c r="I207" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="V207" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="9:22">
       <c r="I208" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="V208" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="9:22">
       <c r="I209" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="V209" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="9:22">
       <c r="I210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="V210" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="9:22">
       <c r="I211" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="V211" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="9:22">
       <c r="I212" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="V212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="9:22">
       <c r="I213" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="V213" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="9:22">
       <c r="I214" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="V214" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="9:22">
       <c r="I215" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="V215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="9:22">
       <c r="I216" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V216" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="9:22">
       <c r="I217" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="V217" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="9:22">
       <c r="I218" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="V218" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="9:22">
       <c r="I219" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="V219" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="9:22">
       <c r="I220" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="V220" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="9:22">
       <c r="I221" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="V221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="9:22">
       <c r="I222" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="V222" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="9:22">
       <c r="I223" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="V223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="9:22">
       <c r="I224" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="V224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="9:22">
       <c r="I225" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="V225" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="226" spans="9:22">
       <c r="I226" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="V226" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="9:22">
       <c r="I227" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="V227" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="9:22">
       <c r="I228" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="V228" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="9:22">
       <c r="I229" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="V229" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="9:22">
       <c r="I230" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="V230" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="231" spans="9:22">
       <c r="I231" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="V231" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="9:22">
       <c r="I232" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="V232" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="9:22">
       <c r="I233" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="V233" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="234" spans="9:22">
       <c r="I234" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="V234" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="9:22">
       <c r="I235" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="V235" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="236" spans="9:22">
       <c r="I236" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="V236" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="237" spans="9:22">
       <c r="I237" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="V237" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="238" spans="9:22">
       <c r="I238" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="V238" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="9:22">
       <c r="I239" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="V239" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="9:22">
       <c r="I240" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="V240" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="241" spans="9:22">
       <c r="I241" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="V241" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="242" spans="9:22">
       <c r="I242" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="V242" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="9:22">
       <c r="I243" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="V243" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="9:22">
       <c r="I244" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="V244" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245" spans="9:22">
       <c r="I245" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="V245" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="9:22">
       <c r="I246" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="V246" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="9:22">
       <c r="I247" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="V247" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="9:22">
       <c r="I248" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="V248" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="9:22">
       <c r="I249" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="V249" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="9:22">
       <c r="I250" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="V250" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="9:22">
       <c r="I251" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="V251" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="9:22">
       <c r="I252" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="V252" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="253" spans="9:22">
       <c r="I253" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="V253" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="9:22">
       <c r="I254" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="V254" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255" spans="9:22">
       <c r="I255" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="V255" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="256" spans="9:22">
       <c r="I256" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="V256" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="9:22">
       <c r="I257" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="V257" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="258" spans="9:22">
       <c r="I258" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="V258" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259" spans="9:22">
       <c r="I259" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="V259" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="260" spans="9:22">
       <c r="I260" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="V260" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="261" spans="9:22">
       <c r="I261" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="V261" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="9:22">
       <c r="I262" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="V262" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="9:22">
       <c r="I263" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="V263" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="264" spans="9:22">
       <c r="I264" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="V264" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="9:22">
       <c r="I265" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="V265" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="9:22">
       <c r="I266" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="V266" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="267" spans="9:22">
       <c r="I267" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="V267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="9:22">
       <c r="I268" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="V268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="9:22">
       <c r="I269" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="V269" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="9:22">
       <c r="I270" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="V270" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="9:22">
       <c r="I271" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="V271" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="9:22">
       <c r="I272" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="V272" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="9:22">
       <c r="I273" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="V273" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="274" spans="9:22">
       <c r="V274" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="9:22">
       <c r="V275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="9:22">
       <c r="V276" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="277" spans="9:22">
       <c r="V277" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="278" spans="9:22">
       <c r="V278" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="279" spans="9:22">
       <c r="V279" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280" spans="9:22">
       <c r="V280" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="9:22">
       <c r="V281" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="282" spans="9:22">
       <c r="V282" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="9:22">
       <c r="V283" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="284" spans="9:22">
       <c r="V284" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285" spans="9:22">
       <c r="V285" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="286" spans="9:22">
       <c r="V286" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="287" spans="9:22">
       <c r="V287" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="288" spans="9:22">
       <c r="V288" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="289" spans="22:22">
       <c r="V289" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -21,12 +21,12 @@
     <definedName name="countryoftravel">'cv_sample'!$I$1:$I$273</definedName>
     <definedName name="environmentalsample">'cv_sample'!$S$1:$S$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
-    <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
+    <definedName name="isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="685">
   <si>
     <t>alias</t>
   </si>
@@ -851,13 +851,13 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample storage conditions</t>
+    <t>sample_storage_conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject exposure</t>
+    <t>subject_exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
@@ -872,7 +872,7 @@
     <t>travel-related</t>
   </si>
   <si>
-    <t>travel-relation</t>
+    <t>travelrelation</t>
   </si>
   <si>
     <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
@@ -884,7 +884,7 @@
     <t>during travel</t>
   </si>
   <si>
-    <t>clinical setting</t>
+    <t>clinical_setting</t>
   </si>
   <si>
     <t>(Optional) The timing of the clinic visit in relation to travel.</t>
@@ -1709,7 +1709,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>country of travel</t>
+    <t>country_of_travel</t>
   </si>
   <si>
     <t>(Optional) The name of the country of patient's travel.</t>
@@ -1721,7 +1721,7 @@
     <t>(Mandatory) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1733,19 +1733,19 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1757,16 +1757,16 @@
     <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
   </si>
   <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
-  </si>
-  <si>
-    <t>amount or size of sample collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>subject_exposure_duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
+  </si>
+  <si>
+    <t>amount_or_size_of_sample_collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>No</t>
@@ -1811,7 +1811,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1823,12 +1823,21 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1886,13 +1895,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host disease status</t>
+    <t>host_disease_status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
@@ -1907,31 +1916,31 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host disease outcome</t>
+    <t>host_disease_outcome</t>
   </si>
   <si>
     <t>(Optional) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host subject id</t>
+    <t>host_subject_id</t>
   </si>
   <si>
     <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host age</t>
+    <t>host_age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host taxid</t>
+    <t>host_taxid</t>
   </si>
   <si>
     <t>(Optional) Ncbi taxon id of the host, e.g. 9606</t>
   </si>
   <si>
-    <t>host life stage</t>
+    <t>host_life_stage</t>
   </si>
   <si>
     <t>(Optional) Description of life stage of host</t>
@@ -1943,7 +1952,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host health state</t>
+    <t>host_health_state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -1961,7 +1970,7 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host sex</t>
+    <t>host_sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
@@ -1973,7 +1982,7 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -1985,7 +1994,7 @@
     <t>(Optional) Details of passage of culture between time of isolation and sequencing</t>
   </si>
   <si>
-    <t>Is the sequenced pathogen host associated?</t>
+    <t>is_the_sequenced_pathogen_host_associated</t>
   </si>
   <si>
     <t>(Mandatory) Is the sequenced pathogen host associated? ('yes' or 'no')</t>
@@ -2051,19 +2060,19 @@
     <t>(Recommended) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>host disease stage</t>
+    <t>host_disease_stage</t>
   </si>
   <si>
     <t>(Optional) Disease stage of host</t>
   </si>
   <si>
-    <t>isolation source host-associated</t>
+    <t>isolation_source_hostassociated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>host description</t>
+    <t>host_description</t>
   </si>
   <si>
     <t>(Optional) Other descriptive information relating to the host.</t>
@@ -2075,7 +2084,7 @@
     <t>(Optional) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>isolation source non-host-associated</t>
+    <t>isolation_source_nonhostassociated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -2084,7 +2093,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3692,91 +3701,91 @@
         <v>582</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
@@ -3844,91 +3853,91 @@
         <v>583</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -3958,7 +3967,7 @@
       <formula1>hostsex</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
-      <formula1>Isthesequencedpathogenhostassociated</formula1>
+      <formula1>isthesequencedpathogenhostassociated</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3967,7 +3976,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AH289"/>
+  <dimension ref="G1:AH294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3990,13 +3999,13 @@
         <v>283</v>
       </c>
       <c r="X1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="AC1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AD1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AH1" t="s">
         <v>576</v>
@@ -4019,13 +4028,13 @@
         <v>284</v>
       </c>
       <c r="X2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="AC2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AD2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AH2" t="s">
         <v>577</v>
@@ -4042,13 +4051,13 @@
         <v>285</v>
       </c>
       <c r="X3" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="AC3" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="AD3" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="7:34">
@@ -4059,10 +4068,10 @@
         <v>286</v>
       </c>
       <c r="AC4" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="AD4" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="5" spans="7:34">
@@ -4073,10 +4082,10 @@
         <v>287</v>
       </c>
       <c r="AC5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="AD5" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="6" spans="7:34">
@@ -4087,10 +4096,10 @@
         <v>288</v>
       </c>
       <c r="AC6" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="AD6" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7" spans="7:34">
@@ -4101,10 +4110,10 @@
         <v>289</v>
       </c>
       <c r="AC7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AD7" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="8" spans="7:34">
@@ -4115,10 +4124,10 @@
         <v>290</v>
       </c>
       <c r="AC8" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AD8" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="7:34">
@@ -4129,10 +4138,10 @@
         <v>291</v>
       </c>
       <c r="AC9" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AD9" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="7:34">
@@ -4143,10 +4152,10 @@
         <v>584</v>
       </c>
       <c r="AC10" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AD10" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="7:34">
@@ -4157,10 +4166,10 @@
         <v>292</v>
       </c>
       <c r="AC11" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AD11" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="12" spans="7:34">
@@ -4171,10 +4180,10 @@
         <v>293</v>
       </c>
       <c r="AC12" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AD12" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="13" spans="7:34">
@@ -4185,10 +4194,10 @@
         <v>294</v>
       </c>
       <c r="AC13" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AD13" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="14" spans="7:34">
@@ -4199,10 +4208,10 @@
         <v>295</v>
       </c>
       <c r="AC14" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AD14" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="15" spans="7:34">
@@ -4213,7 +4222,7 @@
         <v>585</v>
       </c>
       <c r="AD15" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="7:34">
@@ -4235,7 +4244,7 @@
         <v>297</v>
       </c>
       <c r="AD17" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="9:30">
@@ -4675,7 +4684,7 @@
         <v>354</v>
       </c>
       <c r="V72" t="s">
-        <v>590</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73" spans="9:22">
@@ -4683,7 +4692,7 @@
         <v>355</v>
       </c>
       <c r="V73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="9:22">
@@ -4691,7 +4700,7 @@
         <v>356</v>
       </c>
       <c r="V74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="9:22">
@@ -4699,7 +4708,7 @@
         <v>357</v>
       </c>
       <c r="V75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="9:22">
@@ -4707,7 +4716,7 @@
         <v>358</v>
       </c>
       <c r="V76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="9:22">
@@ -4715,7 +4724,7 @@
         <v>359</v>
       </c>
       <c r="V77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="9:22">
@@ -4723,7 +4732,7 @@
         <v>360</v>
       </c>
       <c r="V78" t="s">
-        <v>355</v>
+        <v>590</v>
       </c>
     </row>
     <row r="79" spans="9:22">
@@ -5267,7 +5276,7 @@
         <v>428</v>
       </c>
       <c r="V146" t="s">
-        <v>425</v>
+        <v>594</v>
       </c>
     </row>
     <row r="147" spans="9:22">
@@ -5275,7 +5284,7 @@
         <v>429</v>
       </c>
       <c r="V147" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="148" spans="9:22">
@@ -5283,7 +5292,7 @@
         <v>430</v>
       </c>
       <c r="V148" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="149" spans="9:22">
@@ -5291,7 +5300,7 @@
         <v>431</v>
       </c>
       <c r="V149" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="150" spans="9:22">
@@ -5387,7 +5396,7 @@
         <v>443</v>
       </c>
       <c r="V161" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="162" spans="9:22">
@@ -5403,7 +5412,7 @@
         <v>445</v>
       </c>
       <c r="V163" t="s">
-        <v>441</v>
+        <v>596</v>
       </c>
     </row>
     <row r="164" spans="9:22">
@@ -5475,7 +5484,7 @@
         <v>454</v>
       </c>
       <c r="V172" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="173" spans="9:22">
@@ -5587,7 +5596,7 @@
         <v>468</v>
       </c>
       <c r="V186" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="187" spans="9:22">
@@ -5595,7 +5604,7 @@
         <v>469</v>
       </c>
       <c r="V187" t="s">
-        <v>464</v>
+        <v>599</v>
       </c>
     </row>
     <row r="188" spans="9:22">
@@ -5603,7 +5612,7 @@
         <v>470</v>
       </c>
       <c r="V188" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="189" spans="9:22">
@@ -5611,7 +5620,7 @@
         <v>471</v>
       </c>
       <c r="V189" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="190" spans="9:22">
@@ -5619,7 +5628,7 @@
         <v>472</v>
       </c>
       <c r="V190" t="s">
-        <v>597</v>
+        <v>466</v>
       </c>
     </row>
     <row r="191" spans="9:22">
@@ -5627,7 +5636,7 @@
         <v>473</v>
       </c>
       <c r="V191" t="s">
-        <v>467</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192" spans="9:22">
@@ -5635,7 +5644,7 @@
         <v>474</v>
       </c>
       <c r="V192" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="193" spans="9:22">
@@ -5643,7 +5652,7 @@
         <v>475</v>
       </c>
       <c r="V193" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="194" spans="9:22">
@@ -5651,7 +5660,7 @@
         <v>476</v>
       </c>
       <c r="V194" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="195" spans="9:22">
@@ -5659,7 +5668,7 @@
         <v>477</v>
       </c>
       <c r="V195" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="196" spans="9:22">
@@ -5667,7 +5676,7 @@
         <v>478</v>
       </c>
       <c r="V196" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="197" spans="9:22">
@@ -5675,7 +5684,7 @@
         <v>479</v>
       </c>
       <c r="V197" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="9:22">
@@ -5683,7 +5692,7 @@
         <v>480</v>
       </c>
       <c r="V198" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="9:22">
@@ -5691,7 +5700,7 @@
         <v>481</v>
       </c>
       <c r="V199" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="200" spans="9:22">
@@ -5699,7 +5708,7 @@
         <v>482</v>
       </c>
       <c r="V200" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="201" spans="9:22">
@@ -5707,7 +5716,7 @@
         <v>483</v>
       </c>
       <c r="V201" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="202" spans="9:22">
@@ -5715,7 +5724,7 @@
         <v>484</v>
       </c>
       <c r="V202" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="9:22">
@@ -5723,7 +5732,7 @@
         <v>485</v>
       </c>
       <c r="V203" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="9:22">
@@ -5731,7 +5740,7 @@
         <v>486</v>
       </c>
       <c r="V204" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="205" spans="9:22">
@@ -5739,7 +5748,7 @@
         <v>487</v>
       </c>
       <c r="V205" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="206" spans="9:22">
@@ -5747,7 +5756,7 @@
         <v>488</v>
       </c>
       <c r="V206" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" spans="9:22">
@@ -5755,7 +5764,7 @@
         <v>489</v>
       </c>
       <c r="V207" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" spans="9:22">
@@ -5763,7 +5772,7 @@
         <v>490</v>
       </c>
       <c r="V208" t="s">
-        <v>598</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="9:22">
@@ -5771,7 +5780,7 @@
         <v>491</v>
       </c>
       <c r="V209" t="s">
-        <v>484</v>
+        <v>601</v>
       </c>
     </row>
     <row r="210" spans="9:22">
@@ -5779,7 +5788,7 @@
         <v>492</v>
       </c>
       <c r="V210" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="9:22">
@@ -5787,7 +5796,7 @@
         <v>493</v>
       </c>
       <c r="V211" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="9:22">
@@ -5795,7 +5804,7 @@
         <v>494</v>
       </c>
       <c r="V212" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="9:22">
@@ -5803,7 +5812,7 @@
         <v>495</v>
       </c>
       <c r="V213" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="9:22">
@@ -5811,7 +5820,7 @@
         <v>496</v>
       </c>
       <c r="V214" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="9:22">
@@ -5819,7 +5828,7 @@
         <v>497</v>
       </c>
       <c r="V215" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="9:22">
@@ -5827,7 +5836,7 @@
         <v>498</v>
       </c>
       <c r="V216" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="9:22">
@@ -5835,7 +5844,7 @@
         <v>499</v>
       </c>
       <c r="V217" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="9:22">
@@ -5843,7 +5852,7 @@
         <v>500</v>
       </c>
       <c r="V218" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="9:22">
@@ -5851,7 +5860,7 @@
         <v>501</v>
       </c>
       <c r="V219" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="9:22">
@@ -5859,7 +5868,7 @@
         <v>502</v>
       </c>
       <c r="V220" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="9:22">
@@ -5867,7 +5876,7 @@
         <v>503</v>
       </c>
       <c r="V221" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="9:22">
@@ -5875,7 +5884,7 @@
         <v>504</v>
       </c>
       <c r="V222" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="9:22">
@@ -5883,7 +5892,7 @@
         <v>505</v>
       </c>
       <c r="V223" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="9:22">
@@ -5891,7 +5900,7 @@
         <v>506</v>
       </c>
       <c r="V224" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="9:22">
@@ -5899,7 +5908,7 @@
         <v>507</v>
       </c>
       <c r="V225" t="s">
-        <v>599</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="9:22">
@@ -5907,7 +5916,7 @@
         <v>508</v>
       </c>
       <c r="V226" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="9:22">
@@ -5915,7 +5924,7 @@
         <v>509</v>
       </c>
       <c r="V227" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="9:22">
@@ -5923,7 +5932,7 @@
         <v>510</v>
       </c>
       <c r="V228" t="s">
-        <v>505</v>
+        <v>602</v>
       </c>
     </row>
     <row r="229" spans="9:22">
@@ -5931,7 +5940,7 @@
         <v>511</v>
       </c>
       <c r="V229" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="9:22">
@@ -5939,7 +5948,7 @@
         <v>512</v>
       </c>
       <c r="V230" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="231" spans="9:22">
@@ -5947,7 +5956,7 @@
         <v>513</v>
       </c>
       <c r="V231" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="232" spans="9:22">
@@ -5955,7 +5964,7 @@
         <v>514</v>
       </c>
       <c r="V232" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="233" spans="9:22">
@@ -5963,7 +5972,7 @@
         <v>515</v>
       </c>
       <c r="V233" t="s">
-        <v>600</v>
+        <v>507</v>
       </c>
     </row>
     <row r="234" spans="9:22">
@@ -5971,7 +5980,7 @@
         <v>516</v>
       </c>
       <c r="V234" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="235" spans="9:22">
@@ -5979,7 +5988,7 @@
         <v>517</v>
       </c>
       <c r="V235" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="236" spans="9:22">
@@ -5987,7 +5996,7 @@
         <v>518</v>
       </c>
       <c r="V236" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="237" spans="9:22">
@@ -5995,7 +6004,7 @@
         <v>519</v>
       </c>
       <c r="V237" t="s">
-        <v>515</v>
+        <v>603</v>
       </c>
     </row>
     <row r="238" spans="9:22">
@@ -6003,7 +6012,7 @@
         <v>520</v>
       </c>
       <c r="V238" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="239" spans="9:22">
@@ -6011,7 +6020,7 @@
         <v>521</v>
       </c>
       <c r="V239" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="240" spans="9:22">
@@ -6019,7 +6028,7 @@
         <v>522</v>
       </c>
       <c r="V240" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="241" spans="9:22">
@@ -6027,7 +6036,7 @@
         <v>523</v>
       </c>
       <c r="V241" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="242" spans="9:22">
@@ -6035,7 +6044,7 @@
         <v>524</v>
       </c>
       <c r="V242" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="243" spans="9:22">
@@ -6043,7 +6052,7 @@
         <v>525</v>
       </c>
       <c r="V243" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="244" spans="9:22">
@@ -6051,7 +6060,7 @@
         <v>526</v>
       </c>
       <c r="V244" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="245" spans="9:22">
@@ -6059,7 +6068,7 @@
         <v>527</v>
       </c>
       <c r="V245" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="246" spans="9:22">
@@ -6067,7 +6076,7 @@
         <v>528</v>
       </c>
       <c r="V246" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="247" spans="9:22">
@@ -6075,7 +6084,7 @@
         <v>529</v>
       </c>
       <c r="V247" t="s">
-        <v>601</v>
+        <v>521</v>
       </c>
     </row>
     <row r="248" spans="9:22">
@@ -6083,7 +6092,7 @@
         <v>530</v>
       </c>
       <c r="V248" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="249" spans="9:22">
@@ -6091,7 +6100,7 @@
         <v>531</v>
       </c>
       <c r="V249" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="250" spans="9:22">
@@ -6099,7 +6108,7 @@
         <v>532</v>
       </c>
       <c r="V250" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="251" spans="9:22">
@@ -6107,7 +6116,7 @@
         <v>533</v>
       </c>
       <c r="V251" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
     </row>
     <row r="252" spans="9:22">
@@ -6115,7 +6124,7 @@
         <v>534</v>
       </c>
       <c r="V252" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="253" spans="9:22">
@@ -6123,7 +6132,7 @@
         <v>535</v>
       </c>
       <c r="V253" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="254" spans="9:22">
@@ -6131,7 +6140,7 @@
         <v>536</v>
       </c>
       <c r="V254" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="255" spans="9:22">
@@ -6139,7 +6148,7 @@
         <v>537</v>
       </c>
       <c r="V255" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="256" spans="9:22">
@@ -6147,7 +6156,7 @@
         <v>538</v>
       </c>
       <c r="V256" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="257" spans="9:22">
@@ -6155,7 +6164,7 @@
         <v>539</v>
       </c>
       <c r="V257" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="258" spans="9:22">
@@ -6163,7 +6172,7 @@
         <v>540</v>
       </c>
       <c r="V258" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="259" spans="9:22">
@@ -6171,7 +6180,7 @@
         <v>541</v>
       </c>
       <c r="V259" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="260" spans="9:22">
@@ -6179,7 +6188,7 @@
         <v>542</v>
       </c>
       <c r="V260" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="261" spans="9:22">
@@ -6187,7 +6196,7 @@
         <v>543</v>
       </c>
       <c r="V261" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="262" spans="9:22">
@@ -6195,7 +6204,7 @@
         <v>544</v>
       </c>
       <c r="V262" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="263" spans="9:22">
@@ -6203,7 +6212,7 @@
         <v>545</v>
       </c>
       <c r="V263" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="264" spans="9:22">
@@ -6211,7 +6220,7 @@
         <v>546</v>
       </c>
       <c r="V264" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="265" spans="9:22">
@@ -6219,7 +6228,7 @@
         <v>547</v>
       </c>
       <c r="V265" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="266" spans="9:22">
@@ -6227,7 +6236,7 @@
         <v>548</v>
       </c>
       <c r="V266" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="267" spans="9:22">
@@ -6235,7 +6244,7 @@
         <v>549</v>
       </c>
       <c r="V267" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="268" spans="9:22">
@@ -6243,7 +6252,7 @@
         <v>550</v>
       </c>
       <c r="V268" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="269" spans="9:22">
@@ -6251,7 +6260,7 @@
         <v>551</v>
       </c>
       <c r="V269" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="270" spans="9:22">
@@ -6259,7 +6268,7 @@
         <v>552</v>
       </c>
       <c r="V270" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="9:22">
@@ -6267,7 +6276,7 @@
         <v>553</v>
       </c>
       <c r="V271" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" spans="9:22">
@@ -6275,7 +6284,7 @@
         <v>554</v>
       </c>
       <c r="V272" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="273" spans="9:22">
@@ -6283,87 +6292,112 @@
         <v>555</v>
       </c>
       <c r="V273" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="274" spans="9:22">
       <c r="V274" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="275" spans="9:22">
       <c r="V275" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="9:22">
       <c r="V276" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="277" spans="9:22">
       <c r="V277" t="s">
-        <v>602</v>
+        <v>551</v>
       </c>
     </row>
     <row r="278" spans="9:22">
       <c r="V278" t="s">
-        <v>603</v>
+        <v>552</v>
       </c>
     </row>
     <row r="279" spans="9:22">
       <c r="V279" t="s">
-        <v>604</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="9:22">
       <c r="V280" t="s">
-        <v>605</v>
+        <v>554</v>
       </c>
     </row>
     <row r="281" spans="9:22">
       <c r="V281" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
     </row>
     <row r="282" spans="9:22">
       <c r="V282" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="283" spans="9:22">
       <c r="V283" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="284" spans="9:22">
       <c r="V284" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="285" spans="9:22">
       <c r="V285" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="286" spans="9:22">
       <c r="V286" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="287" spans="9:22">
       <c r="V287" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="288" spans="9:22">
       <c r="V288" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="289" spans="22:22">
       <c r="V289" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="290" spans="22:22">
+      <c r="V290" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="291" spans="22:22">
+      <c r="V291" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="292" spans="22:22">
+      <c r="V292" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="293" spans="22:22">
+      <c r="V293" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="294" spans="22:22">
+      <c r="V294" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -21,12 +21,12 @@
     <definedName name="countryoftravel">'cv_sample'!$I$1:$I$273</definedName>
     <definedName name="environmentalsample">'cv_sample'!$S$1:$S$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
-    <definedName name="isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
+    <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="682">
   <si>
     <t>alias</t>
   </si>
@@ -851,13 +851,13 @@
     <t>(Optional) Free-form text describing the sample, its origin, and its method of isolation.</t>
   </si>
   <si>
-    <t>sample_storage_conditions</t>
+    <t>sample storage conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject_exposure</t>
+    <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
@@ -872,7 +872,7 @@
     <t>travel-related</t>
   </si>
   <si>
-    <t>travelrelation</t>
+    <t>travel-relation</t>
   </si>
   <si>
     <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
@@ -884,7 +884,7 @@
     <t>during travel</t>
   </si>
   <si>
-    <t>clinical_setting</t>
+    <t>clinical setting</t>
   </si>
   <si>
     <t>(Optional) The timing of the clinic visit in relation to travel.</t>
@@ -1709,7 +1709,7 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>country_of_travel</t>
+    <t>country of travel</t>
   </si>
   <si>
     <t>(Optional) The name of the country of patient's travel.</t>
@@ -1721,7 +1721,7 @@
     <t>(Mandatory) Name of persons or institute who collected the specimen</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
@@ -1733,19 +1733,19 @@
     <t>(Optional) The altitude of the sample is the vertical distance between earth's surface above sea level and the sampled position in the air. (Units: m)</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
@@ -1757,16 +1757,16 @@
     <t>(Optional) Name of the expert who identified the specimen taxonomically</t>
   </si>
   <si>
-    <t>subject_exposure_duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
-  </si>
-  <si>
-    <t>amount_or_size_of_sample_collected</t>
-  </si>
-  <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+  </si>
+  <si>
+    <t>amount or size of sample collected</t>
+  </si>
+  <si>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
   </si>
   <si>
     <t>No</t>
@@ -1811,7 +1811,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>Eswatini</t>
+    <t>East Timor</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1823,21 +1823,12 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1895,13 +1886,13 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
   </si>
   <si>
-    <t>host_disease_status</t>
+    <t>host disease status</t>
   </si>
   <si>
     <t>(Optional) List of diseases with which the host has been diagnosed; can include multiple diagnoses. the value of the field depends on host; for humans the terms should be chosen from do (disease ontology) at http://www.disease-ontology.org, other hosts are free text</t>
@@ -1916,31 +1907,31 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host_disease_outcome</t>
+    <t>host disease outcome</t>
   </si>
   <si>
     <t>(Optional) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host_subject_id</t>
+    <t>host subject id</t>
   </si>
   <si>
     <t>(Optional) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host_age</t>
+    <t>host age</t>
   </si>
   <si>
     <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
-    <t>host_taxid</t>
+    <t>host taxid</t>
   </si>
   <si>
     <t>(Optional) Ncbi taxon id of the host, e.g. 9606</t>
   </si>
   <si>
-    <t>host_life_stage</t>
+    <t>host life stage</t>
   </si>
   <si>
     <t>(Optional) Description of life stage of host</t>
@@ -1952,7 +1943,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host_health_state</t>
+    <t>host health state</t>
   </si>
   <si>
     <t>(Mandatory) Health status of the host at the time of sample collection.</t>
@@ -1970,7 +1961,7 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host_sex</t>
+    <t>host sex</t>
   </si>
   <si>
     <t>(Optional) Gender or sex of the host.</t>
@@ -1982,7 +1973,7 @@
     <t>(Optional) Scientific name of the laboratory host used to propagate the source organism from which the sample was obtained</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Mandatory) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
@@ -1994,7 +1985,7 @@
     <t>(Optional) Details of passage of culture between time of isolation and sequencing</t>
   </si>
   <si>
-    <t>is_the_sequenced_pathogen_host_associated</t>
+    <t>Is the sequenced pathogen host associated?</t>
   </si>
   <si>
     <t>(Mandatory) Is the sequenced pathogen host associated? ('yes' or 'no')</t>
@@ -2060,19 +2051,19 @@
     <t>(Recommended) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>host_disease_stage</t>
+    <t>host disease stage</t>
   </si>
   <si>
     <t>(Optional) Disease stage of host</t>
   </si>
   <si>
-    <t>isolation_source_hostassociated</t>
+    <t>isolation source host-associated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>host_description</t>
+    <t>host description</t>
   </si>
   <si>
     <t>(Optional) Other descriptive information relating to the host.</t>
@@ -2084,7 +2075,7 @@
     <t>(Optional) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>isolation_source_nonhostassociated</t>
+    <t>isolation source non-host-associated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -2093,7 +2084,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
   </si>
 </sst>
 </file>
@@ -3701,91 +3692,91 @@
         <v>582</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2" spans="1:50" ht="150" customHeight="1">
@@ -3853,91 +3844,91 @@
         <v>583</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -3967,7 +3958,7 @@
       <formula1>hostsex</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
-      <formula1>isthesequencedpathogenhostassociated</formula1>
+      <formula1>Isthesequencedpathogenhostassociated</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3976,7 +3967,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AH294"/>
+  <dimension ref="G1:AH289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3999,13 +3990,13 @@
         <v>283</v>
       </c>
       <c r="X1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="AC1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AD1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AH1" t="s">
         <v>576</v>
@@ -4028,13 +4019,13 @@
         <v>284</v>
       </c>
       <c r="X2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="AC2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AD2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AH2" t="s">
         <v>577</v>
@@ -4051,13 +4042,13 @@
         <v>285</v>
       </c>
       <c r="X3" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="AC3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="AD3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="7:34">
@@ -4068,10 +4059,10 @@
         <v>286</v>
       </c>
       <c r="AC4" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="AD4" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="7:34">
@@ -4082,10 +4073,10 @@
         <v>287</v>
       </c>
       <c r="AC5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AD5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="6" spans="7:34">
@@ -4096,10 +4087,10 @@
         <v>288</v>
       </c>
       <c r="AC6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="AD6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="7" spans="7:34">
@@ -4110,10 +4101,10 @@
         <v>289</v>
       </c>
       <c r="AC7" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="AD7" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="8" spans="7:34">
@@ -4124,10 +4115,10 @@
         <v>290</v>
       </c>
       <c r="AC8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="AD8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="7:34">
@@ -4138,10 +4129,10 @@
         <v>291</v>
       </c>
       <c r="AC9" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="AD9" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" spans="7:34">
@@ -4152,10 +4143,10 @@
         <v>584</v>
       </c>
       <c r="AC10" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="AD10" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="11" spans="7:34">
@@ -4166,10 +4157,10 @@
         <v>292</v>
       </c>
       <c r="AC11" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="AD11" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="7:34">
@@ -4180,10 +4171,10 @@
         <v>293</v>
       </c>
       <c r="AC12" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="AD12" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="7:34">
@@ -4194,10 +4185,10 @@
         <v>294</v>
       </c>
       <c r="AC13" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AD13" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="7:34">
@@ -4208,10 +4199,10 @@
         <v>295</v>
       </c>
       <c r="AC14" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="AD14" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="7:34">
@@ -4222,7 +4213,7 @@
         <v>585</v>
       </c>
       <c r="AD15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="7:34">
@@ -4244,7 +4235,7 @@
         <v>297</v>
       </c>
       <c r="AD17" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="9:30">
@@ -4684,7 +4675,7 @@
         <v>354</v>
       </c>
       <c r="V72" t="s">
-        <v>350</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="9:22">
@@ -4692,7 +4683,7 @@
         <v>355</v>
       </c>
       <c r="V73" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="9:22">
@@ -4700,7 +4691,7 @@
         <v>356</v>
       </c>
       <c r="V74" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="9:22">
@@ -4708,7 +4699,7 @@
         <v>357</v>
       </c>
       <c r="V75" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="9:22">
@@ -4716,7 +4707,7 @@
         <v>358</v>
       </c>
       <c r="V76" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="9:22">
@@ -4724,7 +4715,7 @@
         <v>359</v>
       </c>
       <c r="V77" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="9:22">
@@ -4732,7 +4723,7 @@
         <v>360</v>
       </c>
       <c r="V78" t="s">
-        <v>590</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="9:22">
@@ -5276,7 +5267,7 @@
         <v>428</v>
       </c>
       <c r="V146" t="s">
-        <v>594</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="9:22">
@@ -5284,7 +5275,7 @@
         <v>429</v>
       </c>
       <c r="V147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="9:22">
@@ -5292,7 +5283,7 @@
         <v>430</v>
       </c>
       <c r="V148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="9:22">
@@ -5300,7 +5291,7 @@
         <v>431</v>
       </c>
       <c r="V149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" spans="9:22">
@@ -5396,7 +5387,7 @@
         <v>443</v>
       </c>
       <c r="V161" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="162" spans="9:22">
@@ -5412,7 +5403,7 @@
         <v>445</v>
       </c>
       <c r="V163" t="s">
-        <v>596</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="9:22">
@@ -5484,7 +5475,7 @@
         <v>454</v>
       </c>
       <c r="V172" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="173" spans="9:22">
@@ -5596,7 +5587,7 @@
         <v>468</v>
       </c>
       <c r="V186" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="187" spans="9:22">
@@ -5604,7 +5595,7 @@
         <v>469</v>
       </c>
       <c r="V187" t="s">
-        <v>599</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="9:22">
@@ -5612,7 +5603,7 @@
         <v>470</v>
       </c>
       <c r="V188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="9:22">
@@ -5620,7 +5611,7 @@
         <v>471</v>
       </c>
       <c r="V189" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="9:22">
@@ -5628,7 +5619,7 @@
         <v>472</v>
       </c>
       <c r="V190" t="s">
-        <v>466</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" spans="9:22">
@@ -5636,7 +5627,7 @@
         <v>473</v>
       </c>
       <c r="V191" t="s">
-        <v>600</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="9:22">
@@ -5644,7 +5635,7 @@
         <v>474</v>
       </c>
       <c r="V192" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="9:22">
@@ -5652,7 +5643,7 @@
         <v>475</v>
       </c>
       <c r="V193" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="194" spans="9:22">
@@ -5660,7 +5651,7 @@
         <v>476</v>
       </c>
       <c r="V194" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="9:22">
@@ -5668,7 +5659,7 @@
         <v>477</v>
       </c>
       <c r="V195" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="9:22">
@@ -5676,7 +5667,7 @@
         <v>478</v>
       </c>
       <c r="V196" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="9:22">
@@ -5684,7 +5675,7 @@
         <v>479</v>
       </c>
       <c r="V197" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="9:22">
@@ -5692,7 +5683,7 @@
         <v>480</v>
       </c>
       <c r="V198" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="199" spans="9:22">
@@ -5700,7 +5691,7 @@
         <v>481</v>
       </c>
       <c r="V199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="9:22">
@@ -5708,7 +5699,7 @@
         <v>482</v>
       </c>
       <c r="V200" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="9:22">
@@ -5716,7 +5707,7 @@
         <v>483</v>
       </c>
       <c r="V201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="9:22">
@@ -5724,7 +5715,7 @@
         <v>484</v>
       </c>
       <c r="V202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="9:22">
@@ -5732,7 +5723,7 @@
         <v>485</v>
       </c>
       <c r="V203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="9:22">
@@ -5740,7 +5731,7 @@
         <v>486</v>
       </c>
       <c r="V204" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" spans="9:22">
@@ -5748,7 +5739,7 @@
         <v>487</v>
       </c>
       <c r="V205" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="9:22">
@@ -5756,7 +5747,7 @@
         <v>488</v>
       </c>
       <c r="V206" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="9:22">
@@ -5764,7 +5755,7 @@
         <v>489</v>
       </c>
       <c r="V207" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="9:22">
@@ -5772,7 +5763,7 @@
         <v>490</v>
       </c>
       <c r="V208" t="s">
-        <v>483</v>
+        <v>598</v>
       </c>
     </row>
     <row r="209" spans="9:22">
@@ -5780,7 +5771,7 @@
         <v>491</v>
       </c>
       <c r="V209" t="s">
-        <v>601</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="9:22">
@@ -5788,7 +5779,7 @@
         <v>492</v>
       </c>
       <c r="V210" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="9:22">
@@ -5796,7 +5787,7 @@
         <v>493</v>
       </c>
       <c r="V211" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="9:22">
@@ -5804,7 +5795,7 @@
         <v>494</v>
       </c>
       <c r="V212" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="9:22">
@@ -5812,7 +5803,7 @@
         <v>495</v>
       </c>
       <c r="V213" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="9:22">
@@ -5820,7 +5811,7 @@
         <v>496</v>
       </c>
       <c r="V214" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="9:22">
@@ -5828,7 +5819,7 @@
         <v>497</v>
       </c>
       <c r="V215" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="9:22">
@@ -5836,7 +5827,7 @@
         <v>498</v>
       </c>
       <c r="V216" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="9:22">
@@ -5844,7 +5835,7 @@
         <v>499</v>
       </c>
       <c r="V217" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="9:22">
@@ -5852,7 +5843,7 @@
         <v>500</v>
       </c>
       <c r="V218" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="9:22">
@@ -5860,7 +5851,7 @@
         <v>501</v>
       </c>
       <c r="V219" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="9:22">
@@ -5868,7 +5859,7 @@
         <v>502</v>
       </c>
       <c r="V220" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="9:22">
@@ -5876,7 +5867,7 @@
         <v>503</v>
       </c>
       <c r="V221" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="9:22">
@@ -5884,7 +5875,7 @@
         <v>504</v>
       </c>
       <c r="V222" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="9:22">
@@ -5892,7 +5883,7 @@
         <v>505</v>
       </c>
       <c r="V223" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="9:22">
@@ -5900,7 +5891,7 @@
         <v>506</v>
       </c>
       <c r="V224" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="9:22">
@@ -5908,7 +5899,7 @@
         <v>507</v>
       </c>
       <c r="V225" t="s">
-        <v>500</v>
+        <v>599</v>
       </c>
     </row>
     <row r="226" spans="9:22">
@@ -5916,7 +5907,7 @@
         <v>508</v>
       </c>
       <c r="V226" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="9:22">
@@ -5924,7 +5915,7 @@
         <v>509</v>
       </c>
       <c r="V227" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="9:22">
@@ -5932,7 +5923,7 @@
         <v>510</v>
       </c>
       <c r="V228" t="s">
-        <v>602</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="9:22">
@@ -5940,7 +5931,7 @@
         <v>511</v>
       </c>
       <c r="V229" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="9:22">
@@ -5948,7 +5939,7 @@
         <v>512</v>
       </c>
       <c r="V230" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="231" spans="9:22">
@@ -5956,7 +5947,7 @@
         <v>513</v>
       </c>
       <c r="V231" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="9:22">
@@ -5964,7 +5955,7 @@
         <v>514</v>
       </c>
       <c r="V232" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="9:22">
@@ -5972,7 +5963,7 @@
         <v>515</v>
       </c>
       <c r="V233" t="s">
-        <v>507</v>
+        <v>600</v>
       </c>
     </row>
     <row r="234" spans="9:22">
@@ -5980,7 +5971,7 @@
         <v>516</v>
       </c>
       <c r="V234" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="9:22">
@@ -5988,7 +5979,7 @@
         <v>517</v>
       </c>
       <c r="V235" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="236" spans="9:22">
@@ -5996,7 +5987,7 @@
         <v>518</v>
       </c>
       <c r="V236" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="237" spans="9:22">
@@ -6004,7 +5995,7 @@
         <v>519</v>
       </c>
       <c r="V237" t="s">
-        <v>603</v>
+        <v>515</v>
       </c>
     </row>
     <row r="238" spans="9:22">
@@ -6012,7 +6003,7 @@
         <v>520</v>
       </c>
       <c r="V238" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="9:22">
@@ -6020,7 +6011,7 @@
         <v>521</v>
       </c>
       <c r="V239" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="9:22">
@@ -6028,7 +6019,7 @@
         <v>522</v>
       </c>
       <c r="V240" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="241" spans="9:22">
@@ -6036,7 +6027,7 @@
         <v>523</v>
       </c>
       <c r="V241" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="242" spans="9:22">
@@ -6044,7 +6035,7 @@
         <v>524</v>
       </c>
       <c r="V242" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="9:22">
@@ -6052,7 +6043,7 @@
         <v>525</v>
       </c>
       <c r="V243" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="9:22">
@@ -6060,7 +6051,7 @@
         <v>526</v>
       </c>
       <c r="V244" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245" spans="9:22">
@@ -6068,7 +6059,7 @@
         <v>527</v>
       </c>
       <c r="V245" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="9:22">
@@ -6076,7 +6067,7 @@
         <v>528</v>
       </c>
       <c r="V246" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="9:22">
@@ -6084,7 +6075,7 @@
         <v>529</v>
       </c>
       <c r="V247" t="s">
-        <v>521</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="9:22">
@@ -6092,7 +6083,7 @@
         <v>530</v>
       </c>
       <c r="V248" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="9:22">
@@ -6100,7 +6091,7 @@
         <v>531</v>
       </c>
       <c r="V249" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="9:22">
@@ -6108,7 +6099,7 @@
         <v>532</v>
       </c>
       <c r="V250" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="9:22">
@@ -6116,7 +6107,7 @@
         <v>533</v>
       </c>
       <c r="V251" t="s">
-        <v>604</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="9:22">
@@ -6124,7 +6115,7 @@
         <v>534</v>
       </c>
       <c r="V252" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="253" spans="9:22">
@@ -6132,7 +6123,7 @@
         <v>535</v>
       </c>
       <c r="V253" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="9:22">
@@ -6140,7 +6131,7 @@
         <v>536</v>
       </c>
       <c r="V254" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255" spans="9:22">
@@ -6148,7 +6139,7 @@
         <v>537</v>
       </c>
       <c r="V255" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="256" spans="9:22">
@@ -6156,7 +6147,7 @@
         <v>538</v>
       </c>
       <c r="V256" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="9:22">
@@ -6164,7 +6155,7 @@
         <v>539</v>
       </c>
       <c r="V257" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="258" spans="9:22">
@@ -6172,7 +6163,7 @@
         <v>540</v>
       </c>
       <c r="V258" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259" spans="9:22">
@@ -6180,7 +6171,7 @@
         <v>541</v>
       </c>
       <c r="V259" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="260" spans="9:22">
@@ -6188,7 +6179,7 @@
         <v>542</v>
       </c>
       <c r="V260" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="261" spans="9:22">
@@ -6196,7 +6187,7 @@
         <v>543</v>
       </c>
       <c r="V261" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="9:22">
@@ -6204,7 +6195,7 @@
         <v>544</v>
       </c>
       <c r="V262" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="9:22">
@@ -6212,7 +6203,7 @@
         <v>545</v>
       </c>
       <c r="V263" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="264" spans="9:22">
@@ -6220,7 +6211,7 @@
         <v>546</v>
       </c>
       <c r="V264" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="9:22">
@@ -6228,7 +6219,7 @@
         <v>547</v>
       </c>
       <c r="V265" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="9:22">
@@ -6236,7 +6227,7 @@
         <v>548</v>
       </c>
       <c r="V266" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="267" spans="9:22">
@@ -6244,7 +6235,7 @@
         <v>549</v>
       </c>
       <c r="V267" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="9:22">
@@ -6252,7 +6243,7 @@
         <v>550</v>
       </c>
       <c r="V268" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="9:22">
@@ -6260,7 +6251,7 @@
         <v>551</v>
       </c>
       <c r="V269" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="9:22">
@@ -6268,7 +6259,7 @@
         <v>552</v>
       </c>
       <c r="V270" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="9:22">
@@ -6276,7 +6267,7 @@
         <v>553</v>
       </c>
       <c r="V271" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="9:22">
@@ -6284,7 +6275,7 @@
         <v>554</v>
       </c>
       <c r="V272" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="9:22">
@@ -6292,112 +6283,87 @@
         <v>555</v>
       </c>
       <c r="V273" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="274" spans="9:22">
       <c r="V274" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="9:22">
       <c r="V275" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="9:22">
       <c r="V276" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="277" spans="9:22">
       <c r="V277" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
     </row>
     <row r="278" spans="9:22">
       <c r="V278" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
     </row>
     <row r="279" spans="9:22">
       <c r="V279" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
     </row>
     <row r="280" spans="9:22">
       <c r="V280" t="s">
-        <v>554</v>
+        <v>605</v>
       </c>
     </row>
     <row r="281" spans="9:22">
       <c r="V281" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
     </row>
     <row r="282" spans="9:22">
       <c r="V282" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="283" spans="9:22">
       <c r="V283" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="284" spans="9:22">
       <c r="V284" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="285" spans="9:22">
       <c r="V285" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="286" spans="9:22">
       <c r="V286" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
     </row>
     <row r="287" spans="9:22">
       <c r="V287" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="288" spans="9:22">
       <c r="V288" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
     </row>
     <row r="289" spans="22:22">
       <c r="V289" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="290" spans="22:22">
-      <c r="V290" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="291" spans="22:22">
-      <c r="V291" t="s">
         <v>614</v>
-      </c>
-    </row>
-    <row r="292" spans="22:22">
-      <c r="V292" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="293" spans="22:22">
-      <c r="V293" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="294" spans="22:22">
-      <c r="V294" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -17,29 +17,29 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="clinicalsetting">'cv_sample'!$H$1:$H$2</definedName>
-    <definedName name="countryoftravel">'cv_sample'!$I$1:$I$273</definedName>
-    <definedName name="environmentalsample">'cv_sample'!$S$1:$S$2</definedName>
+    <definedName name="clinicalsetting">'cv_sample'!$J$1:$J$2</definedName>
+    <definedName name="countryoftravel">'cv_sample'!$K$1:$K$273</definedName>
+    <definedName name="environmentalsample">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$V$1:$V$289</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$X$1:$X$3</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$AC$1:$AC$14</definedName>
-    <definedName name="hostsex">'cv_sample'!$AD$1:$AD$17</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$X$1:$X$289</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$Z$1:$Z$3</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$AE$1:$AE$14</definedName>
+    <definedName name="hostsex">'cv_sample'!$AF$1:$AF$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
-    <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AH$1:$AH$2</definedName>
+    <definedName name="Isthesequencedpathogenhostassociated">'cv_sample'!$AJ$1:$AJ$2</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="travelrelation">'cv_sample'!$G$1:$G$3</definedName>
+    <definedName name="travelrelation">'cv_sample'!$I$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="686">
   <si>
     <t>alias</t>
   </si>
@@ -843,6 +843,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3618,7 +3630,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AZ2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3627,7 +3639,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3647,16 +3659,16 @@
         <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>558</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>560</v>
@@ -3683,25 +3695,25 @@
         <v>574</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>578</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>582</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>615</v>
+        <v>584</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>626</v>
@@ -3713,13 +3725,13 @@
         <v>630</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>640</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="AF1" s="1" t="s">
         <v>644</v>
@@ -3778,8 +3790,14 @@
       <c r="AX1" s="1" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="2" spans="1:50" ht="150" customHeight="1">
+      <c r="AY1" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3799,16 +3817,16 @@
         <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>557</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>559</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>561</v>
@@ -3835,25 +3853,25 @@
         <v>575</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>581</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>583</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>616</v>
+        <v>585</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>618</v>
+        <v>587</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Z2" s="2" t="s">
         <v>627</v>
@@ -3865,13 +3883,13 @@
         <v>631</v>
       </c>
       <c r="AC2" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="AD2" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="AD2" s="2" t="s">
-        <v>641</v>
-      </c>
       <c r="AE2" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="AF2" s="2" t="s">
         <v>645</v>
@@ -3930,34 +3948,40 @@
       <c r="AX2" s="2" t="s">
         <v>681</v>
       </c>
+      <c r="AY2" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
+        <v>685</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
       <formula1>travelrelation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3:H101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
       <formula1>clinicalsetting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>countryoftravel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U3:U101">
       <formula1>environmentalsample</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z3:Z101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3:AE101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3:AD101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF3:AF101">
       <formula1>hostsex</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH3:AH101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ3:AJ101">
       <formula1>Isthesequencedpathogenhostassociated</formula1>
     </dataValidation>
   </dataValidations>
@@ -3967,2403 +3991,2403 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:AH289"/>
+  <dimension ref="I1:AJ289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="7:34">
-      <c r="G1" t="s">
-        <v>274</v>
-      </c>
-      <c r="H1" t="s">
+    <row r="1" spans="9:36">
+      <c r="I1" t="s">
+        <v>278</v>
+      </c>
+      <c r="J1" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" t="s">
+        <v>287</v>
+      </c>
+      <c r="U1" t="s">
+        <v>580</v>
+      </c>
+      <c r="X1" t="s">
+        <v>287</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>636</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>640</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="2" spans="9:36">
+      <c r="I2" t="s">
         <v>279</v>
       </c>
-      <c r="I1" t="s">
-        <v>283</v>
-      </c>
-      <c r="S1" t="s">
-        <v>576</v>
-      </c>
-      <c r="V1" t="s">
-        <v>283</v>
-      </c>
-      <c r="X1" t="s">
-        <v>619</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>632</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>636</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="2" spans="7:34">
-      <c r="G2" t="s">
-        <v>275</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" t="s">
+        <v>288</v>
+      </c>
+      <c r="U2" t="s">
+        <v>581</v>
+      </c>
+      <c r="X2" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>641</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="3" spans="9:36">
+      <c r="I3" t="s">
         <v>280</v>
       </c>
-      <c r="I2" t="s">
-        <v>284</v>
-      </c>
-      <c r="S2" t="s">
-        <v>577</v>
-      </c>
-      <c r="V2" t="s">
-        <v>284</v>
-      </c>
-      <c r="X2" t="s">
-        <v>620</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>633</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>637</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="3" spans="7:34">
-      <c r="G3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I3" t="s">
-        <v>285</v>
-      </c>
-      <c r="V3" t="s">
-        <v>285</v>
+      <c r="K3" t="s">
+        <v>289</v>
       </c>
       <c r="X3" t="s">
-        <v>621</v>
-      </c>
-      <c r="AC3" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="4" spans="9:36">
+      <c r="K4" t="s">
+        <v>290</v>
+      </c>
+      <c r="X4" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>608</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="5" spans="9:36">
+      <c r="K5" t="s">
+        <v>291</v>
+      </c>
+      <c r="X5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="6" spans="9:36">
+      <c r="K6" t="s">
+        <v>292</v>
+      </c>
+      <c r="X6" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>610</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="7" spans="9:36">
+      <c r="K7" t="s">
+        <v>293</v>
+      </c>
+      <c r="X7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="9:36">
+      <c r="K8" t="s">
+        <v>294</v>
+      </c>
+      <c r="X8" t="s">
+        <v>294</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>612</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="9" spans="9:36">
+      <c r="K9" t="s">
+        <v>295</v>
+      </c>
+      <c r="X9" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>613</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="9:36">
+      <c r="K10" t="s">
+        <v>296</v>
+      </c>
+      <c r="X10" t="s">
+        <v>588</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>614</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="11" spans="9:36">
+      <c r="K11" t="s">
+        <v>297</v>
+      </c>
+      <c r="X11" t="s">
+        <v>296</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>615</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="9:36">
+      <c r="K12" t="s">
+        <v>298</v>
+      </c>
+      <c r="X12" t="s">
+        <v>297</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>616</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="9:36">
+      <c r="K13" t="s">
+        <v>299</v>
+      </c>
+      <c r="X13" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14" spans="9:36">
+      <c r="K14" t="s">
+        <v>300</v>
+      </c>
+      <c r="X14" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>618</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="15" spans="9:36">
+      <c r="K15" t="s">
+        <v>301</v>
+      </c>
+      <c r="X15" t="s">
+        <v>589</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="16" spans="9:36">
+      <c r="K16" t="s">
+        <v>302</v>
+      </c>
+      <c r="X16" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="11:32">
+      <c r="K17" t="s">
+        <v>303</v>
+      </c>
+      <c r="X17" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="18" spans="11:32">
+      <c r="K18" t="s">
+        <v>304</v>
+      </c>
+      <c r="X18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="11:32">
+      <c r="K19" t="s">
+        <v>305</v>
+      </c>
+      <c r="X19" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="11:32">
+      <c r="K20" t="s">
+        <v>306</v>
+      </c>
+      <c r="X20" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="11:32">
+      <c r="K21" t="s">
+        <v>307</v>
+      </c>
+      <c r="X21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="22" spans="11:32">
+      <c r="K22" t="s">
+        <v>308</v>
+      </c>
+      <c r="X22" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="11:32">
+      <c r="K23" t="s">
+        <v>309</v>
+      </c>
+      <c r="X23" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="11:32">
+      <c r="K24" t="s">
+        <v>310</v>
+      </c>
+      <c r="X24" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="25" spans="11:32">
+      <c r="K25" t="s">
+        <v>311</v>
+      </c>
+      <c r="X25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="11:32">
+      <c r="K26" t="s">
+        <v>312</v>
+      </c>
+      <c r="X26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="11:32">
+      <c r="K27" t="s">
+        <v>313</v>
+      </c>
+      <c r="X27" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="28" spans="11:32">
+      <c r="K28" t="s">
+        <v>314</v>
+      </c>
+      <c r="X28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="29" spans="11:32">
+      <c r="K29" t="s">
+        <v>315</v>
+      </c>
+      <c r="X29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="11:32">
+      <c r="K30" t="s">
+        <v>316</v>
+      </c>
+      <c r="X30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="11:32">
+      <c r="K31" t="s">
+        <v>317</v>
+      </c>
+      <c r="X31" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="32" spans="11:32">
+      <c r="K32" t="s">
+        <v>318</v>
+      </c>
+      <c r="X32" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="11:24">
+      <c r="K33" t="s">
+        <v>319</v>
+      </c>
+      <c r="X33" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="34" spans="11:24">
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="X34" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="11:24">
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="X35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="11:24">
+      <c r="K36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="37" spans="11:24">
+      <c r="K37" t="s">
+        <v>323</v>
+      </c>
+      <c r="X37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="11:24">
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="X38" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="39" spans="11:24">
+      <c r="K39" t="s">
+        <v>325</v>
+      </c>
+      <c r="X39" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="40" spans="11:24">
+      <c r="K40" t="s">
+        <v>326</v>
+      </c>
+      <c r="X40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="11:24">
+      <c r="K41" t="s">
+        <v>327</v>
+      </c>
+      <c r="X41" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="42" spans="11:24">
+      <c r="K42" t="s">
+        <v>328</v>
+      </c>
+      <c r="X42" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="43" spans="11:24">
+      <c r="K43" t="s">
+        <v>329</v>
+      </c>
+      <c r="X43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="11:24">
+      <c r="K44" t="s">
+        <v>330</v>
+      </c>
+      <c r="X44" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="45" spans="11:24">
+      <c r="K45" t="s">
+        <v>331</v>
+      </c>
+      <c r="X45" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="46" spans="11:24">
+      <c r="K46" t="s">
+        <v>332</v>
+      </c>
+      <c r="X46" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="47" spans="11:24">
+      <c r="K47" t="s">
+        <v>333</v>
+      </c>
+      <c r="X47" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="48" spans="11:24">
+      <c r="K48" t="s">
+        <v>334</v>
+      </c>
+      <c r="X48" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="49" spans="11:24">
+      <c r="K49" t="s">
+        <v>335</v>
+      </c>
+      <c r="X49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="11:24">
+      <c r="K50" t="s">
+        <v>336</v>
+      </c>
+      <c r="X50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="11:24">
+      <c r="K51" t="s">
+        <v>337</v>
+      </c>
+      <c r="X51" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="52" spans="11:24">
+      <c r="K52" t="s">
+        <v>338</v>
+      </c>
+      <c r="X52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53" spans="11:24">
+      <c r="K53" t="s">
+        <v>339</v>
+      </c>
+      <c r="X53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="11:24">
+      <c r="K54" t="s">
+        <v>340</v>
+      </c>
+      <c r="X54" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="55" spans="11:24">
+      <c r="K55" t="s">
+        <v>341</v>
+      </c>
+      <c r="X55" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="56" spans="11:24">
+      <c r="K56" t="s">
+        <v>342</v>
+      </c>
+      <c r="X56" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="57" spans="11:24">
+      <c r="K57" t="s">
+        <v>343</v>
+      </c>
+      <c r="X57" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="58" spans="11:24">
+      <c r="K58" t="s">
+        <v>344</v>
+      </c>
+      <c r="X58" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="59" spans="11:24">
+      <c r="K59" t="s">
+        <v>345</v>
+      </c>
+      <c r="X59" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="60" spans="11:24">
+      <c r="K60" t="s">
+        <v>346</v>
+      </c>
+      <c r="X60" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="61" spans="11:24">
+      <c r="K61" t="s">
+        <v>347</v>
+      </c>
+      <c r="X61" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="62" spans="11:24">
+      <c r="K62" t="s">
+        <v>348</v>
+      </c>
+      <c r="X62" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="63" spans="11:24">
+      <c r="K63" t="s">
+        <v>349</v>
+      </c>
+      <c r="X63" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="64" spans="11:24">
+      <c r="K64" t="s">
+        <v>350</v>
+      </c>
+      <c r="X64" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="11:24">
+      <c r="K65" t="s">
+        <v>351</v>
+      </c>
+      <c r="X65" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="66" spans="11:24">
+      <c r="K66" t="s">
+        <v>352</v>
+      </c>
+      <c r="X66" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="67" spans="11:24">
+      <c r="K67" t="s">
+        <v>353</v>
+      </c>
+      <c r="X67" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="68" spans="11:24">
+      <c r="K68" t="s">
+        <v>354</v>
+      </c>
+      <c r="X68" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="11:24">
+      <c r="K69" t="s">
+        <v>355</v>
+      </c>
+      <c r="X69" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="70" spans="11:24">
+      <c r="K70" t="s">
+        <v>356</v>
+      </c>
+      <c r="X70" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="71" spans="11:24">
+      <c r="K71" t="s">
+        <v>357</v>
+      </c>
+      <c r="X71" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="72" spans="11:24">
+      <c r="K72" t="s">
+        <v>358</v>
+      </c>
+      <c r="X72" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="73" spans="11:24">
+      <c r="K73" t="s">
+        <v>359</v>
+      </c>
+      <c r="X73" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="74" spans="11:24">
+      <c r="K74" t="s">
+        <v>360</v>
+      </c>
+      <c r="X74" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="75" spans="11:24">
+      <c r="K75" t="s">
+        <v>361</v>
+      </c>
+      <c r="X75" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="76" spans="11:24">
+      <c r="K76" t="s">
+        <v>362</v>
+      </c>
+      <c r="X76" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="77" spans="11:24">
+      <c r="K77" t="s">
+        <v>363</v>
+      </c>
+      <c r="X77" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="78" spans="11:24">
+      <c r="K78" t="s">
+        <v>364</v>
+      </c>
+      <c r="X78" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="79" spans="11:24">
+      <c r="K79" t="s">
+        <v>365</v>
+      </c>
+      <c r="X79" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="11:24">
+      <c r="K80" t="s">
+        <v>366</v>
+      </c>
+      <c r="X80" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="81" spans="11:24">
+      <c r="K81" t="s">
+        <v>367</v>
+      </c>
+      <c r="X81" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="82" spans="11:24">
+      <c r="K82" t="s">
+        <v>368</v>
+      </c>
+      <c r="X82" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="83" spans="11:24">
+      <c r="K83" t="s">
+        <v>369</v>
+      </c>
+      <c r="X83" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="84" spans="11:24">
+      <c r="K84" t="s">
+        <v>370</v>
+      </c>
+      <c r="X84" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="85" spans="11:24">
+      <c r="K85" t="s">
+        <v>371</v>
+      </c>
+      <c r="X85" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="11:24">
+      <c r="K86" t="s">
+        <v>372</v>
+      </c>
+      <c r="X86" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="87" spans="11:24">
+      <c r="K87" t="s">
+        <v>373</v>
+      </c>
+      <c r="X87" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="88" spans="11:24">
+      <c r="K88" t="s">
+        <v>374</v>
+      </c>
+      <c r="X88" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="89" spans="11:24">
+      <c r="K89" t="s">
+        <v>375</v>
+      </c>
+      <c r="X89" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="90" spans="11:24">
+      <c r="K90" t="s">
+        <v>376</v>
+      </c>
+      <c r="X90" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="91" spans="11:24">
+      <c r="K91" t="s">
+        <v>377</v>
+      </c>
+      <c r="X91" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="92" spans="11:24">
+      <c r="K92" t="s">
+        <v>378</v>
+      </c>
+      <c r="X92" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="93" spans="11:24">
+      <c r="K93" t="s">
+        <v>379</v>
+      </c>
+      <c r="X93" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="94" spans="11:24">
+      <c r="K94" t="s">
+        <v>380</v>
+      </c>
+      <c r="X94" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="11:24">
+      <c r="K95" t="s">
+        <v>381</v>
+      </c>
+      <c r="X95" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="11:24">
+      <c r="K96" t="s">
+        <v>382</v>
+      </c>
+      <c r="X96" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="97" spans="11:24">
+      <c r="K97" t="s">
+        <v>383</v>
+      </c>
+      <c r="X97" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="11:24">
+      <c r="K98" t="s">
+        <v>384</v>
+      </c>
+      <c r="X98" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="99" spans="11:24">
+      <c r="K99" t="s">
+        <v>385</v>
+      </c>
+      <c r="X99" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="100" spans="11:24">
+      <c r="K100" t="s">
+        <v>386</v>
+      </c>
+      <c r="X100" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="101" spans="11:24">
+      <c r="K101" t="s">
+        <v>387</v>
+      </c>
+      <c r="X101" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="102" spans="11:24">
+      <c r="K102" t="s">
+        <v>388</v>
+      </c>
+      <c r="X102" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="11:24">
+      <c r="K103" t="s">
+        <v>389</v>
+      </c>
+      <c r="X103" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="104" spans="11:24">
+      <c r="K104" t="s">
+        <v>390</v>
+      </c>
+      <c r="X104" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="105" spans="11:24">
+      <c r="K105" t="s">
+        <v>391</v>
+      </c>
+      <c r="X105" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="11:24">
+      <c r="K106" t="s">
+        <v>392</v>
+      </c>
+      <c r="X106" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="107" spans="11:24">
+      <c r="K107" t="s">
+        <v>393</v>
+      </c>
+      <c r="X107" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="108" spans="11:24">
+      <c r="K108" t="s">
+        <v>394</v>
+      </c>
+      <c r="X108" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="109" spans="11:24">
+      <c r="K109" t="s">
+        <v>395</v>
+      </c>
+      <c r="X109" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110" spans="11:24">
+      <c r="K110" t="s">
+        <v>396</v>
+      </c>
+      <c r="X110" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="111" spans="11:24">
+      <c r="K111" t="s">
+        <v>397</v>
+      </c>
+      <c r="X111" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="112" spans="11:24">
+      <c r="K112" t="s">
+        <v>398</v>
+      </c>
+      <c r="X112" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="113" spans="11:24">
+      <c r="K113" t="s">
+        <v>399</v>
+      </c>
+      <c r="X113" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="114" spans="11:24">
+      <c r="K114" t="s">
+        <v>400</v>
+      </c>
+      <c r="X114" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="11:24">
+      <c r="K115" t="s">
+        <v>401</v>
+      </c>
+      <c r="X115" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="116" spans="11:24">
+      <c r="K116" t="s">
+        <v>402</v>
+      </c>
+      <c r="X116" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="117" spans="11:24">
+      <c r="K117" t="s">
+        <v>403</v>
+      </c>
+      <c r="X117" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="118" spans="11:24">
+      <c r="K118" t="s">
+        <v>404</v>
+      </c>
+      <c r="X118" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="119" spans="11:24">
+      <c r="K119" t="s">
+        <v>405</v>
+      </c>
+      <c r="X119" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="120" spans="11:24">
+      <c r="K120" t="s">
+        <v>406</v>
+      </c>
+      <c r="X120" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="121" spans="11:24">
+      <c r="K121" t="s">
+        <v>407</v>
+      </c>
+      <c r="X121" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="122" spans="11:24">
+      <c r="K122" t="s">
+        <v>408</v>
+      </c>
+      <c r="X122" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="123" spans="11:24">
+      <c r="K123" t="s">
+        <v>409</v>
+      </c>
+      <c r="X123" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="11:24">
+      <c r="K124" t="s">
+        <v>410</v>
+      </c>
+      <c r="X124" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="125" spans="11:24">
+      <c r="K125" t="s">
+        <v>411</v>
+      </c>
+      <c r="X125" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="11:24">
+      <c r="K126" t="s">
+        <v>412</v>
+      </c>
+      <c r="X126" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="127" spans="11:24">
+      <c r="K127" t="s">
+        <v>413</v>
+      </c>
+      <c r="X127" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="128" spans="11:24">
+      <c r="K128" t="s">
+        <v>414</v>
+      </c>
+      <c r="X128" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="129" spans="11:24">
+      <c r="K129" t="s">
+        <v>415</v>
+      </c>
+      <c r="X129" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="130" spans="11:24">
+      <c r="K130" t="s">
+        <v>416</v>
+      </c>
+      <c r="X130" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="131" spans="11:24">
+      <c r="K131" t="s">
+        <v>417</v>
+      </c>
+      <c r="X131" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="132" spans="11:24">
+      <c r="K132" t="s">
+        <v>418</v>
+      </c>
+      <c r="X132" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="133" spans="11:24">
+      <c r="K133" t="s">
+        <v>419</v>
+      </c>
+      <c r="X133" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="134" spans="11:24">
+      <c r="K134" t="s">
+        <v>420</v>
+      </c>
+      <c r="X134" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="135" spans="11:24">
+      <c r="K135" t="s">
+        <v>421</v>
+      </c>
+      <c r="X135" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="136" spans="11:24">
+      <c r="K136" t="s">
+        <v>422</v>
+      </c>
+      <c r="X136" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="137" spans="11:24">
+      <c r="K137" t="s">
+        <v>423</v>
+      </c>
+      <c r="X137" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="138" spans="11:24">
+      <c r="K138" t="s">
+        <v>424</v>
+      </c>
+      <c r="X138" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="139" spans="11:24">
+      <c r="K139" t="s">
+        <v>425</v>
+      </c>
+      <c r="X139" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="140" spans="11:24">
+      <c r="K140" t="s">
+        <v>426</v>
+      </c>
+      <c r="X140" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="141" spans="11:24">
+      <c r="K141" t="s">
+        <v>427</v>
+      </c>
+      <c r="X141" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="142" spans="11:24">
+      <c r="K142" t="s">
+        <v>428</v>
+      </c>
+      <c r="X142" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="143" spans="11:24">
+      <c r="K143" t="s">
+        <v>429</v>
+      </c>
+      <c r="X143" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="11:24">
+      <c r="K144" t="s">
+        <v>430</v>
+      </c>
+      <c r="X144" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="145" spans="11:24">
+      <c r="K145" t="s">
+        <v>431</v>
+      </c>
+      <c r="X145" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="146" spans="11:24">
+      <c r="K146" t="s">
+        <v>432</v>
+      </c>
+      <c r="X146" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="11:24">
+      <c r="K147" t="s">
+        <v>433</v>
+      </c>
+      <c r="X147" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="148" spans="11:24">
+      <c r="K148" t="s">
+        <v>434</v>
+      </c>
+      <c r="X148" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="149" spans="11:24">
+      <c r="K149" t="s">
+        <v>435</v>
+      </c>
+      <c r="X149" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="150" spans="11:24">
+      <c r="K150" t="s">
+        <v>436</v>
+      </c>
+      <c r="X150" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="151" spans="11:24">
+      <c r="K151" t="s">
+        <v>437</v>
+      </c>
+      <c r="X151" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="152" spans="11:24">
+      <c r="K152" t="s">
+        <v>438</v>
+      </c>
+      <c r="X152" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="153" spans="11:24">
+      <c r="K153" t="s">
+        <v>439</v>
+      </c>
+      <c r="X153" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="154" spans="11:24">
+      <c r="K154" t="s">
+        <v>440</v>
+      </c>
+      <c r="X154" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="155" spans="11:24">
+      <c r="K155" t="s">
+        <v>441</v>
+      </c>
+      <c r="X155" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="156" spans="11:24">
+      <c r="K156" t="s">
+        <v>442</v>
+      </c>
+      <c r="X156" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="157" spans="11:24">
+      <c r="K157" t="s">
+        <v>443</v>
+      </c>
+      <c r="X157" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="158" spans="11:24">
+      <c r="K158" t="s">
+        <v>444</v>
+      </c>
+      <c r="X158" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="11:24">
+      <c r="K159" t="s">
+        <v>445</v>
+      </c>
+      <c r="X159" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="160" spans="11:24">
+      <c r="K160" t="s">
+        <v>446</v>
+      </c>
+      <c r="X160" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="161" spans="11:24">
+      <c r="K161" t="s">
+        <v>447</v>
+      </c>
+      <c r="X161" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="162" spans="11:24">
+      <c r="K162" t="s">
+        <v>448</v>
+      </c>
+      <c r="X162" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="163" spans="11:24">
+      <c r="K163" t="s">
+        <v>449</v>
+      </c>
+      <c r="X163" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="164" spans="11:24">
+      <c r="K164" t="s">
+        <v>450</v>
+      </c>
+      <c r="X164" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="165" spans="11:24">
+      <c r="K165" t="s">
+        <v>451</v>
+      </c>
+      <c r="X165" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="166" spans="11:24">
+      <c r="K166" t="s">
+        <v>452</v>
+      </c>
+      <c r="X166" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="167" spans="11:24">
+      <c r="K167" t="s">
+        <v>453</v>
+      </c>
+      <c r="X167" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="168" spans="11:24">
+      <c r="K168" t="s">
+        <v>454</v>
+      </c>
+      <c r="X168" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="169" spans="11:24">
+      <c r="K169" t="s">
+        <v>455</v>
+      </c>
+      <c r="X169" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="170" spans="11:24">
+      <c r="K170" t="s">
+        <v>456</v>
+      </c>
+      <c r="X170" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="171" spans="11:24">
+      <c r="K171" t="s">
+        <v>457</v>
+      </c>
+      <c r="X171" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="172" spans="11:24">
+      <c r="K172" t="s">
+        <v>458</v>
+      </c>
+      <c r="X172" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="173" spans="11:24">
+      <c r="K173" t="s">
+        <v>459</v>
+      </c>
+      <c r="X173" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="174" spans="11:24">
+      <c r="K174" t="s">
+        <v>460</v>
+      </c>
+      <c r="X174" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="175" spans="11:24">
+      <c r="K175" t="s">
+        <v>461</v>
+      </c>
+      <c r="X175" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="176" spans="11:24">
+      <c r="K176" t="s">
+        <v>462</v>
+      </c>
+      <c r="X176" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="11:24">
+      <c r="K177" t="s">
+        <v>463</v>
+      </c>
+      <c r="X177" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="178" spans="11:24">
+      <c r="K178" t="s">
+        <v>464</v>
+      </c>
+      <c r="X178" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="179" spans="11:24">
+      <c r="K179" t="s">
+        <v>465</v>
+      </c>
+      <c r="X179" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="180" spans="11:24">
+      <c r="K180" t="s">
+        <v>466</v>
+      </c>
+      <c r="X180" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="181" spans="11:24">
+      <c r="K181" t="s">
+        <v>467</v>
+      </c>
+      <c r="X181" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="182" spans="11:24">
+      <c r="K182" t="s">
+        <v>468</v>
+      </c>
+      <c r="X182" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="183" spans="11:24">
+      <c r="K183" t="s">
+        <v>469</v>
+      </c>
+      <c r="X183" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="184" spans="11:24">
+      <c r="K184" t="s">
+        <v>470</v>
+      </c>
+      <c r="X184" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="185" spans="11:24">
+      <c r="K185" t="s">
+        <v>471</v>
+      </c>
+      <c r="X185" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="186" spans="11:24">
+      <c r="K186" t="s">
+        <v>472</v>
+      </c>
+      <c r="X186" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="187" spans="11:24">
+      <c r="K187" t="s">
+        <v>473</v>
+      </c>
+      <c r="X187" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="188" spans="11:24">
+      <c r="K188" t="s">
+        <v>474</v>
+      </c>
+      <c r="X188" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="189" spans="11:24">
+      <c r="K189" t="s">
+        <v>475</v>
+      </c>
+      <c r="X189" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="190" spans="11:24">
+      <c r="K190" t="s">
+        <v>476</v>
+      </c>
+      <c r="X190" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="191" spans="11:24">
+      <c r="K191" t="s">
+        <v>477</v>
+      </c>
+      <c r="X191" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="192" spans="11:24">
+      <c r="K192" t="s">
+        <v>478</v>
+      </c>
+      <c r="X192" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="193" spans="11:24">
+      <c r="K193" t="s">
+        <v>479</v>
+      </c>
+      <c r="X193" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="194" spans="11:24">
+      <c r="K194" t="s">
+        <v>480</v>
+      </c>
+      <c r="X194" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="195" spans="11:24">
+      <c r="K195" t="s">
+        <v>481</v>
+      </c>
+      <c r="X195" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="196" spans="11:24">
+      <c r="K196" t="s">
+        <v>482</v>
+      </c>
+      <c r="X196" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="197" spans="11:24">
+      <c r="K197" t="s">
+        <v>483</v>
+      </c>
+      <c r="X197" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="198" spans="11:24">
+      <c r="K198" t="s">
+        <v>484</v>
+      </c>
+      <c r="X198" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="199" spans="11:24">
+      <c r="K199" t="s">
+        <v>485</v>
+      </c>
+      <c r="X199" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="200" spans="11:24">
+      <c r="K200" t="s">
+        <v>486</v>
+      </c>
+      <c r="X200" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="201" spans="11:24">
+      <c r="K201" t="s">
+        <v>487</v>
+      </c>
+      <c r="X201" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="202" spans="11:24">
+      <c r="K202" t="s">
+        <v>488</v>
+      </c>
+      <c r="X202" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="203" spans="11:24">
+      <c r="K203" t="s">
+        <v>489</v>
+      </c>
+      <c r="X203" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="204" spans="11:24">
+      <c r="K204" t="s">
+        <v>490</v>
+      </c>
+      <c r="X204" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="205" spans="11:24">
+      <c r="K205" t="s">
+        <v>491</v>
+      </c>
+      <c r="X205" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="206" spans="11:24">
+      <c r="K206" t="s">
+        <v>492</v>
+      </c>
+      <c r="X206" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="207" spans="11:24">
+      <c r="K207" t="s">
+        <v>493</v>
+      </c>
+      <c r="X207" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="208" spans="11:24">
+      <c r="K208" t="s">
+        <v>494</v>
+      </c>
+      <c r="X208" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="209" spans="11:24">
+      <c r="K209" t="s">
+        <v>495</v>
+      </c>
+      <c r="X209" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="210" spans="11:24">
+      <c r="K210" t="s">
+        <v>496</v>
+      </c>
+      <c r="X210" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="211" spans="11:24">
+      <c r="K211" t="s">
+        <v>497</v>
+      </c>
+      <c r="X211" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="212" spans="11:24">
+      <c r="K212" t="s">
+        <v>498</v>
+      </c>
+      <c r="X212" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="213" spans="11:24">
+      <c r="K213" t="s">
+        <v>499</v>
+      </c>
+      <c r="X213" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="214" spans="11:24">
+      <c r="K214" t="s">
+        <v>500</v>
+      </c>
+      <c r="X214" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="215" spans="11:24">
+      <c r="K215" t="s">
+        <v>501</v>
+      </c>
+      <c r="X215" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="216" spans="11:24">
+      <c r="K216" t="s">
+        <v>502</v>
+      </c>
+      <c r="X216" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="217" spans="11:24">
+      <c r="K217" t="s">
+        <v>503</v>
+      </c>
+      <c r="X217" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="218" spans="11:24">
+      <c r="K218" t="s">
+        <v>504</v>
+      </c>
+      <c r="X218" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="219" spans="11:24">
+      <c r="K219" t="s">
+        <v>505</v>
+      </c>
+      <c r="X219" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="220" spans="11:24">
+      <c r="K220" t="s">
+        <v>506</v>
+      </c>
+      <c r="X220" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="221" spans="11:24">
+      <c r="K221" t="s">
+        <v>507</v>
+      </c>
+      <c r="X221" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="222" spans="11:24">
+      <c r="K222" t="s">
+        <v>508</v>
+      </c>
+      <c r="X222" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="223" spans="11:24">
+      <c r="K223" t="s">
+        <v>509</v>
+      </c>
+      <c r="X223" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="224" spans="11:24">
+      <c r="K224" t="s">
+        <v>510</v>
+      </c>
+      <c r="X224" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="225" spans="11:24">
+      <c r="K225" t="s">
+        <v>511</v>
+      </c>
+      <c r="X225" t="s">
         <v>603</v>
       </c>
-      <c r="AD3" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="4" spans="7:34">
-      <c r="I4" t="s">
-        <v>286</v>
-      </c>
-      <c r="V4" t="s">
-        <v>286</v>
-      </c>
-      <c r="AC4" t="s">
+    </row>
+    <row r="226" spans="11:24">
+      <c r="K226" t="s">
+        <v>512</v>
+      </c>
+      <c r="X226" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="227" spans="11:24">
+      <c r="K227" t="s">
+        <v>513</v>
+      </c>
+      <c r="X227" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="228" spans="11:24">
+      <c r="K228" t="s">
+        <v>514</v>
+      </c>
+      <c r="X228" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="229" spans="11:24">
+      <c r="K229" t="s">
+        <v>515</v>
+      </c>
+      <c r="X229" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="230" spans="11:24">
+      <c r="K230" t="s">
+        <v>516</v>
+      </c>
+      <c r="X230" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="231" spans="11:24">
+      <c r="K231" t="s">
+        <v>517</v>
+      </c>
+      <c r="X231" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="232" spans="11:24">
+      <c r="K232" t="s">
+        <v>518</v>
+      </c>
+      <c r="X232" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="233" spans="11:24">
+      <c r="K233" t="s">
+        <v>519</v>
+      </c>
+      <c r="X233" t="s">
         <v>604</v>
       </c>
-      <c r="AD4" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="5" spans="7:34">
-      <c r="I5" t="s">
-        <v>287</v>
-      </c>
-      <c r="V5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AC5" t="s">
+    </row>
+    <row r="234" spans="11:24">
+      <c r="K234" t="s">
+        <v>520</v>
+      </c>
+      <c r="X234" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="235" spans="11:24">
+      <c r="K235" t="s">
+        <v>521</v>
+      </c>
+      <c r="X235" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="236" spans="11:24">
+      <c r="K236" t="s">
+        <v>522</v>
+      </c>
+      <c r="X236" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="237" spans="11:24">
+      <c r="K237" t="s">
+        <v>523</v>
+      </c>
+      <c r="X237" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="238" spans="11:24">
+      <c r="K238" t="s">
+        <v>524</v>
+      </c>
+      <c r="X238" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="239" spans="11:24">
+      <c r="K239" t="s">
+        <v>525</v>
+      </c>
+      <c r="X239" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="240" spans="11:24">
+      <c r="K240" t="s">
+        <v>526</v>
+      </c>
+      <c r="X240" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="241" spans="11:24">
+      <c r="K241" t="s">
+        <v>527</v>
+      </c>
+      <c r="X241" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="242" spans="11:24">
+      <c r="K242" t="s">
+        <v>528</v>
+      </c>
+      <c r="X242" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="243" spans="11:24">
+      <c r="K243" t="s">
+        <v>529</v>
+      </c>
+      <c r="X243" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="244" spans="11:24">
+      <c r="K244" t="s">
+        <v>530</v>
+      </c>
+      <c r="X244" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="245" spans="11:24">
+      <c r="K245" t="s">
+        <v>531</v>
+      </c>
+      <c r="X245" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="246" spans="11:24">
+      <c r="K246" t="s">
+        <v>532</v>
+      </c>
+      <c r="X246" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="247" spans="11:24">
+      <c r="K247" t="s">
+        <v>533</v>
+      </c>
+      <c r="X247" t="s">
         <v>605</v>
       </c>
-      <c r="AD5" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="6" spans="7:34">
-      <c r="I6" t="s">
-        <v>288</v>
-      </c>
-      <c r="V6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC6" t="s">
+    </row>
+    <row r="248" spans="11:24">
+      <c r="K248" t="s">
+        <v>534</v>
+      </c>
+      <c r="X248" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="249" spans="11:24">
+      <c r="K249" t="s">
+        <v>535</v>
+      </c>
+      <c r="X249" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="250" spans="11:24">
+      <c r="K250" t="s">
+        <v>536</v>
+      </c>
+      <c r="X250" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="251" spans="11:24">
+      <c r="K251" t="s">
+        <v>537</v>
+      </c>
+      <c r="X251" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="252" spans="11:24">
+      <c r="K252" t="s">
+        <v>538</v>
+      </c>
+      <c r="X252" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="253" spans="11:24">
+      <c r="K253" t="s">
+        <v>539</v>
+      </c>
+      <c r="X253" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="254" spans="11:24">
+      <c r="K254" t="s">
+        <v>540</v>
+      </c>
+      <c r="X254" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="255" spans="11:24">
+      <c r="K255" t="s">
+        <v>541</v>
+      </c>
+      <c r="X255" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="256" spans="11:24">
+      <c r="K256" t="s">
+        <v>542</v>
+      </c>
+      <c r="X256" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="257" spans="11:24">
+      <c r="K257" t="s">
+        <v>543</v>
+      </c>
+      <c r="X257" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="258" spans="11:24">
+      <c r="K258" t="s">
+        <v>544</v>
+      </c>
+      <c r="X258" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="259" spans="11:24">
+      <c r="K259" t="s">
+        <v>545</v>
+      </c>
+      <c r="X259" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="260" spans="11:24">
+      <c r="K260" t="s">
+        <v>546</v>
+      </c>
+      <c r="X260" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="261" spans="11:24">
+      <c r="K261" t="s">
+        <v>547</v>
+      </c>
+      <c r="X261" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="262" spans="11:24">
+      <c r="K262" t="s">
+        <v>548</v>
+      </c>
+      <c r="X262" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="263" spans="11:24">
+      <c r="K263" t="s">
+        <v>549</v>
+      </c>
+      <c r="X263" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="264" spans="11:24">
+      <c r="K264" t="s">
+        <v>550</v>
+      </c>
+      <c r="X264" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="265" spans="11:24">
+      <c r="K265" t="s">
+        <v>551</v>
+      </c>
+      <c r="X265" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="266" spans="11:24">
+      <c r="K266" t="s">
+        <v>552</v>
+      </c>
+      <c r="X266" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="267" spans="11:24">
+      <c r="K267" t="s">
+        <v>553</v>
+      </c>
+      <c r="X267" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="268" spans="11:24">
+      <c r="K268" t="s">
+        <v>554</v>
+      </c>
+      <c r="X268" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="269" spans="11:24">
+      <c r="K269" t="s">
+        <v>555</v>
+      </c>
+      <c r="X269" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="270" spans="11:24">
+      <c r="K270" t="s">
+        <v>556</v>
+      </c>
+      <c r="X270" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="271" spans="11:24">
+      <c r="K271" t="s">
+        <v>557</v>
+      </c>
+      <c r="X271" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="272" spans="11:24">
+      <c r="K272" t="s">
+        <v>558</v>
+      </c>
+      <c r="X272" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="273" spans="11:24">
+      <c r="K273" t="s">
+        <v>559</v>
+      </c>
+      <c r="X273" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="274" spans="11:24">
+      <c r="X274" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="275" spans="11:24">
+      <c r="X275" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="276" spans="11:24">
+      <c r="X276" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="277" spans="11:24">
+      <c r="X277" t="s">
         <v>606</v>
       </c>
-      <c r="AD6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="7" spans="7:34">
-      <c r="I7" t="s">
-        <v>289</v>
-      </c>
-      <c r="V7" t="s">
-        <v>289</v>
-      </c>
-      <c r="AC7" t="s">
+    </row>
+    <row r="278" spans="11:24">
+      <c r="X278" t="s">
         <v>607</v>
       </c>
-      <c r="AD7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="8" spans="7:34">
-      <c r="I8" t="s">
-        <v>290</v>
-      </c>
-      <c r="V8" t="s">
-        <v>290</v>
-      </c>
-      <c r="AC8" t="s">
+    </row>
+    <row r="279" spans="11:24">
+      <c r="X279" t="s">
         <v>608</v>
       </c>
-      <c r="AD8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="9" spans="7:34">
-      <c r="I9" t="s">
-        <v>291</v>
-      </c>
-      <c r="V9" t="s">
-        <v>291</v>
-      </c>
-      <c r="AC9" t="s">
+    </row>
+    <row r="280" spans="11:24">
+      <c r="X280" t="s">
         <v>609</v>
       </c>
-      <c r="AD9" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="10" spans="7:34">
-      <c r="I10" t="s">
-        <v>292</v>
-      </c>
-      <c r="V10" t="s">
-        <v>584</v>
-      </c>
-      <c r="AC10" t="s">
+    </row>
+    <row r="281" spans="11:24">
+      <c r="X281" t="s">
         <v>610</v>
       </c>
-      <c r="AD10" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="11" spans="7:34">
-      <c r="I11" t="s">
-        <v>293</v>
-      </c>
-      <c r="V11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC11" t="s">
+    </row>
+    <row r="282" spans="11:24">
+      <c r="X282" t="s">
         <v>611</v>
       </c>
-      <c r="AD11" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="12" spans="7:34">
-      <c r="I12" t="s">
-        <v>294</v>
-      </c>
-      <c r="V12" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC12" t="s">
+    </row>
+    <row r="283" spans="11:24">
+      <c r="X283" t="s">
         <v>612</v>
       </c>
-      <c r="AD12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="13" spans="7:34">
-      <c r="I13" t="s">
-        <v>295</v>
-      </c>
-      <c r="V13" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC13" t="s">
+    </row>
+    <row r="284" spans="11:24">
+      <c r="X284" t="s">
         <v>613</v>
       </c>
-      <c r="AD13" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="14" spans="7:34">
-      <c r="I14" t="s">
-        <v>296</v>
-      </c>
-      <c r="V14" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC14" t="s">
+    </row>
+    <row r="285" spans="11:24">
+      <c r="X285" t="s">
         <v>614</v>
       </c>
-      <c r="AD14" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="15" spans="7:34">
-      <c r="I15" t="s">
-        <v>297</v>
-      </c>
-      <c r="V15" t="s">
-        <v>585</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="16" spans="7:34">
-      <c r="I16" t="s">
-        <v>298</v>
-      </c>
-      <c r="V16" t="s">
-        <v>296</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="9:30">
-      <c r="I17" t="s">
-        <v>299</v>
-      </c>
-      <c r="V17" t="s">
-        <v>297</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="18" spans="9:30">
-      <c r="I18" t="s">
-        <v>300</v>
-      </c>
-      <c r="V18" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="19" spans="9:30">
-      <c r="I19" t="s">
-        <v>301</v>
-      </c>
-      <c r="V19" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="20" spans="9:30">
-      <c r="I20" t="s">
-        <v>302</v>
-      </c>
-      <c r="V20" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="9:30">
-      <c r="I21" t="s">
-        <v>303</v>
-      </c>
-      <c r="V21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="22" spans="9:30">
-      <c r="I22" t="s">
-        <v>304</v>
-      </c>
-      <c r="V22" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="23" spans="9:30">
-      <c r="I23" t="s">
-        <v>305</v>
-      </c>
-      <c r="V23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="9:30">
-      <c r="I24" t="s">
-        <v>306</v>
-      </c>
-      <c r="V24" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="25" spans="9:30">
-      <c r="I25" t="s">
-        <v>307</v>
-      </c>
-      <c r="V25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="26" spans="9:30">
-      <c r="I26" t="s">
-        <v>308</v>
-      </c>
-      <c r="V26" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="9:30">
-      <c r="I27" t="s">
-        <v>309</v>
-      </c>
-      <c r="V27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="28" spans="9:30">
-      <c r="I28" t="s">
-        <v>310</v>
-      </c>
-      <c r="V28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="9:30">
-      <c r="I29" t="s">
-        <v>311</v>
-      </c>
-      <c r="V29" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="30" spans="9:30">
-      <c r="I30" t="s">
-        <v>312</v>
-      </c>
-      <c r="V30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="31" spans="9:30">
-      <c r="I31" t="s">
-        <v>313</v>
-      </c>
-      <c r="V31" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="32" spans="9:30">
-      <c r="I32" t="s">
-        <v>314</v>
-      </c>
-      <c r="V32" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="33" spans="9:22">
-      <c r="I33" t="s">
-        <v>315</v>
-      </c>
-      <c r="V33" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="34" spans="9:22">
-      <c r="I34" t="s">
-        <v>316</v>
-      </c>
-      <c r="V34" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="35" spans="9:22">
-      <c r="I35" t="s">
-        <v>317</v>
-      </c>
-      <c r="V35" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="36" spans="9:22">
-      <c r="I36" t="s">
-        <v>318</v>
-      </c>
-      <c r="V36" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="37" spans="9:22">
-      <c r="I37" t="s">
-        <v>319</v>
-      </c>
-      <c r="V37" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="38" spans="9:22">
-      <c r="I38" t="s">
-        <v>320</v>
-      </c>
-      <c r="V38" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="39" spans="9:22">
-      <c r="I39" t="s">
-        <v>321</v>
-      </c>
-      <c r="V39" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="40" spans="9:22">
-      <c r="I40" t="s">
-        <v>322</v>
-      </c>
-      <c r="V40" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="41" spans="9:22">
-      <c r="I41" t="s">
-        <v>323</v>
-      </c>
-      <c r="V41" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="42" spans="9:22">
-      <c r="I42" t="s">
-        <v>324</v>
-      </c>
-      <c r="V42" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="43" spans="9:22">
-      <c r="I43" t="s">
-        <v>325</v>
-      </c>
-      <c r="V43" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="44" spans="9:22">
-      <c r="I44" t="s">
-        <v>326</v>
-      </c>
-      <c r="V44" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="45" spans="9:22">
-      <c r="I45" t="s">
-        <v>327</v>
-      </c>
-      <c r="V45" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="46" spans="9:22">
-      <c r="I46" t="s">
-        <v>328</v>
-      </c>
-      <c r="V46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="47" spans="9:22">
-      <c r="I47" t="s">
-        <v>329</v>
-      </c>
-      <c r="V47" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="48" spans="9:22">
-      <c r="I48" t="s">
-        <v>330</v>
-      </c>
-      <c r="V48" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" spans="9:22">
-      <c r="I49" t="s">
-        <v>331</v>
-      </c>
-      <c r="V49" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="50" spans="9:22">
-      <c r="I50" t="s">
-        <v>332</v>
-      </c>
-      <c r="V50" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="51" spans="9:22">
-      <c r="I51" t="s">
-        <v>333</v>
-      </c>
-      <c r="V51" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="52" spans="9:22">
-      <c r="I52" t="s">
-        <v>334</v>
-      </c>
-      <c r="V52" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="53" spans="9:22">
-      <c r="I53" t="s">
-        <v>335</v>
-      </c>
-      <c r="V53" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" spans="9:22">
-      <c r="I54" t="s">
-        <v>336</v>
-      </c>
-      <c r="V54" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="55" spans="9:22">
-      <c r="I55" t="s">
-        <v>337</v>
-      </c>
-      <c r="V55" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="56" spans="9:22">
-      <c r="I56" t="s">
-        <v>338</v>
-      </c>
-      <c r="V56" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="57" spans="9:22">
-      <c r="I57" t="s">
-        <v>339</v>
-      </c>
-      <c r="V57" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="58" spans="9:22">
-      <c r="I58" t="s">
-        <v>340</v>
-      </c>
-      <c r="V58" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="59" spans="9:22">
-      <c r="I59" t="s">
-        <v>341</v>
-      </c>
-      <c r="V59" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="60" spans="9:22">
-      <c r="I60" t="s">
-        <v>342</v>
-      </c>
-      <c r="V60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="61" spans="9:22">
-      <c r="I61" t="s">
-        <v>343</v>
-      </c>
-      <c r="V61" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="62" spans="9:22">
-      <c r="I62" t="s">
-        <v>344</v>
-      </c>
-      <c r="V62" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="63" spans="9:22">
-      <c r="I63" t="s">
-        <v>345</v>
-      </c>
-      <c r="V63" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="64" spans="9:22">
-      <c r="I64" t="s">
-        <v>346</v>
-      </c>
-      <c r="V64" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="65" spans="9:22">
-      <c r="I65" t="s">
-        <v>347</v>
-      </c>
-      <c r="V65" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="66" spans="9:22">
-      <c r="I66" t="s">
-        <v>348</v>
-      </c>
-      <c r="V66" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="67" spans="9:22">
-      <c r="I67" t="s">
-        <v>349</v>
-      </c>
-      <c r="V67" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="68" spans="9:22">
-      <c r="I68" t="s">
-        <v>350</v>
-      </c>
-      <c r="V68" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="69" spans="9:22">
-      <c r="I69" t="s">
-        <v>351</v>
-      </c>
-      <c r="V69" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="70" spans="9:22">
-      <c r="I70" t="s">
-        <v>352</v>
-      </c>
-      <c r="V70" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="71" spans="9:22">
-      <c r="I71" t="s">
-        <v>353</v>
-      </c>
-      <c r="V71" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="72" spans="9:22">
-      <c r="I72" t="s">
-        <v>354</v>
-      </c>
-      <c r="V72" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="73" spans="9:22">
-      <c r="I73" t="s">
-        <v>355</v>
-      </c>
-      <c r="V73" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="74" spans="9:22">
-      <c r="I74" t="s">
-        <v>356</v>
-      </c>
-      <c r="V74" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="75" spans="9:22">
-      <c r="I75" t="s">
-        <v>357</v>
-      </c>
-      <c r="V75" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="76" spans="9:22">
-      <c r="I76" t="s">
-        <v>358</v>
-      </c>
-      <c r="V76" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="77" spans="9:22">
-      <c r="I77" t="s">
-        <v>359</v>
-      </c>
-      <c r="V77" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="78" spans="9:22">
-      <c r="I78" t="s">
-        <v>360</v>
-      </c>
-      <c r="V78" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="79" spans="9:22">
-      <c r="I79" t="s">
-        <v>361</v>
-      </c>
-      <c r="V79" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="80" spans="9:22">
-      <c r="I80" t="s">
-        <v>362</v>
-      </c>
-      <c r="V80" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="81" spans="9:22">
-      <c r="I81" t="s">
-        <v>363</v>
-      </c>
-      <c r="V81" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="82" spans="9:22">
-      <c r="I82" t="s">
-        <v>364</v>
-      </c>
-      <c r="V82" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="83" spans="9:22">
-      <c r="I83" t="s">
-        <v>365</v>
-      </c>
-      <c r="V83" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="84" spans="9:22">
-      <c r="I84" t="s">
-        <v>366</v>
-      </c>
-      <c r="V84" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="85" spans="9:22">
-      <c r="I85" t="s">
-        <v>367</v>
-      </c>
-      <c r="V85" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="86" spans="9:22">
-      <c r="I86" t="s">
-        <v>368</v>
-      </c>
-      <c r="V86" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="87" spans="9:22">
-      <c r="I87" t="s">
-        <v>369</v>
-      </c>
-      <c r="V87" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="88" spans="9:22">
-      <c r="I88" t="s">
-        <v>370</v>
-      </c>
-      <c r="V88" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="89" spans="9:22">
-      <c r="I89" t="s">
-        <v>371</v>
-      </c>
-      <c r="V89" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="90" spans="9:22">
-      <c r="I90" t="s">
-        <v>372</v>
-      </c>
-      <c r="V90" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="91" spans="9:22">
-      <c r="I91" t="s">
-        <v>373</v>
-      </c>
-      <c r="V91" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="92" spans="9:22">
-      <c r="I92" t="s">
-        <v>374</v>
-      </c>
-      <c r="V92" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="93" spans="9:22">
-      <c r="I93" t="s">
-        <v>375</v>
-      </c>
-      <c r="V93" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="94" spans="9:22">
-      <c r="I94" t="s">
-        <v>376</v>
-      </c>
-      <c r="V94" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="95" spans="9:22">
-      <c r="I95" t="s">
-        <v>377</v>
-      </c>
-      <c r="V95" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="96" spans="9:22">
-      <c r="I96" t="s">
-        <v>378</v>
-      </c>
-      <c r="V96" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="97" spans="9:22">
-      <c r="I97" t="s">
-        <v>379</v>
-      </c>
-      <c r="V97" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="98" spans="9:22">
-      <c r="I98" t="s">
-        <v>380</v>
-      </c>
-      <c r="V98" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="99" spans="9:22">
-      <c r="I99" t="s">
-        <v>381</v>
-      </c>
-      <c r="V99" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="100" spans="9:22">
-      <c r="I100" t="s">
-        <v>382</v>
-      </c>
-      <c r="V100" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="101" spans="9:22">
-      <c r="I101" t="s">
-        <v>383</v>
-      </c>
-      <c r="V101" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="102" spans="9:22">
-      <c r="I102" t="s">
-        <v>384</v>
-      </c>
-      <c r="V102" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="103" spans="9:22">
-      <c r="I103" t="s">
-        <v>385</v>
-      </c>
-      <c r="V103" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="104" spans="9:22">
-      <c r="I104" t="s">
-        <v>386</v>
-      </c>
-      <c r="V104" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="105" spans="9:22">
-      <c r="I105" t="s">
-        <v>387</v>
-      </c>
-      <c r="V105" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="106" spans="9:22">
-      <c r="I106" t="s">
-        <v>388</v>
-      </c>
-      <c r="V106" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="107" spans="9:22">
-      <c r="I107" t="s">
-        <v>389</v>
-      </c>
-      <c r="V107" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="108" spans="9:22">
-      <c r="I108" t="s">
-        <v>390</v>
-      </c>
-      <c r="V108" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="109" spans="9:22">
-      <c r="I109" t="s">
-        <v>391</v>
-      </c>
-      <c r="V109" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="110" spans="9:22">
-      <c r="I110" t="s">
-        <v>392</v>
-      </c>
-      <c r="V110" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="111" spans="9:22">
-      <c r="I111" t="s">
-        <v>393</v>
-      </c>
-      <c r="V111" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="112" spans="9:22">
-      <c r="I112" t="s">
-        <v>394</v>
-      </c>
-      <c r="V112" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="113" spans="9:22">
-      <c r="I113" t="s">
-        <v>395</v>
-      </c>
-      <c r="V113" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="114" spans="9:22">
-      <c r="I114" t="s">
-        <v>396</v>
-      </c>
-      <c r="V114" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="115" spans="9:22">
-      <c r="I115" t="s">
-        <v>397</v>
-      </c>
-      <c r="V115" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="116" spans="9:22">
-      <c r="I116" t="s">
-        <v>398</v>
-      </c>
-      <c r="V116" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="117" spans="9:22">
-      <c r="I117" t="s">
-        <v>399</v>
-      </c>
-      <c r="V117" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="118" spans="9:22">
-      <c r="I118" t="s">
-        <v>400</v>
-      </c>
-      <c r="V118" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="119" spans="9:22">
-      <c r="I119" t="s">
-        <v>401</v>
-      </c>
-      <c r="V119" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="120" spans="9:22">
-      <c r="I120" t="s">
-        <v>402</v>
-      </c>
-      <c r="V120" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="121" spans="9:22">
-      <c r="I121" t="s">
-        <v>403</v>
-      </c>
-      <c r="V121" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="122" spans="9:22">
-      <c r="I122" t="s">
-        <v>404</v>
-      </c>
-      <c r="V122" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="123" spans="9:22">
-      <c r="I123" t="s">
-        <v>405</v>
-      </c>
-      <c r="V123" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="124" spans="9:22">
-      <c r="I124" t="s">
-        <v>406</v>
-      </c>
-      <c r="V124" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="125" spans="9:22">
-      <c r="I125" t="s">
-        <v>407</v>
-      </c>
-      <c r="V125" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="126" spans="9:22">
-      <c r="I126" t="s">
-        <v>408</v>
-      </c>
-      <c r="V126" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="127" spans="9:22">
-      <c r="I127" t="s">
-        <v>409</v>
-      </c>
-      <c r="V127" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="128" spans="9:22">
-      <c r="I128" t="s">
-        <v>410</v>
-      </c>
-      <c r="V128" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="129" spans="9:22">
-      <c r="I129" t="s">
-        <v>411</v>
-      </c>
-      <c r="V129" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="130" spans="9:22">
-      <c r="I130" t="s">
-        <v>412</v>
-      </c>
-      <c r="V130" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="131" spans="9:22">
-      <c r="I131" t="s">
-        <v>413</v>
-      </c>
-      <c r="V131" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="132" spans="9:22">
-      <c r="I132" t="s">
-        <v>414</v>
-      </c>
-      <c r="V132" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="133" spans="9:22">
-      <c r="I133" t="s">
-        <v>415</v>
-      </c>
-      <c r="V133" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="134" spans="9:22">
-      <c r="I134" t="s">
-        <v>416</v>
-      </c>
-      <c r="V134" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="135" spans="9:22">
-      <c r="I135" t="s">
-        <v>417</v>
-      </c>
-      <c r="V135" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="136" spans="9:22">
-      <c r="I136" t="s">
-        <v>418</v>
-      </c>
-      <c r="V136" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="137" spans="9:22">
-      <c r="I137" t="s">
-        <v>419</v>
-      </c>
-      <c r="V137" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="138" spans="9:22">
-      <c r="I138" t="s">
-        <v>420</v>
-      </c>
-      <c r="V138" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="139" spans="9:22">
-      <c r="I139" t="s">
-        <v>421</v>
-      </c>
-      <c r="V139" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="140" spans="9:22">
-      <c r="I140" t="s">
-        <v>422</v>
-      </c>
-      <c r="V140" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="141" spans="9:22">
-      <c r="I141" t="s">
-        <v>423</v>
-      </c>
-      <c r="V141" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="142" spans="9:22">
-      <c r="I142" t="s">
-        <v>424</v>
-      </c>
-      <c r="V142" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="143" spans="9:22">
-      <c r="I143" t="s">
-        <v>425</v>
-      </c>
-      <c r="V143" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="144" spans="9:22">
-      <c r="I144" t="s">
-        <v>426</v>
-      </c>
-      <c r="V144" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="145" spans="9:22">
-      <c r="I145" t="s">
-        <v>427</v>
-      </c>
-      <c r="V145" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="146" spans="9:22">
-      <c r="I146" t="s">
-        <v>428</v>
-      </c>
-      <c r="V146" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="147" spans="9:22">
-      <c r="I147" t="s">
-        <v>429</v>
-      </c>
-      <c r="V147" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="148" spans="9:22">
-      <c r="I148" t="s">
-        <v>430</v>
-      </c>
-      <c r="V148" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="149" spans="9:22">
-      <c r="I149" t="s">
-        <v>431</v>
-      </c>
-      <c r="V149" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="150" spans="9:22">
-      <c r="I150" t="s">
-        <v>432</v>
-      </c>
-      <c r="V150" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="151" spans="9:22">
-      <c r="I151" t="s">
-        <v>433</v>
-      </c>
-      <c r="V151" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="152" spans="9:22">
-      <c r="I152" t="s">
-        <v>434</v>
-      </c>
-      <c r="V152" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="153" spans="9:22">
-      <c r="I153" t="s">
-        <v>435</v>
-      </c>
-      <c r="V153" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="154" spans="9:22">
-      <c r="I154" t="s">
-        <v>436</v>
-      </c>
-      <c r="V154" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="155" spans="9:22">
-      <c r="I155" t="s">
-        <v>437</v>
-      </c>
-      <c r="V155" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="156" spans="9:22">
-      <c r="I156" t="s">
-        <v>438</v>
-      </c>
-      <c r="V156" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="157" spans="9:22">
-      <c r="I157" t="s">
-        <v>439</v>
-      </c>
-      <c r="V157" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="158" spans="9:22">
-      <c r="I158" t="s">
-        <v>440</v>
-      </c>
-      <c r="V158" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="159" spans="9:22">
-      <c r="I159" t="s">
-        <v>441</v>
-      </c>
-      <c r="V159" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="160" spans="9:22">
-      <c r="I160" t="s">
-        <v>442</v>
-      </c>
-      <c r="V160" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="161" spans="9:22">
-      <c r="I161" t="s">
-        <v>443</v>
-      </c>
-      <c r="V161" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="162" spans="9:22">
-      <c r="I162" t="s">
-        <v>444</v>
-      </c>
-      <c r="V162" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="163" spans="9:22">
-      <c r="I163" t="s">
-        <v>445</v>
-      </c>
-      <c r="V163" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="164" spans="9:22">
-      <c r="I164" t="s">
-        <v>446</v>
-      </c>
-      <c r="V164" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="165" spans="9:22">
-      <c r="I165" t="s">
-        <v>447</v>
-      </c>
-      <c r="V165" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="166" spans="9:22">
-      <c r="I166" t="s">
-        <v>448</v>
-      </c>
-      <c r="V166" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="167" spans="9:22">
-      <c r="I167" t="s">
-        <v>449</v>
-      </c>
-      <c r="V167" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="168" spans="9:22">
-      <c r="I168" t="s">
-        <v>450</v>
-      </c>
-      <c r="V168" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="169" spans="9:22">
-      <c r="I169" t="s">
-        <v>451</v>
-      </c>
-      <c r="V169" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="170" spans="9:22">
-      <c r="I170" t="s">
-        <v>452</v>
-      </c>
-      <c r="V170" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="171" spans="9:22">
-      <c r="I171" t="s">
-        <v>453</v>
-      </c>
-      <c r="V171" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="172" spans="9:22">
-      <c r="I172" t="s">
-        <v>454</v>
-      </c>
-      <c r="V172" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="173" spans="9:22">
-      <c r="I173" t="s">
-        <v>455</v>
-      </c>
-      <c r="V173" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="174" spans="9:22">
-      <c r="I174" t="s">
-        <v>456</v>
-      </c>
-      <c r="V174" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="175" spans="9:22">
-      <c r="I175" t="s">
-        <v>457</v>
-      </c>
-      <c r="V175" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="176" spans="9:22">
-      <c r="I176" t="s">
-        <v>458</v>
-      </c>
-      <c r="V176" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="177" spans="9:22">
-      <c r="I177" t="s">
-        <v>459</v>
-      </c>
-      <c r="V177" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="178" spans="9:22">
-      <c r="I178" t="s">
-        <v>460</v>
-      </c>
-      <c r="V178" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="179" spans="9:22">
-      <c r="I179" t="s">
-        <v>461</v>
-      </c>
-      <c r="V179" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="180" spans="9:22">
-      <c r="I180" t="s">
-        <v>462</v>
-      </c>
-      <c r="V180" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="181" spans="9:22">
-      <c r="I181" t="s">
-        <v>463</v>
-      </c>
-      <c r="V181" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="182" spans="9:22">
-      <c r="I182" t="s">
-        <v>464</v>
-      </c>
-      <c r="V182" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="183" spans="9:22">
-      <c r="I183" t="s">
-        <v>465</v>
-      </c>
-      <c r="V183" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="184" spans="9:22">
-      <c r="I184" t="s">
-        <v>466</v>
-      </c>
-      <c r="V184" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="185" spans="9:22">
-      <c r="I185" t="s">
-        <v>467</v>
-      </c>
-      <c r="V185" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="186" spans="9:22">
-      <c r="I186" t="s">
-        <v>468</v>
-      </c>
-      <c r="V186" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="187" spans="9:22">
-      <c r="I187" t="s">
-        <v>469</v>
-      </c>
-      <c r="V187" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="188" spans="9:22">
-      <c r="I188" t="s">
-        <v>470</v>
-      </c>
-      <c r="V188" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="189" spans="9:22">
-      <c r="I189" t="s">
-        <v>471</v>
-      </c>
-      <c r="V189" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="190" spans="9:22">
-      <c r="I190" t="s">
-        <v>472</v>
-      </c>
-      <c r="V190" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="191" spans="9:22">
-      <c r="I191" t="s">
-        <v>473</v>
-      </c>
-      <c r="V191" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="192" spans="9:22">
-      <c r="I192" t="s">
-        <v>474</v>
-      </c>
-      <c r="V192" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="193" spans="9:22">
-      <c r="I193" t="s">
-        <v>475</v>
-      </c>
-      <c r="V193" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="194" spans="9:22">
-      <c r="I194" t="s">
-        <v>476</v>
-      </c>
-      <c r="V194" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="195" spans="9:22">
-      <c r="I195" t="s">
-        <v>477</v>
-      </c>
-      <c r="V195" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="196" spans="9:22">
-      <c r="I196" t="s">
-        <v>478</v>
-      </c>
-      <c r="V196" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="197" spans="9:22">
-      <c r="I197" t="s">
-        <v>479</v>
-      </c>
-      <c r="V197" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="198" spans="9:22">
-      <c r="I198" t="s">
-        <v>480</v>
-      </c>
-      <c r="V198" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="199" spans="9:22">
-      <c r="I199" t="s">
-        <v>481</v>
-      </c>
-      <c r="V199" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="200" spans="9:22">
-      <c r="I200" t="s">
-        <v>482</v>
-      </c>
-      <c r="V200" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="201" spans="9:22">
-      <c r="I201" t="s">
-        <v>483</v>
-      </c>
-      <c r="V201" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="202" spans="9:22">
-      <c r="I202" t="s">
-        <v>484</v>
-      </c>
-      <c r="V202" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="203" spans="9:22">
-      <c r="I203" t="s">
-        <v>485</v>
-      </c>
-      <c r="V203" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="204" spans="9:22">
-      <c r="I204" t="s">
-        <v>486</v>
-      </c>
-      <c r="V204" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="205" spans="9:22">
-      <c r="I205" t="s">
-        <v>487</v>
-      </c>
-      <c r="V205" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="206" spans="9:22">
-      <c r="I206" t="s">
-        <v>488</v>
-      </c>
-      <c r="V206" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="207" spans="9:22">
-      <c r="I207" t="s">
-        <v>489</v>
-      </c>
-      <c r="V207" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="208" spans="9:22">
-      <c r="I208" t="s">
-        <v>490</v>
-      </c>
-      <c r="V208" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="209" spans="9:22">
-      <c r="I209" t="s">
-        <v>491</v>
-      </c>
-      <c r="V209" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="210" spans="9:22">
-      <c r="I210" t="s">
-        <v>492</v>
-      </c>
-      <c r="V210" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="211" spans="9:22">
-      <c r="I211" t="s">
-        <v>493</v>
-      </c>
-      <c r="V211" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="212" spans="9:22">
-      <c r="I212" t="s">
-        <v>494</v>
-      </c>
-      <c r="V212" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="213" spans="9:22">
-      <c r="I213" t="s">
-        <v>495</v>
-      </c>
-      <c r="V213" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="214" spans="9:22">
-      <c r="I214" t="s">
-        <v>496</v>
-      </c>
-      <c r="V214" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="215" spans="9:22">
-      <c r="I215" t="s">
-        <v>497</v>
-      </c>
-      <c r="V215" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="216" spans="9:22">
-      <c r="I216" t="s">
-        <v>498</v>
-      </c>
-      <c r="V216" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="217" spans="9:22">
-      <c r="I217" t="s">
-        <v>499</v>
-      </c>
-      <c r="V217" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="218" spans="9:22">
-      <c r="I218" t="s">
-        <v>500</v>
-      </c>
-      <c r="V218" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="219" spans="9:22">
-      <c r="I219" t="s">
-        <v>501</v>
-      </c>
-      <c r="V219" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="220" spans="9:22">
-      <c r="I220" t="s">
-        <v>502</v>
-      </c>
-      <c r="V220" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="221" spans="9:22">
-      <c r="I221" t="s">
-        <v>503</v>
-      </c>
-      <c r="V221" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="222" spans="9:22">
-      <c r="I222" t="s">
-        <v>504</v>
-      </c>
-      <c r="V222" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="223" spans="9:22">
-      <c r="I223" t="s">
-        <v>505</v>
-      </c>
-      <c r="V223" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="224" spans="9:22">
-      <c r="I224" t="s">
-        <v>506</v>
-      </c>
-      <c r="V224" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="225" spans="9:22">
-      <c r="I225" t="s">
-        <v>507</v>
-      </c>
-      <c r="V225" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="226" spans="9:22">
-      <c r="I226" t="s">
-        <v>508</v>
-      </c>
-      <c r="V226" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="227" spans="9:22">
-      <c r="I227" t="s">
-        <v>509</v>
-      </c>
-      <c r="V227" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="228" spans="9:22">
-      <c r="I228" t="s">
-        <v>510</v>
-      </c>
-      <c r="V228" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="229" spans="9:22">
-      <c r="I229" t="s">
-        <v>511</v>
-      </c>
-      <c r="V229" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="230" spans="9:22">
-      <c r="I230" t="s">
-        <v>512</v>
-      </c>
-      <c r="V230" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="231" spans="9:22">
-      <c r="I231" t="s">
-        <v>513</v>
-      </c>
-      <c r="V231" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="232" spans="9:22">
-      <c r="I232" t="s">
-        <v>514</v>
-      </c>
-      <c r="V232" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="233" spans="9:22">
-      <c r="I233" t="s">
-        <v>515</v>
-      </c>
-      <c r="V233" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="234" spans="9:22">
-      <c r="I234" t="s">
-        <v>516</v>
-      </c>
-      <c r="V234" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="235" spans="9:22">
-      <c r="I235" t="s">
-        <v>517</v>
-      </c>
-      <c r="V235" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="236" spans="9:22">
-      <c r="I236" t="s">
-        <v>518</v>
-      </c>
-      <c r="V236" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="237" spans="9:22">
-      <c r="I237" t="s">
-        <v>519</v>
-      </c>
-      <c r="V237" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="238" spans="9:22">
-      <c r="I238" t="s">
-        <v>520</v>
-      </c>
-      <c r="V238" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="239" spans="9:22">
-      <c r="I239" t="s">
-        <v>521</v>
-      </c>
-      <c r="V239" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="240" spans="9:22">
-      <c r="I240" t="s">
-        <v>522</v>
-      </c>
-      <c r="V240" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="241" spans="9:22">
-      <c r="I241" t="s">
-        <v>523</v>
-      </c>
-      <c r="V241" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="242" spans="9:22">
-      <c r="I242" t="s">
-        <v>524</v>
-      </c>
-      <c r="V242" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="243" spans="9:22">
-      <c r="I243" t="s">
-        <v>525</v>
-      </c>
-      <c r="V243" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="244" spans="9:22">
-      <c r="I244" t="s">
-        <v>526</v>
-      </c>
-      <c r="V244" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="245" spans="9:22">
-      <c r="I245" t="s">
-        <v>527</v>
-      </c>
-      <c r="V245" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="246" spans="9:22">
-      <c r="I246" t="s">
-        <v>528</v>
-      </c>
-      <c r="V246" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="247" spans="9:22">
-      <c r="I247" t="s">
-        <v>529</v>
-      </c>
-      <c r="V247" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="248" spans="9:22">
-      <c r="I248" t="s">
-        <v>530</v>
-      </c>
-      <c r="V248" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="249" spans="9:22">
-      <c r="I249" t="s">
-        <v>531</v>
-      </c>
-      <c r="V249" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="250" spans="9:22">
-      <c r="I250" t="s">
-        <v>532</v>
-      </c>
-      <c r="V250" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="251" spans="9:22">
-      <c r="I251" t="s">
-        <v>533</v>
-      </c>
-      <c r="V251" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="252" spans="9:22">
-      <c r="I252" t="s">
-        <v>534</v>
-      </c>
-      <c r="V252" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="253" spans="9:22">
-      <c r="I253" t="s">
-        <v>535</v>
-      </c>
-      <c r="V253" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="254" spans="9:22">
-      <c r="I254" t="s">
-        <v>536</v>
-      </c>
-      <c r="V254" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="255" spans="9:22">
-      <c r="I255" t="s">
-        <v>537</v>
-      </c>
-      <c r="V255" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="256" spans="9:22">
-      <c r="I256" t="s">
-        <v>538</v>
-      </c>
-      <c r="V256" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="257" spans="9:22">
-      <c r="I257" t="s">
-        <v>539</v>
-      </c>
-      <c r="V257" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="258" spans="9:22">
-      <c r="I258" t="s">
-        <v>540</v>
-      </c>
-      <c r="V258" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="259" spans="9:22">
-      <c r="I259" t="s">
-        <v>541</v>
-      </c>
-      <c r="V259" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="260" spans="9:22">
-      <c r="I260" t="s">
-        <v>542</v>
-      </c>
-      <c r="V260" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="261" spans="9:22">
-      <c r="I261" t="s">
-        <v>543</v>
-      </c>
-      <c r="V261" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="262" spans="9:22">
-      <c r="I262" t="s">
-        <v>544</v>
-      </c>
-      <c r="V262" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="263" spans="9:22">
-      <c r="I263" t="s">
-        <v>545</v>
-      </c>
-      <c r="V263" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="264" spans="9:22">
-      <c r="I264" t="s">
-        <v>546</v>
-      </c>
-      <c r="V264" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="265" spans="9:22">
-      <c r="I265" t="s">
-        <v>547</v>
-      </c>
-      <c r="V265" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="266" spans="9:22">
-      <c r="I266" t="s">
-        <v>548</v>
-      </c>
-      <c r="V266" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="267" spans="9:22">
-      <c r="I267" t="s">
-        <v>549</v>
-      </c>
-      <c r="V267" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="268" spans="9:22">
-      <c r="I268" t="s">
-        <v>550</v>
-      </c>
-      <c r="V268" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="269" spans="9:22">
-      <c r="I269" t="s">
-        <v>551</v>
-      </c>
-      <c r="V269" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="270" spans="9:22">
-      <c r="I270" t="s">
-        <v>552</v>
-      </c>
-      <c r="V270" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="271" spans="9:22">
-      <c r="I271" t="s">
-        <v>553</v>
-      </c>
-      <c r="V271" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="272" spans="9:22">
-      <c r="I272" t="s">
-        <v>554</v>
-      </c>
-      <c r="V272" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="273" spans="9:22">
-      <c r="I273" t="s">
-        <v>555</v>
-      </c>
-      <c r="V273" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="274" spans="9:22">
-      <c r="V274" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="275" spans="9:22">
-      <c r="V275" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="276" spans="9:22">
-      <c r="V276" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="277" spans="9:22">
-      <c r="V277" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="278" spans="9:22">
-      <c r="V278" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="279" spans="9:22">
-      <c r="V279" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="280" spans="9:22">
-      <c r="V280" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="281" spans="9:22">
-      <c r="V281" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="282" spans="9:22">
-      <c r="V282" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="283" spans="9:22">
-      <c r="V283" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="284" spans="9:22">
-      <c r="V284" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="285" spans="9:22">
-      <c r="V285" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="286" spans="9:22">
-      <c r="V286" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="287" spans="9:22">
-      <c r="V287" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="288" spans="9:22">
-      <c r="V288" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="289" spans="22:22">
-      <c r="V289" t="s">
-        <v>614</v>
+    </row>
+    <row r="286" spans="11:24">
+      <c r="X286" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="287" spans="11:24">
+      <c r="X287" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="288" spans="11:24">
+      <c r="X288" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="289" spans="24:24">
+      <c r="X289" t="s">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -21,7 +21,7 @@
     <definedName name="countryoftravel">'cv_sample'!$K$1:$K$273</definedName>
     <definedName name="environmentalsample">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$X$1:$X$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$X$1:$X$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$Z$1:$Z$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AE$1:$AE$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AF$1:$AF$17</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="689">
   <si>
     <t>alias</t>
   </si>
@@ -1772,13 +1772,13 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: week, month, year, day)</t>
   </si>
   <si>
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m2, m3, g, L, kg)</t>
   </si>
   <si>
     <t>No</t>
@@ -1823,7 +1823,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1835,12 +1835,21 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1934,7 +1943,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+    <t>(Optional) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: centuries, hours, seconds, months, weeks, minutes, days, decades, years)</t>
   </si>
   <si>
     <t>host taxid</t>
@@ -2096,7 +2105,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm, m)</t>
   </si>
 </sst>
 </file>
@@ -3710,91 +3719,91 @@
         <v>586</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="150" customHeight="1">
@@ -3868,91 +3877,91 @@
         <v>587</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -3991,7 +4000,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AJ289"/>
+  <dimension ref="I1:AJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4014,13 +4023,13 @@
         <v>287</v>
       </c>
       <c r="Z1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AE1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AF1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AJ1" t="s">
         <v>580</v>
@@ -4043,13 +4052,13 @@
         <v>288</v>
       </c>
       <c r="Z2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AE2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AF2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AJ2" t="s">
         <v>581</v>
@@ -4066,13 +4075,13 @@
         <v>289</v>
       </c>
       <c r="Z3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AE3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AF3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="9:36">
@@ -4083,10 +4092,10 @@
         <v>290</v>
       </c>
       <c r="AE4" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AF4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="9:36">
@@ -4097,10 +4106,10 @@
         <v>291</v>
       </c>
       <c r="AE5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AF5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="9:36">
@@ -4111,10 +4120,10 @@
         <v>292</v>
       </c>
       <c r="AE6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AF6" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="9:36">
@@ -4125,10 +4134,10 @@
         <v>293</v>
       </c>
       <c r="AE7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AF7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="9:36">
@@ -4139,10 +4148,10 @@
         <v>294</v>
       </c>
       <c r="AE8" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AF8" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="9:36">
@@ -4153,10 +4162,10 @@
         <v>295</v>
       </c>
       <c r="AE9" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AF9" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="9:36">
@@ -4167,10 +4176,10 @@
         <v>588</v>
       </c>
       <c r="AE10" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AF10" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="9:36">
@@ -4181,10 +4190,10 @@
         <v>296</v>
       </c>
       <c r="AE11" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AF11" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="9:36">
@@ -4195,10 +4204,10 @@
         <v>297</v>
       </c>
       <c r="AE12" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AF12" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="9:36">
@@ -4209,10 +4218,10 @@
         <v>298</v>
       </c>
       <c r="AE13" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AF13" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="9:36">
@@ -4223,10 +4232,10 @@
         <v>299</v>
       </c>
       <c r="AE14" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AF14" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="9:36">
@@ -4237,7 +4246,7 @@
         <v>589</v>
       </c>
       <c r="AF15" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="9:36">
@@ -4259,7 +4268,7 @@
         <v>301</v>
       </c>
       <c r="AF17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="11:32">
@@ -4699,7 +4708,7 @@
         <v>358</v>
       </c>
       <c r="X72" t="s">
-        <v>594</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="11:24">
@@ -4707,7 +4716,7 @@
         <v>359</v>
       </c>
       <c r="X73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="11:24">
@@ -4715,7 +4724,7 @@
         <v>360</v>
       </c>
       <c r="X74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="11:24">
@@ -4723,7 +4732,7 @@
         <v>361</v>
       </c>
       <c r="X75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="11:24">
@@ -4731,7 +4740,7 @@
         <v>362</v>
       </c>
       <c r="X76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="11:24">
@@ -4739,7 +4748,7 @@
         <v>363</v>
       </c>
       <c r="X77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="11:24">
@@ -4747,7 +4756,7 @@
         <v>364</v>
       </c>
       <c r="X78" t="s">
-        <v>359</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="11:24">
@@ -5291,7 +5300,7 @@
         <v>432</v>
       </c>
       <c r="X146" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147" spans="11:24">
@@ -5299,7 +5308,7 @@
         <v>433</v>
       </c>
       <c r="X147" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="11:24">
@@ -5307,7 +5316,7 @@
         <v>434</v>
       </c>
       <c r="X148" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="11:24">
@@ -5315,7 +5324,7 @@
         <v>435</v>
       </c>
       <c r="X149" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="11:24">
@@ -5411,7 +5420,7 @@
         <v>447</v>
       </c>
       <c r="X161" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="162" spans="11:24">
@@ -5427,7 +5436,7 @@
         <v>449</v>
       </c>
       <c r="X163" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" spans="11:24">
@@ -5499,7 +5508,7 @@
         <v>458</v>
       </c>
       <c r="X172" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="173" spans="11:24">
@@ -5611,7 +5620,7 @@
         <v>472</v>
       </c>
       <c r="X186" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="11:24">
@@ -5619,7 +5628,7 @@
         <v>473</v>
       </c>
       <c r="X187" t="s">
-        <v>468</v>
+        <v>603</v>
       </c>
     </row>
     <row r="188" spans="11:24">
@@ -5627,7 +5636,7 @@
         <v>474</v>
       </c>
       <c r="X188" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="11:24">
@@ -5635,7 +5644,7 @@
         <v>475</v>
       </c>
       <c r="X189" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="11:24">
@@ -5643,7 +5652,7 @@
         <v>476</v>
       </c>
       <c r="X190" t="s">
-        <v>601</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="11:24">
@@ -5651,7 +5660,7 @@
         <v>477</v>
       </c>
       <c r="X191" t="s">
-        <v>471</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="11:24">
@@ -5659,7 +5668,7 @@
         <v>478</v>
       </c>
       <c r="X192" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="11:24">
@@ -5667,7 +5676,7 @@
         <v>479</v>
       </c>
       <c r="X193" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="11:24">
@@ -5675,7 +5684,7 @@
         <v>480</v>
       </c>
       <c r="X194" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="11:24">
@@ -5683,7 +5692,7 @@
         <v>481</v>
       </c>
       <c r="X195" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="11:24">
@@ -5691,7 +5700,7 @@
         <v>482</v>
       </c>
       <c r="X196" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="11:24">
@@ -5699,7 +5708,7 @@
         <v>483</v>
       </c>
       <c r="X197" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="11:24">
@@ -5707,7 +5716,7 @@
         <v>484</v>
       </c>
       <c r="X198" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="11:24">
@@ -5715,7 +5724,7 @@
         <v>485</v>
       </c>
       <c r="X199" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="11:24">
@@ -5723,7 +5732,7 @@
         <v>486</v>
       </c>
       <c r="X200" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="11:24">
@@ -5731,7 +5740,7 @@
         <v>487</v>
       </c>
       <c r="X201" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="11:24">
@@ -5739,7 +5748,7 @@
         <v>488</v>
       </c>
       <c r="X202" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="11:24">
@@ -5747,7 +5756,7 @@
         <v>489</v>
       </c>
       <c r="X203" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="11:24">
@@ -5755,7 +5764,7 @@
         <v>490</v>
       </c>
       <c r="X204" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="11:24">
@@ -5763,7 +5772,7 @@
         <v>491</v>
       </c>
       <c r="X205" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="11:24">
@@ -5771,7 +5780,7 @@
         <v>492</v>
       </c>
       <c r="X206" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="11:24">
@@ -5779,7 +5788,7 @@
         <v>493</v>
       </c>
       <c r="X207" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="11:24">
@@ -5787,7 +5796,7 @@
         <v>494</v>
       </c>
       <c r="X208" t="s">
-        <v>602</v>
+        <v>487</v>
       </c>
     </row>
     <row r="209" spans="11:24">
@@ -5795,7 +5804,7 @@
         <v>495</v>
       </c>
       <c r="X209" t="s">
-        <v>488</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210" spans="11:24">
@@ -5803,7 +5812,7 @@
         <v>496</v>
       </c>
       <c r="X210" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="11:24">
@@ -5811,7 +5820,7 @@
         <v>497</v>
       </c>
       <c r="X211" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="11:24">
@@ -5819,7 +5828,7 @@
         <v>498</v>
       </c>
       <c r="X212" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="11:24">
@@ -5827,7 +5836,7 @@
         <v>499</v>
       </c>
       <c r="X213" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="11:24">
@@ -5835,7 +5844,7 @@
         <v>500</v>
       </c>
       <c r="X214" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="11:24">
@@ -5843,7 +5852,7 @@
         <v>501</v>
       </c>
       <c r="X215" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="11:24">
@@ -5851,7 +5860,7 @@
         <v>502</v>
       </c>
       <c r="X216" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="11:24">
@@ -5859,7 +5868,7 @@
         <v>503</v>
       </c>
       <c r="X217" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="11:24">
@@ -5867,7 +5876,7 @@
         <v>504</v>
       </c>
       <c r="X218" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="11:24">
@@ -5875,7 +5884,7 @@
         <v>505</v>
       </c>
       <c r="X219" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="11:24">
@@ -5883,7 +5892,7 @@
         <v>506</v>
       </c>
       <c r="X220" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="11:24">
@@ -5891,7 +5900,7 @@
         <v>507</v>
       </c>
       <c r="X221" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="11:24">
@@ -5899,7 +5908,7 @@
         <v>508</v>
       </c>
       <c r="X222" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="11:24">
@@ -5907,7 +5916,7 @@
         <v>509</v>
       </c>
       <c r="X223" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="11:24">
@@ -5915,7 +5924,7 @@
         <v>510</v>
       </c>
       <c r="X224" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="11:24">
@@ -5923,7 +5932,7 @@
         <v>511</v>
       </c>
       <c r="X225" t="s">
-        <v>603</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="11:24">
@@ -5931,7 +5940,7 @@
         <v>512</v>
       </c>
       <c r="X226" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="11:24">
@@ -5939,7 +5948,7 @@
         <v>513</v>
       </c>
       <c r="X227" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="11:24">
@@ -5947,7 +5956,7 @@
         <v>514</v>
       </c>
       <c r="X228" t="s">
-        <v>509</v>
+        <v>606</v>
       </c>
     </row>
     <row r="229" spans="11:24">
@@ -5955,7 +5964,7 @@
         <v>515</v>
       </c>
       <c r="X229" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="11:24">
@@ -5963,7 +5972,7 @@
         <v>516</v>
       </c>
       <c r="X230" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="11:24">
@@ -5971,7 +5980,7 @@
         <v>517</v>
       </c>
       <c r="X231" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="11:24">
@@ -5979,7 +5988,7 @@
         <v>518</v>
       </c>
       <c r="X232" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="11:24">
@@ -5987,7 +5996,7 @@
         <v>519</v>
       </c>
       <c r="X233" t="s">
-        <v>604</v>
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="11:24">
@@ -5995,7 +6004,7 @@
         <v>520</v>
       </c>
       <c r="X234" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="11:24">
@@ -6003,7 +6012,7 @@
         <v>521</v>
       </c>
       <c r="X235" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="11:24">
@@ -6011,7 +6020,7 @@
         <v>522</v>
       </c>
       <c r="X236" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="11:24">
@@ -6019,7 +6028,7 @@
         <v>523</v>
       </c>
       <c r="X237" t="s">
-        <v>519</v>
+        <v>607</v>
       </c>
     </row>
     <row r="238" spans="11:24">
@@ -6027,7 +6036,7 @@
         <v>524</v>
       </c>
       <c r="X238" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="11:24">
@@ -6035,7 +6044,7 @@
         <v>525</v>
       </c>
       <c r="X239" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="11:24">
@@ -6043,7 +6052,7 @@
         <v>526</v>
       </c>
       <c r="X240" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="11:24">
@@ -6051,7 +6060,7 @@
         <v>527</v>
       </c>
       <c r="X241" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="11:24">
@@ -6059,7 +6068,7 @@
         <v>528</v>
       </c>
       <c r="X242" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="11:24">
@@ -6067,7 +6076,7 @@
         <v>529</v>
       </c>
       <c r="X243" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="11:24">
@@ -6075,7 +6084,7 @@
         <v>530</v>
       </c>
       <c r="X244" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="11:24">
@@ -6083,7 +6092,7 @@
         <v>531</v>
       </c>
       <c r="X245" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="11:24">
@@ -6091,7 +6100,7 @@
         <v>532</v>
       </c>
       <c r="X246" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="11:24">
@@ -6099,7 +6108,7 @@
         <v>533</v>
       </c>
       <c r="X247" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="11:24">
@@ -6107,7 +6116,7 @@
         <v>534</v>
       </c>
       <c r="X248" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="11:24">
@@ -6115,7 +6124,7 @@
         <v>535</v>
       </c>
       <c r="X249" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="11:24">
@@ -6123,7 +6132,7 @@
         <v>536</v>
       </c>
       <c r="X250" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="11:24">
@@ -6131,7 +6140,7 @@
         <v>537</v>
       </c>
       <c r="X251" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="11:24">
@@ -6139,7 +6148,7 @@
         <v>538</v>
       </c>
       <c r="X252" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="11:24">
@@ -6147,7 +6156,7 @@
         <v>539</v>
       </c>
       <c r="X253" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="11:24">
@@ -6155,7 +6164,7 @@
         <v>540</v>
       </c>
       <c r="X254" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="11:24">
@@ -6163,7 +6172,7 @@
         <v>541</v>
       </c>
       <c r="X255" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="11:24">
@@ -6171,7 +6180,7 @@
         <v>542</v>
       </c>
       <c r="X256" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="11:24">
@@ -6179,7 +6188,7 @@
         <v>543</v>
       </c>
       <c r="X257" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="258" spans="11:24">
@@ -6187,7 +6196,7 @@
         <v>544</v>
       </c>
       <c r="X258" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="259" spans="11:24">
@@ -6195,7 +6204,7 @@
         <v>545</v>
       </c>
       <c r="X259" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="11:24">
@@ -6203,7 +6212,7 @@
         <v>546</v>
       </c>
       <c r="X260" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="11:24">
@@ -6211,7 +6220,7 @@
         <v>547</v>
       </c>
       <c r="X261" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="11:24">
@@ -6219,7 +6228,7 @@
         <v>548</v>
       </c>
       <c r="X262" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="11:24">
@@ -6227,7 +6236,7 @@
         <v>549</v>
       </c>
       <c r="X263" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="11:24">
@@ -6235,7 +6244,7 @@
         <v>550</v>
       </c>
       <c r="X264" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="11:24">
@@ -6243,7 +6252,7 @@
         <v>551</v>
       </c>
       <c r="X265" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="11:24">
@@ -6251,7 +6260,7 @@
         <v>552</v>
       </c>
       <c r="X266" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="11:24">
@@ -6259,7 +6268,7 @@
         <v>553</v>
       </c>
       <c r="X267" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="11:24">
@@ -6267,7 +6276,7 @@
         <v>554</v>
       </c>
       <c r="X268" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="11:24">
@@ -6275,7 +6284,7 @@
         <v>555</v>
       </c>
       <c r="X269" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="11:24">
@@ -6283,7 +6292,7 @@
         <v>556</v>
       </c>
       <c r="X270" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="11:24">
@@ -6291,7 +6300,7 @@
         <v>557</v>
       </c>
       <c r="X271" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="11:24">
@@ -6299,7 +6308,7 @@
         <v>558</v>
       </c>
       <c r="X272" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="11:24">
@@ -6307,87 +6316,112 @@
         <v>559</v>
       </c>
       <c r="X273" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="11:24">
       <c r="X274" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="11:24">
       <c r="X275" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="11:24">
       <c r="X276" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="11:24">
       <c r="X277" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
     </row>
     <row r="278" spans="11:24">
       <c r="X278" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="11:24">
       <c r="X279" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" spans="11:24">
       <c r="X280" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="11:24">
       <c r="X281" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="11:24">
       <c r="X282" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="283" spans="11:24">
       <c r="X283" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="11:24">
       <c r="X284" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="11:24">
       <c r="X285" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="11:24">
       <c r="X286" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="11:24">
       <c r="X287" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="288" spans="11:24">
       <c r="X288" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" spans="24:24">
       <c r="X289" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="290" spans="24:24">
+      <c r="X290" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="291" spans="24:24">
+      <c r="X291" t="s">
         <v>618</v>
+      </c>
+    </row>
+    <row r="292" spans="24:24">
+      <c r="X292" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="293" spans="24:24">
+      <c r="X293" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="294" spans="24:24">
+      <c r="X294" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000029/metadata_template_ERC000029.xlsx
+++ b/templates/ERC000029/metadata_template_ERC000029.xlsx
@@ -21,7 +21,7 @@
     <definedName name="countryoftravel">'cv_sample'!$K$1:$K$273</definedName>
     <definedName name="environmentalsample">'cv_sample'!$U$1:$U$2</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$X$1:$X$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$X$1:$X$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$Z$1:$Z$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$AE$1:$AE$14</definedName>
     <definedName name="hostsex">'cv_sample'!$AF$1:$AF$17</definedName>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="689">
   <si>
     <t>alias</t>
   </si>
@@ -1772,13 +1772,13 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>amount or size of sample collected</t>
   </si>
   <si>
-    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: m3)</t>
+    <t>(Optional) The total amount or size (volume (ml), mass (g) or area (m2) ) of sample collected. (Units: kg)</t>
   </si>
   <si>
     <t>No</t>
@@ -1823,7 +1823,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1835,12 +1835,21 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -2096,7 +2105,7 @@
     <t>depth</t>
   </si>
   <si>
-    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: mm)</t>
+    <t>(Optional) The vertical distance below local surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. depth can be reported as an interval for subsurface samples. (Units: m)</t>
   </si>
 </sst>
 </file>
@@ -3710,91 +3719,91 @@
         <v>586</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="150" customHeight="1">
@@ -3868,91 +3877,91 @@
         <v>587</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -3991,7 +4000,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:AJ289"/>
+  <dimension ref="I1:AJ294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4014,13 +4023,13 @@
         <v>287</v>
       </c>
       <c r="Z1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="AE1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AF1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AJ1" t="s">
         <v>580</v>
@@ -4043,13 +4052,13 @@
         <v>288</v>
       </c>
       <c r="Z2" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="AE2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AF2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AJ2" t="s">
         <v>581</v>
@@ -4066,13 +4075,13 @@
         <v>289</v>
       </c>
       <c r="Z3" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="AE3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="AF3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="9:36">
@@ -4083,10 +4092,10 @@
         <v>290</v>
       </c>
       <c r="AE4" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="AF4" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5" spans="9:36">
@@ -4097,10 +4106,10 @@
         <v>291</v>
       </c>
       <c r="AE5" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="AF5" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6" spans="9:36">
@@ -4111,10 +4120,10 @@
         <v>292</v>
       </c>
       <c r="AE6" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AF6" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="7" spans="9:36">
@@ -4125,10 +4134,10 @@
         <v>293</v>
       </c>
       <c r="AE7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AF7" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="9:36">
@@ -4139,10 +4148,10 @@
         <v>294</v>
       </c>
       <c r="AE8" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="AF8" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="9" spans="9:36">
@@ -4153,10 +4162,10 @@
         <v>295</v>
       </c>
       <c r="AE9" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="AF9" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="9:36">
@@ -4167,10 +4176,10 @@
         <v>588</v>
       </c>
       <c r="AE10" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="AF10" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="11" spans="9:36">
@@ -4181,10 +4190,10 @@
         <v>296</v>
       </c>
       <c r="AE11" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="AF11" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="12" spans="9:36">
@@ -4195,10 +4204,10 @@
         <v>297</v>
       </c>
       <c r="AE12" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="AF12" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="9:36">
@@ -4209,10 +4218,10 @@
         <v>298</v>
       </c>
       <c r="AE13" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="AF13" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14" spans="9:36">
@@ -4223,10 +4232,10 @@
         <v>299</v>
       </c>
       <c r="AE14" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="AF14" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="9:36">
@@ -4237,7 +4246,7 @@
         <v>589</v>
       </c>
       <c r="AF15" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="9:36">
@@ -4259,7 +4268,7 @@
         <v>301</v>
       </c>
       <c r="AF17" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="18" spans="11:32">
@@ -4699,7 +4708,7 @@
         <v>358</v>
       </c>
       <c r="X72" t="s">
-        <v>594</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="11:24">
@@ -4707,7 +4716,7 @@
         <v>359</v>
       </c>
       <c r="X73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="11:24">
@@ -4715,7 +4724,7 @@
         <v>360</v>
       </c>
       <c r="X74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="11:24">
@@ -4723,7 +4732,7 @@
         <v>361</v>
       </c>
       <c r="X75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="11:24">
@@ -4731,7 +4740,7 @@
         <v>362</v>
       </c>
       <c r="X76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="11:24">
@@ -4739,7 +4748,7 @@
         <v>363</v>
       </c>
       <c r="X77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="11:24">
@@ -4747,7 +4756,7 @@
         <v>364</v>
       </c>
       <c r="X78" t="s">
-        <v>359</v>
+        <v>594</v>
       </c>
     </row>
     <row r="79" spans="11:24">
@@ -5291,7 +5300,7 @@
         <v>432</v>
       </c>
       <c r="X146" t="s">
-        <v>429</v>
+        <v>598</v>
       </c>
     </row>
     <row r="147" spans="11:24">
@@ -5299,7 +5308,7 @@
         <v>433</v>
       </c>
       <c r="X147" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="11:24">
@@ -5307,7 +5316,7 @@
         <v>434</v>
       </c>
       <c r="X148" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="11:24">
@@ -5315,7 +5324,7 @@
         <v>435</v>
       </c>
       <c r="X149" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="11:24">
@@ -5411,7 +5420,7 @@
         <v>447</v>
       </c>
       <c r="X161" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="162" spans="11:24">
@@ -5427,7 +5436,7 @@
         <v>449</v>
       </c>
       <c r="X163" t="s">
-        <v>445</v>
+        <v>600</v>
       </c>
     </row>
     <row r="164" spans="11:24">
@@ -5499,7 +5508,7 @@
         <v>458</v>
       </c>
       <c r="X172" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="173" spans="11:24">
@@ -5611,7 +5620,7 @@
         <v>472</v>
       </c>
       <c r="X186" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="187" spans="11:24">
@@ -5619,7 +5628,7 @@
         <v>473</v>
       </c>
       <c r="X187" t="s">
-        <v>468</v>
+        <v>603</v>
       </c>
     </row>
     <row r="188" spans="11:24">
@@ -5627,7 +5636,7 @@
         <v>474</v>
       </c>
       <c r="X188" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="11:24">
@@ -5635,7 +5644,7 @@
         <v>475</v>
       </c>
       <c r="X189" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="11:24">
@@ -5643,7 +5652,7 @@
         <v>476</v>
       </c>
       <c r="X190" t="s">
-        <v>601</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="11:24">
@@ -5651,7 +5660,7 @@
         <v>477</v>
       </c>
       <c r="X191" t="s">
-        <v>471</v>
+        <v>604</v>
       </c>
     </row>
     <row r="192" spans="11:24">
@@ -5659,7 +5668,7 @@
         <v>478</v>
       </c>
       <c r="X192" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="11:24">
@@ -5667,7 +5676,7 @@
         <v>479</v>
       </c>
       <c r="X193" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="11:24">
@@ -5675,7 +5684,7 @@
         <v>480</v>
       </c>
       <c r="X194" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="11:24">
@@ -5683,7 +5692,7 @@
         <v>481</v>
       </c>
       <c r="X195" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="11:24">
@@ -5691,7 +5700,7 @@
         <v>482</v>
       </c>
       <c r="X196" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="11:24">
@@ -5699,7 +5708,7 @@
         <v>483</v>
       </c>
       <c r="X197" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="11:24">
@@ -5707,7 +5716,7 @@
         <v>484</v>
       </c>
       <c r="X198" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="11:24">
@@ -5715,7 +5724,7 @@
         <v>485</v>
       </c>
       <c r="X199" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="11:24">
@@ -5723,7 +5732,7 @@
         <v>486</v>
       </c>
       <c r="X200" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="11:24">
@@ -5731,7 +5740,7 @@
         <v>487</v>
       </c>
       <c r="X201" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="11:24">
@@ -5739,7 +5748,7 @@
         <v>488</v>
       </c>
       <c r="X202" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="11:24">
@@ -5747,7 +5756,7 @@
         <v>489</v>
       </c>
       <c r="X203" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="11:24">
@@ -5755,7 +5764,7 @@
         <v>490</v>
       </c>
       <c r="X204" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="11:24">
@@ -5763,7 +5772,7 @@
         <v>491</v>
       </c>
       <c r="X205" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="11:24">
@@ -5771,7 +5780,7 @@
         <v>492</v>
       </c>
       <c r="X206" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="11:24">
@@ -5779,7 +5788,7 @@
         <v>493</v>
       </c>
       <c r="X207" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="11:24">
@@ -5787,7 +5796,7 @@
         <v>494</v>
       </c>
       <c r="X208" t="s">
-        <v>602</v>
+        <v>487</v>
       </c>
     </row>
     <row r="209" spans="11:24">
@@ -5795,7 +5804,7 @@
         <v>495</v>
       </c>
       <c r="X209" t="s">
-        <v>488</v>
+        <v>605</v>
       </c>
     </row>
     <row r="210" spans="11:24">
@@ -5803,7 +5812,7 @@
         <v>496</v>
       </c>
       <c r="X210" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="11:24">
@@ -5811,7 +5820,7 @@
         <v>497</v>
       </c>
       <c r="X211" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="11:24">
@@ -5819,7 +5828,7 @@
         <v>498</v>
       </c>
       <c r="X212" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="11:24">
@@ -5827,7 +5836,7 @@
         <v>499</v>
       </c>
       <c r="X213" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="11:24">
@@ -5835,7 +5844,7 @@
         <v>500</v>
       </c>
       <c r="X214" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="11:24">
@@ -5843,7 +5852,7 @@
         <v>501</v>
       </c>
       <c r="X215" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="11:24">
@@ -5851,7 +5860,7 @@
         <v>502</v>
       </c>
       <c r="X216" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="11:24">
@@ -5859,7 +5868,7 @@
         <v>503</v>
       </c>
       <c r="X217" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="11:24">
@@ -5867,7 +5876,7 @@
         <v>504</v>
       </c>
       <c r="X218" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="11:24">
@@ -5875,7 +5884,7 @@
         <v>505</v>
       </c>
       <c r="X219" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="11:24">
@@ -5883,7 +5892,7 @@
         <v>506</v>
       </c>
       <c r="X220" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="11:24">
@@ -5891,7 +5900,7 @@
         <v>507</v>
       </c>
       <c r="X221" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="11:24">
@@ -5899,7 +5908,7 @@
         <v>508</v>
       </c>
       <c r="X222" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="11:24">
@@ -5907,7 +5916,7 @@
         <v>509</v>
       </c>
       <c r="X223" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="11:24">
@@ -5915,7 +5924,7 @@
         <v>510</v>
       </c>
       <c r="X224" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="11:24">
@@ -5923,7 +5932,7 @@
         <v>511</v>
       </c>
       <c r="X225" t="s">
-        <v>603</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="11:24">
@@ -5931,7 +5940,7 @@
         <v>512</v>
       </c>
       <c r="X226" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="11:24">
@@ -5939,7 +5948,7 @@
         <v>513</v>
       </c>
       <c r="X227" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="11:24">
@@ -5947,7 +5956,7 @@
         <v>514</v>
       </c>
       <c r="X228" t="s">
-        <v>509</v>
+        <v>606</v>
       </c>
     </row>
     <row r="229" spans="11:24">
@@ -5955,7 +5964,7 @@
         <v>515</v>
       </c>
       <c r="X229" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="11:24">
@@ -5963,7 +5972,7 @@
         <v>516</v>
       </c>
       <c r="X230" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="11:24">
@@ -5971,7 +5980,7 @@
         <v>517</v>
       </c>
       <c r="X231" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="11:24">
@@ -5979,7 +5988,7 @@
         <v>518</v>
       </c>
       <c r="X232" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="11:24">
@@ -5987,7 +5996,7 @@
         <v>519</v>
       </c>
       <c r="X233" t="s">
-        <v>604</v>
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="11:24">
@@ -5995,7 +6004,7 @@
         <v>520</v>
       </c>
       <c r="X234" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="11:24">
@@ -6003,7 +6012,7 @@
         <v>521</v>
       </c>
       <c r="X235" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="11:24">
@@ -6011,7 +6020,7 @@
         <v>522</v>
       </c>
       <c r="X236" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="11:24">
@@ -6019,7 +6028,7 @@
         <v>523</v>
       </c>
       <c r="X237" t="s">
-        <v>519</v>
+        <v>607</v>
       </c>
     </row>
     <row r="238" spans="11:24">
@@ -6027,7 +6036,7 @@
         <v>524</v>
       </c>
       <c r="X238" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="11:24">
@@ -6035,7 +6044,7 @@
         <v>525</v>
       </c>
       <c r="X239" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="11:24">
@@ -6043,7 +6052,7 @@
         <v>526</v>
       </c>
       <c r="X240" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="11:24">
@@ -6051,7 +6060,7 @@
         <v>527</v>
       </c>
       <c r="X241" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="11:24">
@@ -6059,7 +6068,7 @@
         <v>528</v>
       </c>
       <c r="X242" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="11:24">
@@ -6067,7 +6076,7 @@
         <v>529</v>
       </c>
       <c r="X243" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="11:24">
@@ -6075,7 +6084,7 @@
         <v>530</v>
       </c>
       <c r="X244" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="11:24">
@@ -6083,7 +6092,7 @@
         <v>531</v>
       </c>
       <c r="X245" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="11:24">
@@ -6091,7 +6100,7 @@
         <v>532</v>
       </c>
       <c r="X246" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="11:24">
@@ -6099,7 +6108,7 @@
         <v>533</v>
       </c>
       <c r="X247" t="s">
-        <v>605</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="11:24">
@@ -6107,7 +6116,7 @@
         <v>534</v>
       </c>
       <c r="X248" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="11:24">
@@ -6115,7 +6124,7 @@
         <v>535</v>
       </c>
       <c r="X249" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="11:24">
@@ -6123,7 +6132,7 @@
         <v>536</v>
       </c>
       <c r="X250" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="11:24">
@@ -6131,7 +6140,7 @@
         <v>537</v>
       </c>
       <c r="X251" t="s">
-        <v>533</v>
+        <v>608</v>
       </c>
     </row>
     <row r="252" spans="11:24">
@@ -6139,7 +6148,7 @@
         <v>538</v>
       </c>
       <c r="X252" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="11:24">
@@ -6147,7 +6156,7 @@
         <v>539</v>
       </c>
       <c r="X253" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="11:24">
@@ -6155,7 +6164,7 @@
         <v>540</v>
       </c>
       <c r="X254" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="11:24">
@@ -6163,7 +6172,7 @@
         <v>541</v>
       </c>
       <c r="X255" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="11:24">
@@ -6171,7 +6180,7 @@
         <v>542</v>
       </c>
       <c r="X256" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="11:24">
@@ -6179,7 +6188,7 @@
         <v>543</v>
       </c>
       <c r="X257" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="258" spans="11:24">
@@ -6187,7 +6196,7 @@
         <v>544</v>
       </c>
       <c r="X258" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="259" spans="11:24">
@@ -6195,7 +6204,7 @@
         <v>545</v>
       </c>
       <c r="X259" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="11:24">
@@ -6203,7 +6212,7 @@
         <v>546</v>
       </c>
       <c r="X260" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="11:24">
@@ -6211,7 +6220,7 @@
         <v>547</v>
       </c>
       <c r="X261" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="11:24">
@@ -6219,7 +6228,7 @@
         <v>548</v>
       </c>
       <c r="X262" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="11:24">
@@ -6227,7 +6236,7 @@
         <v>549</v>
       </c>
       <c r="X263" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="11:24">
@@ -6235,7 +6244,7 @@
         <v>550</v>
       </c>
       <c r="X264" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="11:24">
@@ -6243,7 +6252,7 @@
         <v>551</v>
       </c>
       <c r="X265" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="11:24">
@@ -6251,7 +6260,7 @@
         <v>552</v>
       </c>
       <c r="X266" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="11:24">
@@ -6259,7 +6268,7 @@
         <v>553</v>
       </c>
       <c r="X267" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="11:24">
@@ -6267,7 +6276,7 @@
         <v>554</v>
       </c>
       <c r="X268" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="11:24">
@@ -6275,7 +6284,7 @@
         <v>555</v>
       </c>
       <c r="X269" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="11:24">
@@ -6283,7 +6292,7 @@
         <v>556</v>
       </c>
       <c r="X270" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="11:24">
@@ -6291,7 +6300,7 @@
         <v>557</v>
       </c>
       <c r="X271" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="11:24">
@@ -6299,7 +6308,7 @@
         <v>558</v>
       </c>
       <c r="X272" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="11:24">
@@ -6307,87 +6316,112 @@
         <v>559</v>
       </c>
       <c r="X273" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="11:24">
       <c r="X274" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="11:24">
       <c r="X275" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="11:24">
       <c r="X276" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="11:24">
       <c r="X277" t="s">
-        <v>606</v>
+        <v>555</v>
       </c>
     </row>
     <row r="278" spans="11:24">
       <c r="X278" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="11:24">
       <c r="X279" t="s">
-        <v>608</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" spans="11:24">
       <c r="X280" t="s">
-        <v>609</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="11:24">
       <c r="X281" t="s">
-        <v>610</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="11:24">
       <c r="X282" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="283" spans="11:24">
       <c r="X283" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="284" spans="11:24">
       <c r="X284" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="285" spans="11:24">
       <c r="X285" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="286" spans="11:24">
       <c r="X286" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="287" spans="11:24">
       <c r="X287" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="288" spans="11:24">
       <c r="X288" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" spans="24:24">
       <c r="X289" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="290" spans="24:24">
+      <c r="X290" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="291" spans="24:24">
+      <c r="X291" t="s">
         <v>618</v>
+      </c>
+    </row>
+    <row r="292" spans="24:24">
+      <c r="X292" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="293" spans="24:24">
+      <c r="X293" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="294" spans="24:24">
+      <c r="X294" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>
